--- a/india_REV_input/Scenarios_Cost_Master_v5.xlsx
+++ b/india_REV_input/Scenarios_Cost_Master_v5.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="29860" yWindow="700" windowWidth="35580" windowHeight="17560" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="REvalue_input_csv" sheetId="11" r:id="rId1"/>
@@ -463,7 +463,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="484">
   <si>
     <t>Screening curves</t>
   </si>
@@ -1903,6 +1903,18 @@
   </si>
   <si>
     <t xml:space="preserve">scenario_battery </t>
+  </si>
+  <si>
+    <t>battery60</t>
+  </si>
+  <si>
+    <t>battery60B50LC</t>
+  </si>
+  <si>
+    <t>ClcC70mB60</t>
+  </si>
+  <si>
+    <t>ClcC70mB60B50lc</t>
   </si>
 </sst>
 </file>
@@ -2413,13 +2425,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD47"/>
+  <dimension ref="A1:AF47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="8" topLeftCell="AA9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomRight" activeCell="AC15" sqref="AC15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2432,21 +2444,21 @@
     <col min="6" max="6" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="15" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="19" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="27.83203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="16" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="19" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="34.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>225</v>
       </c>
@@ -2481,64 +2493,70 @@
         <v>232</v>
       </c>
       <c r="L1" t="s">
+        <v>480</v>
+      </c>
+      <c r="M1" t="s">
         <v>233</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>234</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>235</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>236</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>237</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>238</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>239</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>240</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>241</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>242</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>414</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>419</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>420</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>421</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>422</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
+        <v>481</v>
+      </c>
+      <c r="AC1" t="s">
         <v>438</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>464</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>466</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
         <v>243</v>
       </c>
@@ -2554,7 +2572,7 @@
         <v>ChcC70m</v>
       </c>
       <c r="E2" s="21" t="str">
-        <f t="shared" ref="E2:AA2" si="0">E3</f>
+        <f t="shared" ref="E2:AC2" si="0">E3</f>
         <v>ClcC55m</v>
       </c>
       <c r="F2" s="21" t="str">
@@ -2583,82 +2601,90 @@
       </c>
       <c r="L2" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>ClcC70mW10lc</v>
+        <v>ClcC70mB60</v>
       </c>
       <c r="M2" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>ClcC70mW20lc</v>
+        <v>ClcC70mW10lc</v>
       </c>
       <c r="N2" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>ClcC70mW30lc</v>
+        <v>ClcC70mW20lc</v>
       </c>
       <c r="O2" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>ClcC70mS10lc</v>
+        <v>ClcC70mW30lc</v>
       </c>
       <c r="P2" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>ClcC70mS20lc</v>
+        <v>ClcC70mS10lc</v>
       </c>
       <c r="Q2" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>ClcC70mS30lc</v>
+        <v>ClcC70mS20lc</v>
       </c>
       <c r="R2" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>ClcC70mW30lcS30lc</v>
+        <v>ClcC70mS30lc</v>
       </c>
       <c r="S2" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>ClcC70mW120</v>
+        <v>ClcC70mW30lcS30lc</v>
       </c>
       <c r="T2" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>ClcC70mS1A</v>
+        <v>ClcC70mW120</v>
       </c>
       <c r="U2" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>ClcC70mS90d</v>
+        <v>ClcC70mS1A</v>
       </c>
       <c r="V2" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>ClcC70mW120S1A</v>
+        <v>ClcC70mS90d</v>
       </c>
       <c r="W2" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>ClcC70mB15B25lc</v>
+        <v>ClcC70mW120S1A</v>
       </c>
       <c r="X2" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>ClcC70mB15B50lc</v>
+        <v>ClcC70mB15B25lc</v>
       </c>
       <c r="Y2" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>ClcC70mB30B25lc</v>
+        <v>ClcC70mB15B50lc</v>
       </c>
       <c r="Z2" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>ClcC70mB30B50lc</v>
+        <v>ClcC70mB30B25lc</v>
       </c>
       <c r="AA2" s="21" t="str">
         <f t="shared" si="0"/>
+        <v>ClcC70mB30B50lc</v>
+      </c>
+      <c r="AB2" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>ClcC70mB60B50lc</v>
+      </c>
+      <c r="AC2" s="21" t="str">
+        <f t="shared" si="0"/>
         <v>ChcC70mW30lcS30lc</v>
-      </c>
-      <c r="AB2" s="21" t="str">
-        <f>AB3</f>
-        <v>ClcC70mLmod_D0_M0_energyOnly</v>
-      </c>
-      <c r="AC2" s="21" t="str">
-        <f>AC3</f>
-        <v>ClcC70mLmod_D50_M0_energyOnly</v>
       </c>
       <c r="AD2" s="21" t="str">
         <f>AD3</f>
+        <v>ClcC70mLmod_D0_M0_energyOnly</v>
+      </c>
+      <c r="AE2" s="21" t="str">
+        <f>AE3</f>
+        <v>ClcC70mLmod_D50_M0_energyOnly</v>
+      </c>
+      <c r="AF2" s="21" t="str">
+        <f>AF3</f>
         <v>ClcC70mLmod_D25_M25_energyOnly</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>245</v>
       </c>
@@ -2667,7 +2693,7 @@
         <v>ClcC70m</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:Z3" si="1">CONCATENATE(D10,D13,D17,D19,D21,D25,D29,D33,D36,D39,D42,D44,D47)</f>
+        <f t="shared" ref="D3:AA3" si="1">CONCATENATE(D10,D13,D17,D19,D21,D25,D29,D33,D36,D39,D42,D44,D47)</f>
         <v>ChcC70m</v>
       </c>
       <c r="E3" t="str">
@@ -2699,96 +2725,104 @@
         <v>ClcC70mB30</v>
       </c>
       <c r="L3" t="str">
+        <f t="shared" ref="L3" si="3">CONCATENATE(L10,L13,L17,L19,L21,L25,L29,L33,L36,L39,L42,L44,L47)</f>
+        <v>ClcC70mB60</v>
+      </c>
+      <c r="M3" t="str">
         <f t="shared" si="1"/>
         <v>ClcC70mW10lc</v>
       </c>
-      <c r="M3" t="str">
+      <c r="N3" t="str">
         <f t="shared" si="1"/>
         <v>ClcC70mW20lc</v>
       </c>
-      <c r="N3" t="str">
+      <c r="O3" t="str">
         <f t="shared" si="1"/>
         <v>ClcC70mW30lc</v>
       </c>
-      <c r="O3" t="str">
+      <c r="P3" t="str">
         <f t="shared" si="1"/>
         <v>ClcC70mS10lc</v>
       </c>
-      <c r="P3" t="str">
+      <c r="Q3" t="str">
         <f t="shared" si="1"/>
         <v>ClcC70mS20lc</v>
       </c>
-      <c r="Q3" t="str">
+      <c r="R3" t="str">
         <f t="shared" si="1"/>
         <v>ClcC70mS30lc</v>
       </c>
-      <c r="R3" t="str">
+      <c r="S3" t="str">
         <f t="shared" si="1"/>
         <v>ClcC70mW30lcS30lc</v>
       </c>
-      <c r="S3" t="str">
+      <c r="T3" t="str">
         <f t="shared" si="1"/>
         <v>ClcC70mW120</v>
       </c>
-      <c r="T3" t="str">
+      <c r="U3" t="str">
         <f t="shared" si="1"/>
         <v>ClcC70mS1A</v>
       </c>
-      <c r="U3" t="str">
+      <c r="V3" t="str">
         <f t="shared" si="1"/>
         <v>ClcC70mS90d</v>
       </c>
-      <c r="V3" t="str">
+      <c r="W3" t="str">
         <f t="shared" si="1"/>
         <v>ClcC70mW120S1A</v>
       </c>
-      <c r="W3" t="str">
+      <c r="X3" t="str">
         <f t="shared" si="1"/>
         <v>ClcC70mB15B25lc</v>
       </c>
-      <c r="X3" t="str">
+      <c r="Y3" t="str">
         <f t="shared" si="1"/>
         <v>ClcC70mB15B50lc</v>
       </c>
-      <c r="Y3" t="str">
+      <c r="Z3" t="str">
         <f t="shared" si="1"/>
         <v>ClcC70mB30B25lc</v>
       </c>
-      <c r="Z3" t="str">
+      <c r="AA3" t="str">
         <f t="shared" si="1"/>
         <v>ClcC70mB30B50lc</v>
       </c>
-      <c r="AA3" t="str">
-        <f t="shared" ref="AA3" si="3">CONCATENATE(AA10,AA13,AA17,AA19,AA21,AA25,AA29,AA33,AA36,AA39,AA42,AA44,AA47)</f>
+      <c r="AB3" t="str">
+        <f t="shared" ref="AB3" si="4">CONCATENATE(AB10,AB13,AB17,AB19,AB21,AB25,AB29,AB33,AB36,AB39,AB42,AB44,AB47)</f>
+        <v>ClcC70mB60B50lc</v>
+      </c>
+      <c r="AC3" t="str">
+        <f t="shared" ref="AC3" si="5">CONCATENATE(AC10,AC13,AC17,AC19,AC21,AC25,AC29,AC33,AC36,AC39,AC42,AC44,AC47)</f>
         <v>ChcC70mW30lcS30lc</v>
-      </c>
-      <c r="AB3" t="str">
-        <f>CONCATENATE(AB10,AB13,AB17,AB19,AB21,AB25,AB29,AB33,AB36,AB39,AB42,AB44,AB47)</f>
-        <v>ClcC70mLmod_D0_M0_energyOnly</v>
-      </c>
-      <c r="AC3" t="str">
-        <f>CONCATENATE(AC10,AC13,AC17,AC19,AC21,AC25,AC29,AC33,AC36,AC39,AC42,AC44,AC47)</f>
-        <v>ClcC70mLmod_D50_M0_energyOnly</v>
       </c>
       <c r="AD3" t="str">
         <f>CONCATENATE(AD10,AD13,AD17,AD19,AD21,AD25,AD29,AD33,AD36,AD39,AD42,AD44,AD47)</f>
+        <v>ClcC70mLmod_D0_M0_energyOnly</v>
+      </c>
+      <c r="AE3" t="str">
+        <f>CONCATENATE(AE10,AE13,AE17,AE19,AE21,AE25,AE29,AE33,AE36,AE39,AE42,AE44,AE47)</f>
+        <v>ClcC70mLmod_D50_M0_energyOnly</v>
+      </c>
+      <c r="AF3" t="str">
+        <f>CONCATENATE(AF10,AF13,AF17,AF19,AF21,AF25,AF29,AF33,AF36,AF39,AF42,AF44,AF47)</f>
         <v>ClcC70mLmod_D25_M25_energyOnly</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>413</v>
       </c>
       <c r="C4" t="str">
-        <f t="shared" ref="C4:E4" si="4">CONCATENATE(C10,C13,C15,C17,C19,C21,C36,C39,C42,C44,C47)</f>
+        <f t="shared" ref="C4:E4" si="6">CONCATENATE(C10,C13,C15,C17,C19,C21,C36,C39,C42,C44,C47)</f>
         <v>ClcC70m</v>
       </c>
       <c r="D4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>ChcC70m</v>
       </c>
       <c r="E4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>ClcC55m</v>
       </c>
       <c r="F4" t="str">
@@ -2796,189 +2830,197 @@
         <v>ClcC0m</v>
       </c>
       <c r="G4" t="str">
-        <f t="shared" ref="G4:AD4" si="5">CONCATENATE(G10,G13,G15,G17,G19,G21,G36,G39,G42,G44,G47)</f>
+        <f t="shared" ref="G4:AF4" si="7">CONCATENATE(G10,G13,G15,G17,G19,G21,G36,G39,G42,G44,G47)</f>
         <v>ClcC70mH-25</v>
       </c>
       <c r="H4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>ClcC70mH25</v>
       </c>
       <c r="I4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>ClcC70mN64</v>
       </c>
       <c r="J4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>ClcC70mB15</v>
       </c>
       <c r="K4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>ClcC70mB30</v>
       </c>
       <c r="L4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="L4" si="8">CONCATENATE(L10,L13,L15,L17,L19,L21,L36,L39,L42,L44,L47)</f>
+        <v>ClcC70mB60</v>
+      </c>
+      <c r="M4" t="str">
+        <f t="shared" si="7"/>
         <v>ClcC70m</v>
       </c>
-      <c r="M4" t="str">
-        <f t="shared" si="5"/>
+      <c r="N4" t="str">
+        <f t="shared" si="7"/>
         <v>ClcC70m</v>
       </c>
-      <c r="N4" t="str">
-        <f t="shared" si="5"/>
+      <c r="O4" t="str">
+        <f t="shared" si="7"/>
         <v>ClcC70m</v>
       </c>
-      <c r="O4" t="str">
-        <f t="shared" si="5"/>
+      <c r="P4" t="str">
+        <f t="shared" si="7"/>
         <v>ClcC70m</v>
       </c>
-      <c r="P4" t="str">
-        <f t="shared" si="5"/>
+      <c r="Q4" t="str">
+        <f t="shared" si="7"/>
         <v>ClcC70m</v>
       </c>
-      <c r="Q4" t="str">
-        <f t="shared" si="5"/>
+      <c r="R4" t="str">
+        <f t="shared" si="7"/>
         <v>ClcC70m</v>
       </c>
-      <c r="R4" t="str">
-        <f t="shared" si="5"/>
+      <c r="S4" t="str">
+        <f t="shared" si="7"/>
         <v>ClcC70m</v>
       </c>
-      <c r="S4" t="str">
-        <f t="shared" si="5"/>
+      <c r="T4" t="str">
+        <f t="shared" si="7"/>
         <v>ClcC70mW120</v>
       </c>
-      <c r="T4" t="str">
-        <f t="shared" si="5"/>
+      <c r="U4" t="str">
+        <f t="shared" si="7"/>
         <v>ClcC70mS1A</v>
       </c>
-      <c r="U4" t="str">
-        <f t="shared" si="5"/>
+      <c r="V4" t="str">
+        <f t="shared" si="7"/>
         <v>ClcC70mS90d</v>
       </c>
-      <c r="V4" t="str">
-        <f t="shared" si="5"/>
+      <c r="W4" t="str">
+        <f t="shared" si="7"/>
         <v>ClcC70mW120S1A</v>
       </c>
-      <c r="W4" t="str">
-        <f t="shared" si="5"/>
+      <c r="X4" t="str">
+        <f t="shared" si="7"/>
         <v>ClcC70mB15</v>
       </c>
-      <c r="X4" t="str">
-        <f t="shared" si="5"/>
+      <c r="Y4" t="str">
+        <f t="shared" si="7"/>
         <v>ClcC70mB15</v>
       </c>
-      <c r="Y4" t="str">
-        <f t="shared" si="5"/>
+      <c r="Z4" t="str">
+        <f t="shared" si="7"/>
         <v>ClcC70mB30</v>
       </c>
-      <c r="Z4" t="str">
-        <f t="shared" si="5"/>
+      <c r="AA4" t="str">
+        <f t="shared" si="7"/>
         <v>ClcC70mB30</v>
       </c>
-      <c r="AA4" t="str">
-        <f t="shared" si="5"/>
+      <c r="AB4" t="str">
+        <f t="shared" ref="AB4" si="9">CONCATENATE(AB10,AB13,AB15,AB17,AB19,AB21,AB36,AB39,AB42,AB44,AB47)</f>
+        <v>ClcC70mB60</v>
+      </c>
+      <c r="AC4" t="str">
+        <f t="shared" si="7"/>
         <v>ChcC70m</v>
       </c>
-      <c r="AB4" t="str">
-        <f t="shared" si="5"/>
+      <c r="AD4" t="str">
+        <f t="shared" si="7"/>
         <v>ClcC70mLmod_D0_M0_energyOnly</v>
       </c>
-      <c r="AC4" t="str">
-        <f t="shared" si="5"/>
+      <c r="AE4" t="str">
+        <f t="shared" si="7"/>
         <v>ClcC70mLmod_D50_M0_energyOnly</v>
       </c>
-      <c r="AD4" t="str">
-        <f t="shared" si="5"/>
+      <c r="AF4" t="str">
+        <f t="shared" si="7"/>
         <v>ClcC70mLmod_D25_M25_energyOnly</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>246</v>
       </c>
       <c r="C5" t="str">
-        <f t="shared" ref="C5:U5" si="6">CONCATENATE(C11,C17,C19,C21,C36,C39,C42,C44,C47)</f>
+        <f t="shared" ref="C5:V5" si="10">CONCATENATE(C11,C17,C19,C21,C36,C39,C42,C44,C47)</f>
         <v>coallc</v>
       </c>
       <c r="D5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>coalhc</v>
       </c>
       <c r="E5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>coallc</v>
       </c>
       <c r="F5" t="str">
-        <f t="shared" ref="F5" si="7">CONCATENATE(F11,F17,F19,F21,F36,F39,F42,F44,F47)</f>
+        <f t="shared" ref="F5" si="11">CONCATENATE(F11,F17,F19,F21,F36,F39,F42,F44,F47)</f>
         <v>coallc</v>
       </c>
       <c r="G5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>coallcH-25</v>
       </c>
       <c r="H5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>coallcH25</v>
       </c>
       <c r="I5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>coallcN64</v>
       </c>
       <c r="J5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>coallcB15</v>
       </c>
       <c r="K5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>coallcB30</v>
       </c>
       <c r="L5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="L5" si="12">CONCATENATE(L11,L17,L19,L21,L36,L39,L42,L44,L47)</f>
+        <v>coallcB60</v>
+      </c>
+      <c r="M5" t="str">
+        <f t="shared" si="10"/>
         <v>coallc</v>
       </c>
-      <c r="M5" t="str">
-        <f t="shared" si="6"/>
+      <c r="N5" t="str">
+        <f t="shared" si="10"/>
         <v>coallc</v>
       </c>
-      <c r="N5" t="str">
-        <f t="shared" si="6"/>
+      <c r="O5" t="str">
+        <f t="shared" si="10"/>
         <v>coallc</v>
       </c>
-      <c r="O5" t="str">
-        <f t="shared" si="6"/>
+      <c r="P5" t="str">
+        <f t="shared" si="10"/>
         <v>coallc</v>
       </c>
-      <c r="P5" t="str">
-        <f t="shared" si="6"/>
+      <c r="Q5" t="str">
+        <f t="shared" si="10"/>
         <v>coallc</v>
       </c>
-      <c r="Q5" t="str">
-        <f t="shared" si="6"/>
+      <c r="R5" t="str">
+        <f t="shared" si="10"/>
         <v>coallc</v>
       </c>
-      <c r="R5" t="str">
-        <f t="shared" si="6"/>
+      <c r="S5" t="str">
+        <f t="shared" si="10"/>
         <v>coallc</v>
       </c>
-      <c r="S5" t="str">
-        <f t="shared" si="6"/>
+      <c r="T5" t="str">
+        <f t="shared" si="10"/>
         <v>coallcW120</v>
       </c>
-      <c r="T5" t="str">
-        <f t="shared" si="6"/>
+      <c r="U5" t="str">
+        <f t="shared" si="10"/>
         <v>coallcS1A</v>
       </c>
-      <c r="U5" t="str">
-        <f t="shared" si="6"/>
+      <c r="V5" t="str">
+        <f t="shared" si="10"/>
         <v>coallcS90d</v>
-      </c>
-      <c r="V5" t="str">
-        <f>CONCATENATE(V11,V17,V19,V21,V36,V39,V42,V44,V47)</f>
-        <v>coallcW120S1A</v>
       </c>
       <c r="W5" t="str">
         <f>CONCATENATE(W11,W17,W19,W21,W36,W39,W42,W44,W47)</f>
-        <v>coallcB15</v>
+        <v>coallcW120S1A</v>
       </c>
       <c r="X5" t="str">
         <f>CONCATENATE(X11,X17,X19,X21,X36,X39,X42,X44,X47)</f>
@@ -2986,35 +3028,43 @@
       </c>
       <c r="Y5" t="str">
         <f>CONCATENATE(Y11,Y17,Y19,Y21,Y36,Y39,Y42,Y44,Y47)</f>
-        <v>coallcB30</v>
+        <v>coallcB15</v>
       </c>
       <c r="Z5" t="str">
         <f>CONCATENATE(Z11,Z17,Z19,Z21,Z36,Z39,Z42,Z44,Z47)</f>
         <v>coallcB30</v>
       </c>
       <c r="AA5" t="str">
-        <f t="shared" ref="AA5" si="8">CONCATENATE(AA11,AA17,AA19,AA21,AA36,AA39,AA42,AA44,AA47)</f>
-        <v>coalhc</v>
+        <f>CONCATENATE(AA11,AA17,AA19,AA21,AA36,AA39,AA42,AA44,AA47)</f>
+        <v>coallcB30</v>
       </c>
       <c r="AB5" t="str">
         <f>CONCATENATE(AB11,AB17,AB19,AB21,AB36,AB39,AB42,AB44,AB47)</f>
-        <v>coallcLmod_D0_M0_energyOnly</v>
+        <v>coallcB60</v>
       </c>
       <c r="AC5" t="str">
-        <f>CONCATENATE(AC11,AC17,AC19,AC21,AC36,AC39,AC42,AC44,AC47)</f>
-        <v>coallcLmod_D50_M0_energyOnly</v>
+        <f t="shared" ref="AC5" si="13">CONCATENATE(AC11,AC17,AC19,AC21,AC36,AC39,AC42,AC44,AC47)</f>
+        <v>coalhc</v>
       </c>
       <c r="AD5" t="str">
         <f>CONCATENATE(AD11,AD17,AD19,AD21,AD36,AD39,AD42,AD44,AD47)</f>
+        <v>coallcLmod_D0_M0_energyOnly</v>
+      </c>
+      <c r="AE5" t="str">
+        <f>CONCATENATE(AE11,AE17,AE19,AE21,AE36,AE39,AE42,AE44,AE47)</f>
+        <v>coallcLmod_D50_M0_energyOnly</v>
+      </c>
+      <c r="AF5" t="str">
+        <f>CONCATENATE(AF11,AF17,AF19,AF21,AF36,AF39,AF42,AF44,AF47)</f>
         <v>coallcLmod_D25_M25_energyOnly</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>247</v>
       </c>
       <c r="C6" t="str">
-        <f t="shared" ref="C6:U6" si="9">CONCATENATE(C11,C17,C19,C21,C36,C39,C42,C44,C47)</f>
+        <f t="shared" ref="C6:V6" si="14">CONCATENATE(C11,C17,C19,C21,C36,C39,C42,C44,C47)</f>
         <v>coallc</v>
       </c>
       <c r="D6" t="str">
@@ -3022,80 +3072,80 @@
         <v>coallc</v>
       </c>
       <c r="E6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>coallc</v>
       </c>
       <c r="F6" t="str">
-        <f t="shared" ref="F6" si="10">CONCATENATE(F11,F17,F19,F21,F36,F39,F42,F44,F47)</f>
+        <f t="shared" ref="F6" si="15">CONCATENATE(F11,F17,F19,F21,F36,F39,F42,F44,F47)</f>
         <v>coallc</v>
       </c>
       <c r="G6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>coallcH-25</v>
       </c>
       <c r="H6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>coallcH25</v>
       </c>
       <c r="I6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>coallcN64</v>
       </c>
       <c r="J6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>coallcB15</v>
       </c>
       <c r="K6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>coallcB30</v>
       </c>
       <c r="L6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="L6" si="16">CONCATENATE(L11,L17,L19,L21,L36,L39,L42,L44,L47)</f>
+        <v>coallcB60</v>
+      </c>
+      <c r="M6" t="str">
+        <f t="shared" si="14"/>
         <v>coallc</v>
       </c>
-      <c r="M6" t="str">
-        <f t="shared" si="9"/>
+      <c r="N6" t="str">
+        <f t="shared" si="14"/>
         <v>coallc</v>
       </c>
-      <c r="N6" t="str">
-        <f t="shared" si="9"/>
+      <c r="O6" t="str">
+        <f t="shared" si="14"/>
         <v>coallc</v>
       </c>
-      <c r="O6" t="str">
-        <f t="shared" si="9"/>
+      <c r="P6" t="str">
+        <f t="shared" si="14"/>
         <v>coallc</v>
       </c>
-      <c r="P6" t="str">
-        <f t="shared" si="9"/>
+      <c r="Q6" t="str">
+        <f t="shared" si="14"/>
         <v>coallc</v>
       </c>
-      <c r="Q6" t="str">
-        <f t="shared" si="9"/>
+      <c r="R6" t="str">
+        <f t="shared" si="14"/>
         <v>coallc</v>
       </c>
-      <c r="R6" t="str">
-        <f t="shared" si="9"/>
+      <c r="S6" t="str">
+        <f t="shared" si="14"/>
         <v>coallc</v>
       </c>
-      <c r="S6" t="str">
-        <f t="shared" si="9"/>
+      <c r="T6" t="str">
+        <f t="shared" si="14"/>
         <v>coallcW120</v>
       </c>
-      <c r="T6" t="str">
-        <f t="shared" si="9"/>
+      <c r="U6" t="str">
+        <f t="shared" si="14"/>
         <v>coallcS1A</v>
       </c>
-      <c r="U6" t="str">
-        <f t="shared" si="9"/>
+      <c r="V6" t="str">
+        <f t="shared" si="14"/>
         <v>coallcS90d</v>
-      </c>
-      <c r="V6" t="str">
-        <f>CONCATENATE(V11,V17,V19,V21,V36,V39,V42,V44,V47)</f>
-        <v>coallcW120S1A</v>
       </c>
       <c r="W6" t="str">
         <f>CONCATENATE(W11,W17,W19,W21,W36,W39,W42,W44,W47)</f>
-        <v>coallcB15</v>
+        <v>coallcW120S1A</v>
       </c>
       <c r="X6" t="str">
         <f>CONCATENATE(X11,X17,X19,X21,X36,X39,X42,X44,X47)</f>
@@ -3103,116 +3153,124 @@
       </c>
       <c r="Y6" t="str">
         <f>CONCATENATE(Y11,Y17,Y19,Y21,Y36,Y39,Y42,Y44,Y47)</f>
-        <v>coallcB30</v>
+        <v>coallcB15</v>
       </c>
       <c r="Z6" t="str">
         <f>CONCATENATE(Z11,Z17,Z19,Z21,Z36,Z39,Z42,Z44,Z47)</f>
         <v>coallcB30</v>
       </c>
       <c r="AA6" t="str">
+        <f>CONCATENATE(AA11,AA17,AA19,AA21,AA36,AA39,AA42,AA44,AA47)</f>
+        <v>coallcB30</v>
+      </c>
+      <c r="AB6" t="str">
+        <f>CONCATENATE(AB11,AB17,AB19,AB21,AB36,AB39,AB42,AB44,AB47)</f>
+        <v>coallcB60</v>
+      </c>
+      <c r="AC6" t="str">
         <f>C6</f>
         <v>coallc</v>
       </c>
-      <c r="AB6" t="str">
-        <f>CONCATENATE(AB11,AB17,AB19,AB21,AB36,AB39,AB42,AB44,AB47)</f>
-        <v>coallcLmod_D0_M0_energyOnly</v>
-      </c>
-      <c r="AC6" t="str">
-        <f>CONCATENATE(AC11,AC17,AC19,AC21,AC36,AC39,AC42,AC44,AC47)</f>
-        <v>coallcLmod_D50_M0_energyOnly</v>
-      </c>
       <c r="AD6" t="str">
         <f>CONCATENATE(AD11,AD17,AD19,AD21,AD36,AD39,AD42,AD44,AD47)</f>
+        <v>coallcLmod_D0_M0_energyOnly</v>
+      </c>
+      <c r="AE6" t="str">
+        <f>CONCATENATE(AE11,AE17,AE19,AE21,AE36,AE39,AE42,AE44,AE47)</f>
+        <v>coallcLmod_D50_M0_energyOnly</v>
+      </c>
+      <c r="AF6" t="str">
+        <f>CONCATENATE(AF11,AF17,AF19,AF21,AF36,AF39,AF42,AF44,AF47)</f>
         <v>coallcLmod_D25_M25_energyOnly</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>248</v>
       </c>
       <c r="C7" t="str">
-        <f t="shared" ref="C7:U7" si="11">CONCATENATE(C37,"_",C40)</f>
+        <f t="shared" ref="C7:V7" si="17">CONCATENATE(C37,"_",C40)</f>
         <v>W80_S0d</v>
       </c>
       <c r="D7" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>W80_S0d</v>
       </c>
       <c r="E7" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>W80_S0d</v>
       </c>
       <c r="F7" t="str">
-        <f t="shared" ref="F7" si="12">CONCATENATE(F37,"_",F40)</f>
+        <f t="shared" ref="F7" si="18">CONCATENATE(F37,"_",F40)</f>
         <v>W80_S0d</v>
       </c>
       <c r="G7" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>W80_S0d</v>
       </c>
       <c r="H7" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>W80_S0d</v>
       </c>
       <c r="I7" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>W80_S0d</v>
       </c>
       <c r="J7" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>W80_S0d</v>
       </c>
       <c r="K7" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>W80_S0d</v>
       </c>
       <c r="L7" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="L7" si="19">CONCATENATE(L37,"_",L40)</f>
         <v>W80_S0d</v>
       </c>
       <c r="M7" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>W80_S0d</v>
       </c>
       <c r="N7" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>W80_S0d</v>
       </c>
       <c r="O7" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>W80_S0d</v>
       </c>
       <c r="P7" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>W80_S0d</v>
       </c>
       <c r="Q7" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>W80_S0d</v>
       </c>
       <c r="R7" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>W80_S0d</v>
       </c>
       <c r="S7" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
+        <v>W80_S0d</v>
+      </c>
+      <c r="T7" t="str">
+        <f t="shared" si="17"/>
         <v>W120_S0d</v>
       </c>
-      <c r="T7" t="str">
-        <f t="shared" si="11"/>
+      <c r="U7" t="str">
+        <f t="shared" si="17"/>
         <v>W80_S1A</v>
       </c>
-      <c r="U7" t="str">
-        <f t="shared" si="11"/>
+      <c r="V7" t="str">
+        <f t="shared" si="17"/>
         <v>W80_S90d</v>
-      </c>
-      <c r="V7" t="str">
-        <f>CONCATENATE(V37,"_",V40)</f>
-        <v>W120_S1A</v>
       </c>
       <c r="W7" t="str">
         <f>CONCATENATE(W37,"_",W40)</f>
-        <v>W80_S0d</v>
+        <v>W120_S1A</v>
       </c>
       <c r="X7" t="str">
         <f>CONCATENATE(X37,"_",X40)</f>
@@ -3227,7 +3285,7 @@
         <v>W80_S0d</v>
       </c>
       <c r="AA7" t="str">
-        <f t="shared" ref="AA7" si="13">CONCATENATE(AA37,"_",AA40)</f>
+        <f>CONCATENATE(AA37,"_",AA40)</f>
         <v>W80_S0d</v>
       </c>
       <c r="AB7" t="str">
@@ -3235,15 +3293,23 @@
         <v>W80_S0d</v>
       </c>
       <c r="AC7" t="str">
-        <f>CONCATENATE(AC37,"_",AC40)</f>
+        <f t="shared" ref="AC7" si="20">CONCATENATE(AC37,"_",AC40)</f>
         <v>W80_S0d</v>
       </c>
       <c r="AD7" t="str">
         <f>CONCATENATE(AD37,"_",AD40)</f>
         <v>W80_S0d</v>
       </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE7" t="str">
+        <f>CONCATENATE(AE37,"_",AE40)</f>
+        <v>W80_S0d</v>
+      </c>
+      <c r="AF7" t="str">
+        <f>CONCATENATE(AF37,"_",AF40)</f>
+        <v>W80_S0d</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>249</v>
       </c>
@@ -3252,115 +3318,123 @@
         <v>coallc</v>
       </c>
       <c r="D8" t="str">
-        <f t="shared" ref="D8:Z8" si="14">CONCATENATE(D11,D29,D33,D25)</f>
+        <f t="shared" ref="D8:AA8" si="21">CONCATENATE(D11,D29,D33,D25)</f>
         <v>coalhc</v>
       </c>
       <c r="E8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>coallc</v>
       </c>
       <c r="F8" t="str">
-        <f t="shared" ref="F8" si="15">CONCATENATE(F11,F29,F33,F25)</f>
+        <f t="shared" ref="F8" si="22">CONCATENATE(F11,F29,F33,F25)</f>
         <v>coallc</v>
       </c>
       <c r="G8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>coallc</v>
       </c>
       <c r="H8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>coallc</v>
       </c>
       <c r="I8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>coallc</v>
       </c>
       <c r="J8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>coallc</v>
       </c>
       <c r="K8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>coallc</v>
       </c>
       <c r="L8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="L8" si="23">CONCATENATE(L11,L29,L33,L25)</f>
+        <v>coallc</v>
+      </c>
+      <c r="M8" t="str">
+        <f t="shared" si="21"/>
         <v>coallcW10lc</v>
       </c>
-      <c r="M8" t="str">
-        <f t="shared" si="14"/>
+      <c r="N8" t="str">
+        <f t="shared" si="21"/>
         <v>coallcW20lc</v>
       </c>
-      <c r="N8" t="str">
-        <f t="shared" si="14"/>
+      <c r="O8" t="str">
+        <f t="shared" si="21"/>
         <v>coallcW30lc</v>
       </c>
-      <c r="O8" t="str">
-        <f t="shared" si="14"/>
+      <c r="P8" t="str">
+        <f t="shared" si="21"/>
         <v>coallcS10lc</v>
       </c>
-      <c r="P8" t="str">
-        <f t="shared" si="14"/>
+      <c r="Q8" t="str">
+        <f t="shared" si="21"/>
         <v>coallcS20lc</v>
       </c>
-      <c r="Q8" t="str">
-        <f t="shared" si="14"/>
+      <c r="R8" t="str">
+        <f t="shared" si="21"/>
         <v>coallcS30lc</v>
       </c>
-      <c r="R8" t="str">
-        <f t="shared" si="14"/>
+      <c r="S8" t="str">
+        <f t="shared" si="21"/>
         <v>coallcW30lcS30lc</v>
       </c>
-      <c r="S8" t="str">
-        <f t="shared" si="14"/>
+      <c r="T8" t="str">
+        <f t="shared" si="21"/>
         <v>coallc</v>
       </c>
-      <c r="T8" t="str">
-        <f t="shared" si="14"/>
+      <c r="U8" t="str">
+        <f t="shared" si="21"/>
         <v>coallc</v>
       </c>
-      <c r="U8" t="str">
-        <f t="shared" si="14"/>
+      <c r="V8" t="str">
+        <f t="shared" si="21"/>
         <v>coallc</v>
       </c>
-      <c r="V8" t="str">
-        <f t="shared" si="14"/>
+      <c r="W8" t="str">
+        <f t="shared" si="21"/>
         <v>coallc</v>
       </c>
-      <c r="W8" t="str">
-        <f t="shared" si="14"/>
+      <c r="X8" t="str">
+        <f t="shared" si="21"/>
         <v>coallcB25lc</v>
       </c>
-      <c r="X8" t="str">
-        <f t="shared" si="14"/>
+      <c r="Y8" t="str">
+        <f t="shared" si="21"/>
         <v>coallcB50lc</v>
       </c>
-      <c r="Y8" t="str">
-        <f t="shared" si="14"/>
+      <c r="Z8" t="str">
+        <f t="shared" si="21"/>
         <v>coallcB25lc</v>
       </c>
-      <c r="Z8" t="str">
-        <f t="shared" si="14"/>
+      <c r="AA8" t="str">
+        <f t="shared" si="21"/>
         <v>coallcB50lc</v>
       </c>
-      <c r="AA8" t="str">
-        <f t="shared" ref="AA8" si="16">CONCATENATE(AA11,AA29,AA33,AA25)</f>
+      <c r="AB8" t="str">
+        <f t="shared" ref="AB8" si="24">CONCATENATE(AB11,AB29,AB33,AB25)</f>
+        <v>coallcB50lc</v>
+      </c>
+      <c r="AC8" t="str">
+        <f t="shared" ref="AC8" si="25">CONCATENATE(AC11,AC29,AC33,AC25)</f>
         <v>coalhcW30lcS30lc</v>
-      </c>
-      <c r="AB8" t="str">
-        <f>CONCATENATE(AB11,AB29,AB33,AB25)</f>
-        <v>coallc</v>
-      </c>
-      <c r="AC8" t="str">
-        <f>CONCATENATE(AC11,AC29,AC33,AC25)</f>
-        <v>coallc</v>
       </c>
       <c r="AD8" t="str">
         <f>CONCATENATE(AD11,AD29,AD33,AD25)</f>
         <v>coallc</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE8" t="str">
+        <f>CONCATENATE(AE11,AE29,AE33,AE25)</f>
+        <v>coallc</v>
+      </c>
+      <c r="AF8" t="str">
+        <f>CONCATENATE(AF11,AF29,AF33,AF25)</f>
+        <v>coallc</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
         <v>250</v>
       </c>
@@ -3440,19 +3514,25 @@
         <v>252</v>
       </c>
       <c r="AA9" s="21" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AB9" s="21" t="s">
         <v>252</v>
       </c>
       <c r="AC9" s="21" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AD9" s="21" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="AF9" s="21" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>254</v>
       </c>
@@ -3461,79 +3541,79 @@
         <v>Clc</v>
       </c>
       <c r="D10" t="str">
-        <f t="shared" ref="D10:U10" si="17">CONCATENATE("C", LEFT(D9,1), "c")</f>
+        <f t="shared" ref="D10:V10" si="26">CONCATENATE("C", LEFT(D9,1), "c")</f>
         <v>Chc</v>
       </c>
       <c r="E10" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>Clc</v>
       </c>
       <c r="F10" t="str">
-        <f t="shared" ref="F10" si="18">CONCATENATE("C", LEFT(F9,1), "c")</f>
+        <f t="shared" ref="F10" si="27">CONCATENATE("C", LEFT(F9,1), "c")</f>
         <v>Clc</v>
       </c>
       <c r="G10" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>Clc</v>
       </c>
       <c r="H10" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>Clc</v>
       </c>
       <c r="I10" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>Clc</v>
       </c>
       <c r="J10" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>Clc</v>
       </c>
       <c r="K10" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>Clc</v>
       </c>
       <c r="L10" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="L10" si="28">CONCATENATE("C", LEFT(L9,1), "c")</f>
         <v>Clc</v>
       </c>
       <c r="M10" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>Clc</v>
       </c>
       <c r="N10" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>Clc</v>
       </c>
       <c r="O10" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>Clc</v>
       </c>
       <c r="P10" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>Clc</v>
       </c>
       <c r="Q10" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>Clc</v>
       </c>
       <c r="R10" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>Clc</v>
       </c>
       <c r="S10" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>Clc</v>
       </c>
       <c r="T10" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>Clc</v>
       </c>
       <c r="U10" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>Clc</v>
       </c>
       <c r="V10" t="str">
-        <f>CONCATENATE("C", LEFT(V9,1), "c")</f>
+        <f t="shared" si="26"/>
         <v>Clc</v>
       </c>
       <c r="W10" t="str">
@@ -3553,104 +3633,112 @@
         <v>Clc</v>
       </c>
       <c r="AA10" t="str">
-        <f t="shared" ref="AA10" si="19">CONCATENATE("C", LEFT(AA9,1), "c")</f>
-        <v>Chc</v>
+        <f>CONCATENATE("C", LEFT(AA9,1), "c")</f>
+        <v>Clc</v>
       </c>
       <c r="AB10" t="str">
         <f>CONCATENATE("C", LEFT(AB9,1), "c")</f>
         <v>Clc</v>
       </c>
       <c r="AC10" t="str">
-        <f>CONCATENATE("C", LEFT(AC9,1), "c")</f>
-        <v>Clc</v>
+        <f t="shared" ref="AC10" si="29">CONCATENATE("C", LEFT(AC9,1), "c")</f>
+        <v>Chc</v>
       </c>
       <c r="AD10" t="str">
         <f>CONCATENATE("C", LEFT(AD9,1), "c")</f>
         <v>Clc</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" t="str">
+        <f>CONCATENATE("C", LEFT(AE9,1), "c")</f>
+        <v>Clc</v>
+      </c>
+      <c r="AF10" t="str">
+        <f>CONCATENATE("C", LEFT(AF9,1), "c")</f>
+        <v>Clc</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>255</v>
       </c>
       <c r="C11" t="str">
-        <f t="shared" ref="C11:U11" si="20">CONCATENATE("coal",LEFT(C9,1), "c")</f>
+        <f t="shared" ref="C11:V11" si="30">CONCATENATE("coal",LEFT(C9,1), "c")</f>
         <v>coallc</v>
       </c>
       <c r="D11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>coalhc</v>
       </c>
       <c r="E11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>coallc</v>
       </c>
       <c r="F11" t="str">
-        <f t="shared" ref="F11" si="21">CONCATENATE("coal",LEFT(F9,1), "c")</f>
+        <f t="shared" ref="F11" si="31">CONCATENATE("coal",LEFT(F9,1), "c")</f>
         <v>coallc</v>
       </c>
       <c r="G11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>coallc</v>
       </c>
       <c r="H11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>coallc</v>
       </c>
       <c r="I11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>coallc</v>
       </c>
       <c r="J11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>coallc</v>
       </c>
       <c r="K11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>coallc</v>
       </c>
       <c r="L11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="L11" si="32">CONCATENATE("coal",LEFT(L9,1), "c")</f>
         <v>coallc</v>
       </c>
       <c r="M11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>coallc</v>
       </c>
       <c r="N11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>coallc</v>
       </c>
       <c r="O11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>coallc</v>
       </c>
       <c r="P11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>coallc</v>
       </c>
       <c r="Q11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>coallc</v>
       </c>
       <c r="R11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>coallc</v>
       </c>
       <c r="S11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>coallc</v>
       </c>
       <c r="T11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>coallc</v>
       </c>
       <c r="U11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>coallc</v>
       </c>
       <c r="V11" t="str">
-        <f>CONCATENATE("coal",LEFT(V9,1), "c")</f>
+        <f t="shared" si="30"/>
         <v>coallc</v>
       </c>
       <c r="W11" t="str">
@@ -3670,23 +3758,31 @@
         <v>coallc</v>
       </c>
       <c r="AA11" t="str">
-        <f t="shared" ref="AA11" si="22">CONCATENATE("coal",LEFT(AA9,1), "c")</f>
-        <v>coalhc</v>
+        <f>CONCATENATE("coal",LEFT(AA9,1), "c")</f>
+        <v>coallc</v>
       </c>
       <c r="AB11" t="str">
         <f>CONCATENATE("coal",LEFT(AB9,1), "c")</f>
         <v>coallc</v>
       </c>
       <c r="AC11" t="str">
-        <f>CONCATENATE("coal",LEFT(AC9,1), "c")</f>
-        <v>coallc</v>
+        <f t="shared" ref="AC11" si="33">CONCATENATE("coal",LEFT(AC9,1), "c")</f>
+        <v>coalhc</v>
       </c>
       <c r="AD11" t="str">
         <f>CONCATENATE("coal",LEFT(AD9,1), "c")</f>
         <v>coallc</v>
       </c>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" t="str">
+        <f>CONCATENATE("coal",LEFT(AE9,1), "c")</f>
+        <v>coallc</v>
+      </c>
+      <c r="AF11" t="str">
+        <f>CONCATENATE("coal",LEFT(AF9,1), "c")</f>
+        <v>coallc</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" s="21" t="s">
         <v>256</v>
       </c>
@@ -3777,8 +3873,14 @@
       <c r="AD12" s="21">
         <v>70</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="21">
+        <v>70</v>
+      </c>
+      <c r="AF12" s="21">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>258</v>
       </c>
@@ -3787,79 +3889,79 @@
         <v>C70m</v>
       </c>
       <c r="D13" t="str">
-        <f t="shared" ref="D13:U13" si="23">CONCATENATE("C",D12,"m")</f>
+        <f t="shared" ref="D13:V13" si="34">CONCATENATE("C",D12,"m")</f>
         <v>C70m</v>
       </c>
       <c r="E13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>C55m</v>
       </c>
       <c r="F13" t="str">
-        <f t="shared" ref="F13" si="24">CONCATENATE("C",F12,"m")</f>
+        <f t="shared" ref="F13" si="35">CONCATENATE("C",F12,"m")</f>
         <v>C0m</v>
       </c>
       <c r="G13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>C70m</v>
       </c>
       <c r="H13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>C70m</v>
       </c>
       <c r="I13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>C70m</v>
       </c>
       <c r="J13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>C70m</v>
       </c>
       <c r="K13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>C70m</v>
       </c>
       <c r="L13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="L13" si="36">CONCATENATE("C",L12,"m")</f>
         <v>C70m</v>
       </c>
       <c r="M13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>C70m</v>
       </c>
       <c r="N13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>C70m</v>
       </c>
       <c r="O13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>C70m</v>
       </c>
       <c r="P13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>C70m</v>
       </c>
       <c r="Q13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>C70m</v>
       </c>
       <c r="R13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>C70m</v>
       </c>
       <c r="S13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>C70m</v>
       </c>
       <c r="T13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>C70m</v>
       </c>
       <c r="U13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>C70m</v>
       </c>
       <c r="V13" t="str">
-        <f>CONCATENATE("C",V12,"m")</f>
+        <f t="shared" si="34"/>
         <v>C70m</v>
       </c>
       <c r="W13" t="str">
@@ -3879,7 +3981,7 @@
         <v>C70m</v>
       </c>
       <c r="AA13" t="str">
-        <f t="shared" ref="AA13" si="25">CONCATENATE("C",AA12,"m")</f>
+        <f>CONCATENATE("C",AA12,"m")</f>
         <v>C70m</v>
       </c>
       <c r="AB13" t="str">
@@ -3887,15 +3989,23 @@
         <v>C70m</v>
       </c>
       <c r="AC13" t="str">
-        <f>CONCATENATE("C",AC12,"m")</f>
+        <f t="shared" ref="AC13" si="37">CONCATENATE("C",AC12,"m")</f>
         <v>C70m</v>
       </c>
       <c r="AD13" t="str">
         <f>CONCATENATE("C",AD12,"m")</f>
         <v>C70m</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" t="str">
+        <f>CONCATENATE("C",AE12,"m")</f>
+        <v>C70m</v>
+      </c>
+      <c r="AF13" t="str">
+        <f>CONCATENATE("C",AF12,"m")</f>
+        <v>C70m</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14" s="21" t="s">
         <v>474</v>
       </c>
@@ -3986,8 +4096,14 @@
       <c r="AD14" s="21">
         <v>50</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="21">
+        <v>50</v>
+      </c>
+      <c r="AF14" s="21">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>475</v>
       </c>
@@ -3996,115 +4112,123 @@
         <v/>
       </c>
       <c r="D15" t="str">
-        <f t="shared" ref="D15:AD15" si="26">IF(D14=50,"",CONCATENATE("G",D14, "m"))</f>
+        <f t="shared" ref="D15:AF15" si="38">IF(D14=50,"",CONCATENATE("G",D14, "m"))</f>
         <v/>
       </c>
       <c r="E15" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="F15" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v>G0m</v>
       </c>
       <c r="G15" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="H15" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="I15" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="J15" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="K15" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="L15" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" ref="L15" si="39">IF(L14=50,"",CONCATENATE("G",L14, "m"))</f>
         <v/>
       </c>
       <c r="M15" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N15" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="O15" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="P15" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="Q15" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="R15" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="S15" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="T15" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U15" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="V15" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="W15" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="X15" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="Y15" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="Z15" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="AA15" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="AB15" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" ref="AB15" si="40">IF(AB14=50,"",CONCATENATE("G",AB14, "m"))</f>
         <v/>
       </c>
       <c r="AC15" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="AD15" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="AE15" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="AF15" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16" s="21" t="s">
         <v>259</v>
       </c>
@@ -4195,89 +4319,95 @@
       <c r="AD16" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="21">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>261</v>
       </c>
       <c r="C17" t="str">
-        <f t="shared" ref="C17:U17" si="27">IF(C16=0,"",CONCATENATE("H",C16))</f>
+        <f t="shared" ref="C17:V17" si="41">IF(C16=0,"",CONCATENATE("H",C16))</f>
         <v/>
       </c>
       <c r="D17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="E17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="F17" t="str">
-        <f t="shared" ref="F17" si="28">IF(F16=0,"",CONCATENATE("H",F16))</f>
+        <f t="shared" ref="F17" si="42">IF(F16=0,"",CONCATENATE("H",F16))</f>
         <v/>
       </c>
       <c r="G17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="41"/>
         <v>H-25</v>
       </c>
       <c r="H17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="41"/>
         <v>H25</v>
       </c>
       <c r="I17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="J17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="K17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="L17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" ref="L17" si="43">IF(L16=0,"",CONCATENATE("H",L16))</f>
         <v/>
       </c>
       <c r="M17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="N17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="O17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="P17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="Q17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="R17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="S17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="T17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="U17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="V17" t="str">
-        <f>IF(V16=0,"",CONCATENATE("H",V16))</f>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="W17" t="str">
@@ -4297,7 +4427,7 @@
         <v/>
       </c>
       <c r="AA17" t="str">
-        <f t="shared" ref="AA17" si="29">IF(AA16=0,"",CONCATENATE("H",AA16))</f>
+        <f>IF(AA16=0,"",CONCATENATE("H",AA16))</f>
         <v/>
       </c>
       <c r="AB17" t="str">
@@ -4305,15 +4435,23 @@
         <v/>
       </c>
       <c r="AC17" t="str">
-        <f>IF(AC16=0,"",CONCATENATE("H",AC16))</f>
+        <f t="shared" ref="AC17" si="44">IF(AC16=0,"",CONCATENATE("H",AC16))</f>
         <v/>
       </c>
       <c r="AD17" t="str">
         <f>IF(AD16=0,"",CONCATENATE("H",AD16))</f>
         <v/>
       </c>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE17" t="str">
+        <f>IF(AE16=0,"",CONCATENATE("H",AE16))</f>
+        <v/>
+      </c>
+      <c r="AF17" t="str">
+        <f>IF(AF16=0,"",CONCATENATE("H",AF16))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A18" s="21" t="s">
         <v>262</v>
       </c>
@@ -4404,89 +4542,95 @@
       <c r="AD18" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE18" s="21">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>264</v>
       </c>
       <c r="C19" t="str">
-        <f t="shared" ref="C19:U19" si="30">IF(C18=0,"",CONCATENATE("N",C18))</f>
+        <f t="shared" ref="C19:V19" si="45">IF(C18=0,"",CONCATENATE("N",C18))</f>
         <v/>
       </c>
       <c r="D19" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="E19" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="F19" t="str">
-        <f t="shared" ref="F19" si="31">IF(F18=0,"",CONCATENATE("N",F18))</f>
+        <f t="shared" ref="F19" si="46">IF(F18=0,"",CONCATENATE("N",F18))</f>
         <v/>
       </c>
       <c r="G19" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="H19" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="I19" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="45"/>
         <v>N64</v>
       </c>
       <c r="J19" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="K19" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="L19" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" ref="L19" si="47">IF(L18=0,"",CONCATENATE("N",L18))</f>
         <v/>
       </c>
       <c r="M19" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="N19" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="O19" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="P19" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="Q19" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="R19" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="S19" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="T19" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="U19" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="V19" t="str">
-        <f>IF(V18=0,"",CONCATENATE("N",V18))</f>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="W19" t="str">
@@ -4506,7 +4650,7 @@
         <v/>
       </c>
       <c r="AA19" t="str">
-        <f t="shared" ref="AA19" si="32">IF(AA18=0,"",CONCATENATE("N",AA18))</f>
+        <f>IF(AA18=0,"",CONCATENATE("N",AA18))</f>
         <v/>
       </c>
       <c r="AB19" t="str">
@@ -4514,15 +4658,23 @@
         <v/>
       </c>
       <c r="AC19" t="str">
-        <f>IF(AC18=0,"",CONCATENATE("N",AC18))</f>
+        <f t="shared" ref="AC19" si="48">IF(AC18=0,"",CONCATENATE("N",AC18))</f>
         <v/>
       </c>
       <c r="AD19" t="str">
         <f>IF(AD18=0,"",CONCATENATE("N",AD18))</f>
         <v/>
       </c>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE19" t="str">
+        <f>IF(AE18=0,"",CONCATENATE("N",AE18))</f>
+        <v/>
+      </c>
+      <c r="AF19" t="str">
+        <f>IF(AF18=0,"",CONCATENATE("N",AF18))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
         <v>265</v>
       </c>
@@ -4557,7 +4709,7 @@
         <v>30</v>
       </c>
       <c r="L20" s="21">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="M20" s="21">
         <v>0</v>
@@ -4590,22 +4742,22 @@
         <v>0</v>
       </c>
       <c r="W20" s="21">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="X20" s="21">
         <v>15</v>
       </c>
       <c r="Y20" s="21">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Z20" s="21">
         <v>30</v>
       </c>
       <c r="AA20" s="21">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AB20" s="21">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AC20" s="21">
         <v>0</v>
@@ -4613,94 +4765,100 @@
       <c r="AD20" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="21">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>267</v>
       </c>
       <c r="C21" t="str">
-        <f t="shared" ref="C21:U21" si="33">IF(C20=0,"",CONCATENATE("B",C20))</f>
+        <f t="shared" ref="C21:V21" si="49">IF(C20=0,"",CONCATENATE("B",C20))</f>
         <v/>
       </c>
       <c r="D21" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="E21" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="F21" t="str">
-        <f t="shared" ref="F21" si="34">IF(F20=0,"",CONCATENATE("B",F20))</f>
+        <f t="shared" ref="F21" si="50">IF(F20=0,"",CONCATENATE("B",F20))</f>
         <v/>
       </c>
       <c r="G21" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="H21" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="I21" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="J21" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="49"/>
         <v>B15</v>
       </c>
       <c r="K21" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="49"/>
         <v>B30</v>
       </c>
       <c r="L21" t="str">
-        <f t="shared" si="33"/>
-        <v/>
+        <f t="shared" ref="L21" si="51">IF(L20=0,"",CONCATENATE("B",L20))</f>
+        <v>B60</v>
       </c>
       <c r="M21" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="N21" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="O21" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="P21" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="Q21" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="R21" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="S21" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="T21" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="U21" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="V21" t="str">
-        <f>IF(V20=0,"",CONCATENATE("B",V20))</f>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="W21" t="str">
         <f>IF(W20=0,"",CONCATENATE("B",W20))</f>
-        <v>B15</v>
+        <v/>
       </c>
       <c r="X21" t="str">
         <f>IF(X20=0,"",CONCATENATE("B",X20))</f>
@@ -4708,116 +4866,124 @@
       </c>
       <c r="Y21" t="str">
         <f>IF(Y20=0,"",CONCATENATE("B",Y20))</f>
-        <v>B30</v>
+        <v>B15</v>
       </c>
       <c r="Z21" t="str">
         <f>IF(Z20=0,"",CONCATENATE("B",Z20))</f>
         <v>B30</v>
       </c>
       <c r="AA21" t="str">
-        <f t="shared" ref="AA21" si="35">IF(AA20=0,"",CONCATENATE("B",AA20))</f>
-        <v/>
+        <f>IF(AA20=0,"",CONCATENATE("B",AA20))</f>
+        <v>B30</v>
       </c>
       <c r="AB21" t="str">
         <f>IF(AB20=0,"",CONCATENATE("B",AB20))</f>
-        <v/>
+        <v>B60</v>
       </c>
       <c r="AC21" t="str">
-        <f>IF(AC20=0,"",CONCATENATE("B",AC20))</f>
+        <f t="shared" ref="AC21" si="52">IF(AC20=0,"",CONCATENATE("B",AC20))</f>
         <v/>
       </c>
       <c r="AD21" t="str">
         <f>IF(AD20=0,"",CONCATENATE("B",AD20))</f>
         <v/>
       </c>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE21" t="str">
+        <f>IF(AE20=0,"",CONCATENATE("B",AE20))</f>
+        <v/>
+      </c>
+      <c r="AF21" t="str">
+        <f>IF(AF20=0,"",CONCATENATE("B",AF20))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>268</v>
       </c>
       <c r="C22" t="str">
-        <f t="shared" ref="C22:U22" si="36">CONCATENATE("bat", C20)</f>
+        <f t="shared" ref="C22:V22" si="53">CONCATENATE("bat", C20)</f>
         <v>bat0</v>
       </c>
       <c r="D22" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="53"/>
         <v>bat0</v>
       </c>
       <c r="E22" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="53"/>
         <v>bat0</v>
       </c>
       <c r="F22" t="str">
-        <f t="shared" ref="F22" si="37">CONCATENATE("bat", F20)</f>
+        <f t="shared" ref="F22" si="54">CONCATENATE("bat", F20)</f>
         <v>bat0</v>
       </c>
       <c r="G22" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="53"/>
         <v>bat0</v>
       </c>
       <c r="H22" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="53"/>
         <v>bat0</v>
       </c>
       <c r="I22" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="53"/>
         <v>bat0</v>
       </c>
       <c r="J22" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="53"/>
         <v>bat15</v>
       </c>
       <c r="K22" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="53"/>
         <v>bat30</v>
       </c>
       <c r="L22" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" ref="L22" si="55">CONCATENATE("bat", L20)</f>
+        <v>bat60</v>
+      </c>
+      <c r="M22" t="str">
+        <f t="shared" si="53"/>
         <v>bat0</v>
       </c>
-      <c r="M22" t="str">
-        <f t="shared" si="36"/>
+      <c r="N22" t="str">
+        <f t="shared" si="53"/>
         <v>bat0</v>
       </c>
-      <c r="N22" t="str">
-        <f t="shared" si="36"/>
+      <c r="O22" t="str">
+        <f t="shared" si="53"/>
         <v>bat0</v>
       </c>
-      <c r="O22" t="str">
-        <f t="shared" si="36"/>
+      <c r="P22" t="str">
+        <f t="shared" si="53"/>
         <v>bat0</v>
       </c>
-      <c r="P22" t="str">
-        <f t="shared" si="36"/>
+      <c r="Q22" t="str">
+        <f t="shared" si="53"/>
         <v>bat0</v>
       </c>
-      <c r="Q22" t="str">
-        <f t="shared" si="36"/>
+      <c r="R22" t="str">
+        <f t="shared" si="53"/>
         <v>bat0</v>
       </c>
-      <c r="R22" t="str">
-        <f t="shared" si="36"/>
+      <c r="S22" t="str">
+        <f t="shared" si="53"/>
         <v>bat0</v>
       </c>
-      <c r="S22" t="str">
-        <f t="shared" si="36"/>
+      <c r="T22" t="str">
+        <f t="shared" si="53"/>
         <v>bat0</v>
       </c>
-      <c r="T22" t="str">
-        <f t="shared" si="36"/>
+      <c r="U22" t="str">
+        <f t="shared" si="53"/>
         <v>bat0</v>
       </c>
-      <c r="U22" t="str">
-        <f t="shared" si="36"/>
-        <v>bat0</v>
-      </c>
       <c r="V22" t="str">
-        <f>CONCATENATE("bat", V20)</f>
+        <f t="shared" si="53"/>
         <v>bat0</v>
       </c>
       <c r="W22" t="str">
         <f>CONCATENATE("bat", W20)</f>
-        <v>bat15</v>
+        <v>bat0</v>
       </c>
       <c r="X22" t="str">
         <f>CONCATENATE("bat", X20)</f>
@@ -4825,30 +4991,38 @@
       </c>
       <c r="Y22" t="str">
         <f>CONCATENATE("bat", Y20)</f>
-        <v>bat30</v>
+        <v>bat15</v>
       </c>
       <c r="Z22" t="str">
         <f>CONCATENATE("bat", Z20)</f>
         <v>bat30</v>
       </c>
       <c r="AA22" t="str">
-        <f t="shared" ref="AA22" si="38">CONCATENATE("bat", AA20)</f>
-        <v>bat0</v>
+        <f>CONCATENATE("bat", AA20)</f>
+        <v>bat30</v>
       </c>
       <c r="AB22" t="str">
         <f>CONCATENATE("bat", AB20)</f>
-        <v>bat0</v>
+        <v>bat60</v>
       </c>
       <c r="AC22" t="str">
-        <f>CONCATENATE("bat", AC20)</f>
+        <f t="shared" ref="AC22" si="56">CONCATENATE("bat", AC20)</f>
         <v>bat0</v>
       </c>
       <c r="AD22" t="str">
         <f>CONCATENATE("bat", AD20)</f>
         <v>bat0</v>
       </c>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE22" t="str">
+        <f>CONCATENATE("bat", AE20)</f>
+        <v>bat0</v>
+      </c>
+      <c r="AF22" t="str">
+        <f>CONCATENATE("bat", AF20)</f>
+        <v>bat0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A23" s="21" t="s">
         <v>415</v>
       </c>
@@ -4916,22 +5090,22 @@
         <v>0</v>
       </c>
       <c r="W23" s="21">
+        <v>0</v>
+      </c>
+      <c r="X23" s="21">
         <v>25</v>
       </c>
-      <c r="X23" s="21">
+      <c r="Y23" s="21">
         <v>50</v>
       </c>
-      <c r="Y23" s="21">
+      <c r="Z23" s="21">
         <v>25</v>
       </c>
-      <c r="Z23" s="21">
+      <c r="AA23" s="21">
         <v>50</v>
       </c>
-      <c r="AA23" s="21">
-        <v>0</v>
-      </c>
       <c r="AB23" s="21">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AC23" s="21">
         <v>0</v>
@@ -4939,8 +5113,14 @@
       <c r="AD23" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE23" s="21">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>416</v>
       </c>
@@ -5031,8 +5211,14 @@
       <c r="AD24" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE24" t="s">
+        <v>252</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>417</v>
       </c>
@@ -5041,115 +5227,123 @@
         <v/>
       </c>
       <c r="D25" t="str">
-        <f t="shared" ref="D25:V25" si="39">IF(D23=0,"",CONCATENATE("B",D23,LEFT(D24,1),"c"))</f>
+        <f t="shared" ref="D25:W25" si="57">IF(D23=0,"",CONCATENATE("B",D23,LEFT(D24,1),"c"))</f>
         <v/>
       </c>
       <c r="E25" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="F25" t="str">
-        <f t="shared" ref="F25" si="40">IF(F23=0,"",CONCATENATE("B",F23,LEFT(F24,1),"c"))</f>
+        <f t="shared" ref="F25" si="58">IF(F23=0,"",CONCATENATE("B",F23,LEFT(F24,1),"c"))</f>
         <v/>
       </c>
       <c r="G25" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="H25" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="I25" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="J25" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="K25" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="L25" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" ref="L25" si="59">IF(L23=0,"",CONCATENATE("B",L23,LEFT(L24,1),"c"))</f>
         <v/>
       </c>
       <c r="M25" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="N25" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="O25" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="P25" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="Q25" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="R25" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="S25" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="T25" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="U25" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="V25" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="W25" t="str">
-        <f>IF(W23=0,"",CONCATENATE("B",W23,LEFT(W24,1),"c"))</f>
-        <v>B25lc</v>
+        <f t="shared" si="57"/>
+        <v/>
       </c>
       <c r="X25" t="str">
         <f>IF(X23=0,"",CONCATENATE("B",X23,LEFT(X24,1),"c"))</f>
-        <v>B50lc</v>
+        <v>B25lc</v>
       </c>
       <c r="Y25" t="str">
         <f>IF(Y23=0,"",CONCATENATE("B",Y23,LEFT(Y24,1),"c"))</f>
-        <v>B25lc</v>
+        <v>B50lc</v>
       </c>
       <c r="Z25" t="str">
         <f>IF(Z23=0,"",CONCATENATE("B",Z23,LEFT(Z24,1),"c"))</f>
+        <v>B25lc</v>
+      </c>
+      <c r="AA25" t="str">
+        <f>IF(AA23=0,"",CONCATENATE("B",AA23,LEFT(AA24,1),"c"))</f>
         <v>B50lc</v>
-      </c>
-      <c r="AA25" t="str">
-        <f t="shared" ref="AA25" si="41">IF(AA23=0,"",CONCATENATE("B",AA23,LEFT(AA24,1),"c"))</f>
-        <v/>
       </c>
       <c r="AB25" t="str">
         <f>IF(AB23=0,"",CONCATENATE("B",AB23,LEFT(AB24,1),"c"))</f>
-        <v/>
+        <v>B50lc</v>
       </c>
       <c r="AC25" t="str">
-        <f>IF(AC23=0,"",CONCATENATE("B",AC23,LEFT(AC24,1),"c"))</f>
+        <f t="shared" ref="AC25" si="60">IF(AC23=0,"",CONCATENATE("B",AC23,LEFT(AC24,1),"c"))</f>
         <v/>
       </c>
       <c r="AD25" t="str">
         <f>IF(AD23=0,"",CONCATENATE("B",AD23,LEFT(AD24,1),"c"))</f>
         <v/>
       </c>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE25" t="str">
+        <f>IF(AE23=0,"",CONCATENATE("B",AE23,LEFT(AE24,1),"c"))</f>
+        <v/>
+      </c>
+      <c r="AF25" t="str">
+        <f>IF(AF23=0,"",CONCATENATE("B",AF23,LEFT(AF24,1),"c"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>418</v>
       </c>
@@ -5158,115 +5352,123 @@
         <v>batteryLC0</v>
       </c>
       <c r="D26" t="str">
-        <f t="shared" ref="D26:V26" si="42">CONCATENATE("battery",UPPER(LEFT(D24,1)), "C",D23)</f>
+        <f t="shared" ref="D26:W26" si="61">CONCATENATE("battery",UPPER(LEFT(D24,1)), "C",D23)</f>
         <v>batteryLC0</v>
       </c>
       <c r="E26" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="61"/>
         <v>batteryLC0</v>
       </c>
       <c r="F26" t="str">
-        <f t="shared" ref="F26" si="43">CONCATENATE("battery",UPPER(LEFT(F24,1)), "C",F23)</f>
+        <f t="shared" ref="F26" si="62">CONCATENATE("battery",UPPER(LEFT(F24,1)), "C",F23)</f>
         <v>batteryLC0</v>
       </c>
       <c r="G26" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="61"/>
         <v>batteryLC0</v>
       </c>
       <c r="H26" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="61"/>
         <v>batteryLC0</v>
       </c>
       <c r="I26" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="61"/>
         <v>batteryLC0</v>
       </c>
       <c r="J26" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="61"/>
         <v>batteryLC0</v>
       </c>
       <c r="K26" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="61"/>
         <v>batteryLC0</v>
       </c>
       <c r="L26" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" ref="L26" si="63">CONCATENATE("battery",UPPER(LEFT(L24,1)), "C",L23)</f>
         <v>batteryLC0</v>
       </c>
       <c r="M26" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="61"/>
         <v>batteryLC0</v>
       </c>
       <c r="N26" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="61"/>
         <v>batteryLC0</v>
       </c>
       <c r="O26" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="61"/>
         <v>batteryLC0</v>
       </c>
       <c r="P26" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="61"/>
         <v>batteryLC0</v>
       </c>
       <c r="Q26" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="61"/>
         <v>batteryLC0</v>
       </c>
       <c r="R26" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="61"/>
         <v>batteryLC0</v>
       </c>
       <c r="S26" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="61"/>
         <v>batteryLC0</v>
       </c>
       <c r="T26" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="61"/>
         <v>batteryLC0</v>
       </c>
       <c r="U26" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="61"/>
         <v>batteryLC0</v>
       </c>
       <c r="V26" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="61"/>
         <v>batteryLC0</v>
       </c>
       <c r="W26" t="str">
-        <f>CONCATENATE("battery",UPPER(LEFT(W24,1)), "C",W23)</f>
-        <v>batteryLC25</v>
+        <f t="shared" si="61"/>
+        <v>batteryLC0</v>
       </c>
       <c r="X26" t="str">
         <f>CONCATENATE("battery",UPPER(LEFT(X24,1)), "C",X23)</f>
-        <v>batteryLC50</v>
+        <v>batteryLC25</v>
       </c>
       <c r="Y26" t="str">
         <f>CONCATENATE("battery",UPPER(LEFT(Y24,1)), "C",Y23)</f>
-        <v>batteryLC25</v>
+        <v>batteryLC50</v>
       </c>
       <c r="Z26" t="str">
         <f>CONCATENATE("battery",UPPER(LEFT(Z24,1)), "C",Z23)</f>
+        <v>batteryLC25</v>
+      </c>
+      <c r="AA26" t="str">
+        <f>CONCATENATE("battery",UPPER(LEFT(AA24,1)), "C",AA23)</f>
         <v>batteryLC50</v>
-      </c>
-      <c r="AA26" t="str">
-        <f t="shared" ref="AA26" si="44">CONCATENATE("battery",UPPER(LEFT(AA24,1)), "C",AA23)</f>
-        <v>batteryLC0</v>
       </c>
       <c r="AB26" t="str">
         <f>CONCATENATE("battery",UPPER(LEFT(AB24,1)), "C",AB23)</f>
-        <v>batteryLC0</v>
+        <v>batteryLC50</v>
       </c>
       <c r="AC26" t="str">
-        <f>CONCATENATE("battery",UPPER(LEFT(AC24,1)), "C",AC23)</f>
+        <f t="shared" ref="AC26" si="64">CONCATENATE("battery",UPPER(LEFT(AC24,1)), "C",AC23)</f>
         <v>batteryLC0</v>
       </c>
       <c r="AD26" t="str">
         <f>CONCATENATE("battery",UPPER(LEFT(AD24,1)), "C",AD23)</f>
         <v>batteryLC0</v>
       </c>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE26" t="str">
+        <f>CONCATENATE("battery",UPPER(LEFT(AE24,1)), "C",AE23)</f>
+        <v>batteryLC0</v>
+      </c>
+      <c r="AF26" t="str">
+        <f>CONCATENATE("battery",UPPER(LEFT(AF24,1)), "C",AF23)</f>
+        <v>batteryLC0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A27" s="21" t="s">
         <v>269</v>
       </c>
@@ -5301,17 +5503,17 @@
         <v>0</v>
       </c>
       <c r="L27" s="21">
+        <v>0</v>
+      </c>
+      <c r="M27" s="21">
         <v>10</v>
       </c>
-      <c r="M27" s="21">
+      <c r="N27" s="21">
         <v>20</v>
       </c>
-      <c r="N27" s="21">
+      <c r="O27" s="21">
         <v>30</v>
       </c>
-      <c r="O27" s="21">
-        <v>0</v>
-      </c>
       <c r="P27" s="21">
         <v>0</v>
       </c>
@@ -5319,11 +5521,11 @@
         <v>0</v>
       </c>
       <c r="R27" s="21">
+        <v>0</v>
+      </c>
+      <c r="S27" s="21">
         <v>30</v>
       </c>
-      <c r="S27" s="21">
-        <v>0</v>
-      </c>
       <c r="T27" s="21">
         <v>0</v>
       </c>
@@ -5346,19 +5548,25 @@
         <v>0</v>
       </c>
       <c r="AA27" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="21">
         <v>30</v>
       </c>
-      <c r="AB27" s="21">
-        <v>0</v>
-      </c>
-      <c r="AC27" s="21">
-        <v>0</v>
-      </c>
       <c r="AD27" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE27" s="21">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>271</v>
       </c>
@@ -5449,89 +5657,95 @@
       <c r="AD28" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE28" t="s">
+        <v>252</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>273</v>
       </c>
       <c r="C29" t="str">
-        <f t="shared" ref="C29:U29" si="45">IF(C27=0,"",CONCATENATE("W",C27,LEFT(C28,1),"c"))</f>
+        <f t="shared" ref="C29:V29" si="65">IF(C27=0,"",CONCATENATE("W",C27,LEFT(C28,1),"c"))</f>
         <v/>
       </c>
       <c r="D29" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="65"/>
         <v/>
       </c>
       <c r="E29" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="65"/>
         <v/>
       </c>
       <c r="F29" t="str">
-        <f t="shared" ref="F29" si="46">IF(F27=0,"",CONCATENATE("W",F27,LEFT(F28,1),"c"))</f>
+        <f t="shared" ref="F29" si="66">IF(F27=0,"",CONCATENATE("W",F27,LEFT(F28,1),"c"))</f>
         <v/>
       </c>
       <c r="G29" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="65"/>
         <v/>
       </c>
       <c r="H29" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="65"/>
         <v/>
       </c>
       <c r="I29" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="65"/>
         <v/>
       </c>
       <c r="J29" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="65"/>
         <v/>
       </c>
       <c r="K29" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="65"/>
         <v/>
       </c>
       <c r="L29" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" ref="L29" si="67">IF(L27=0,"",CONCATENATE("W",L27,LEFT(L28,1),"c"))</f>
+        <v/>
+      </c>
+      <c r="M29" t="str">
+        <f t="shared" si="65"/>
         <v>W10lc</v>
       </c>
-      <c r="M29" t="str">
-        <f t="shared" si="45"/>
+      <c r="N29" t="str">
+        <f t="shared" si="65"/>
         <v>W20lc</v>
       </c>
-      <c r="N29" t="str">
-        <f t="shared" si="45"/>
+      <c r="O29" t="str">
+        <f t="shared" si="65"/>
         <v>W30lc</v>
       </c>
-      <c r="O29" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
       <c r="P29" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="65"/>
         <v/>
       </c>
       <c r="Q29" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="65"/>
         <v/>
       </c>
       <c r="R29" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+      <c r="S29" t="str">
+        <f t="shared" si="65"/>
         <v>W30lc</v>
       </c>
-      <c r="S29" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
       <c r="T29" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="65"/>
         <v/>
       </c>
       <c r="U29" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="65"/>
         <v/>
       </c>
       <c r="V29" t="str">
-        <f>IF(V27=0,"",CONCATENATE("W",V27,LEFT(V28,1),"c"))</f>
+        <f t="shared" si="65"/>
         <v/>
       </c>
       <c r="W29" t="str">
@@ -5551,104 +5765,112 @@
         <v/>
       </c>
       <c r="AA29" t="str">
-        <f t="shared" ref="AA29" si="47">IF(AA27=0,"",CONCATENATE("W",AA27,LEFT(AA28,1),"c"))</f>
-        <v>W30lc</v>
+        <f>IF(AA27=0,"",CONCATENATE("W",AA27,LEFT(AA28,1),"c"))</f>
+        <v/>
       </c>
       <c r="AB29" t="str">
         <f>IF(AB27=0,"",CONCATENATE("W",AB27,LEFT(AB28,1),"c"))</f>
         <v/>
       </c>
       <c r="AC29" t="str">
-        <f>IF(AC27=0,"",CONCATENATE("W",AC27,LEFT(AC28,1),"c"))</f>
-        <v/>
+        <f t="shared" ref="AC29" si="68">IF(AC27=0,"",CONCATENATE("W",AC27,LEFT(AC28,1),"c"))</f>
+        <v>W30lc</v>
       </c>
       <c r="AD29" t="str">
         <f>IF(AD27=0,"",CONCATENATE("W",AD27,LEFT(AD28,1),"c"))</f>
         <v/>
       </c>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE29" t="str">
+        <f>IF(AE27=0,"",CONCATENATE("W",AE27,LEFT(AE28,1),"c"))</f>
+        <v/>
+      </c>
+      <c r="AF29" t="str">
+        <f>IF(AF27=0,"",CONCATENATE("W",AF27,LEFT(AF28,1),"c"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>274</v>
       </c>
       <c r="C30" t="str">
-        <f t="shared" ref="C30:U30" si="48">CONCATENATE("wind",UPPER(LEFT(C28,1)), "C",C27)</f>
+        <f t="shared" ref="C30:V30" si="69">CONCATENATE("wind",UPPER(LEFT(C28,1)), "C",C27)</f>
         <v>windLC0</v>
       </c>
       <c r="D30" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="69"/>
         <v>windLC0</v>
       </c>
       <c r="E30" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="69"/>
         <v>windLC0</v>
       </c>
       <c r="F30" t="str">
-        <f t="shared" ref="F30" si="49">CONCATENATE("wind",UPPER(LEFT(F28,1)), "C",F27)</f>
+        <f t="shared" ref="F30" si="70">CONCATENATE("wind",UPPER(LEFT(F28,1)), "C",F27)</f>
         <v>windLC0</v>
       </c>
       <c r="G30" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="69"/>
         <v>windLC0</v>
       </c>
       <c r="H30" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="69"/>
         <v>windLC0</v>
       </c>
       <c r="I30" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="69"/>
         <v>windLC0</v>
       </c>
       <c r="J30" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="69"/>
         <v>windLC0</v>
       </c>
       <c r="K30" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="69"/>
         <v>windLC0</v>
       </c>
       <c r="L30" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" ref="L30" si="71">CONCATENATE("wind",UPPER(LEFT(L28,1)), "C",L27)</f>
+        <v>windLC0</v>
+      </c>
+      <c r="M30" t="str">
+        <f t="shared" si="69"/>
         <v>windLC10</v>
       </c>
-      <c r="M30" t="str">
-        <f t="shared" si="48"/>
+      <c r="N30" t="str">
+        <f t="shared" si="69"/>
         <v>windLC20</v>
       </c>
-      <c r="N30" t="str">
-        <f t="shared" si="48"/>
+      <c r="O30" t="str">
+        <f t="shared" si="69"/>
         <v>windLC30</v>
       </c>
-      <c r="O30" t="str">
-        <f t="shared" si="48"/>
+      <c r="P30" t="str">
+        <f t="shared" si="69"/>
         <v>windLC0</v>
       </c>
-      <c r="P30" t="str">
-        <f t="shared" si="48"/>
+      <c r="Q30" t="str">
+        <f t="shared" si="69"/>
         <v>windLC0</v>
       </c>
-      <c r="Q30" t="str">
-        <f t="shared" si="48"/>
+      <c r="R30" t="str">
+        <f t="shared" si="69"/>
         <v>windLC0</v>
       </c>
-      <c r="R30" t="str">
-        <f t="shared" si="48"/>
+      <c r="S30" t="str">
+        <f t="shared" si="69"/>
         <v>windLC30</v>
       </c>
-      <c r="S30" t="str">
-        <f t="shared" si="48"/>
+      <c r="T30" t="str">
+        <f t="shared" si="69"/>
         <v>windLC0</v>
       </c>
-      <c r="T30" t="str">
-        <f t="shared" si="48"/>
+      <c r="U30" t="str">
+        <f t="shared" si="69"/>
         <v>windLC0</v>
       </c>
-      <c r="U30" t="str">
-        <f t="shared" si="48"/>
-        <v>windLC0</v>
-      </c>
       <c r="V30" t="str">
-        <f>CONCATENATE("wind",UPPER(LEFT(V28,1)), "C",V27)</f>
+        <f t="shared" si="69"/>
         <v>windLC0</v>
       </c>
       <c r="W30" t="str">
@@ -5668,23 +5890,31 @@
         <v>windLC0</v>
       </c>
       <c r="AA30" t="str">
-        <f t="shared" ref="AA30" si="50">CONCATENATE("wind",UPPER(LEFT(AA28,1)), "C",AA27)</f>
-        <v>windLC30</v>
+        <f>CONCATENATE("wind",UPPER(LEFT(AA28,1)), "C",AA27)</f>
+        <v>windLC0</v>
       </c>
       <c r="AB30" t="str">
         <f>CONCATENATE("wind",UPPER(LEFT(AB28,1)), "C",AB27)</f>
         <v>windLC0</v>
       </c>
       <c r="AC30" t="str">
-        <f>CONCATENATE("wind",UPPER(LEFT(AC28,1)), "C",AC27)</f>
-        <v>windLC0</v>
+        <f t="shared" ref="AC30" si="72">CONCATENATE("wind",UPPER(LEFT(AC28,1)), "C",AC27)</f>
+        <v>windLC30</v>
       </c>
       <c r="AD30" t="str">
         <f>CONCATENATE("wind",UPPER(LEFT(AD28,1)), "C",AD27)</f>
         <v>windLC0</v>
       </c>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE30" t="str">
+        <f>CONCATENATE("wind",UPPER(LEFT(AE28,1)), "C",AE27)</f>
+        <v>windLC0</v>
+      </c>
+      <c r="AF30" t="str">
+        <f>CONCATENATE("wind",UPPER(LEFT(AF28,1)), "C",AF27)</f>
+        <v>windLC0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A31" s="21" t="s">
         <v>275</v>
       </c>
@@ -5728,19 +5958,19 @@
         <v>0</v>
       </c>
       <c r="O31" s="21">
+        <v>0</v>
+      </c>
+      <c r="P31" s="21">
         <v>10</v>
       </c>
-      <c r="P31" s="21">
+      <c r="Q31" s="21">
         <v>20</v>
-      </c>
-      <c r="Q31" s="21">
-        <v>30</v>
       </c>
       <c r="R31" s="21">
         <v>30</v>
       </c>
       <c r="S31" s="21">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T31" s="21">
         <v>0</v>
@@ -5764,19 +5994,25 @@
         <v>0</v>
       </c>
       <c r="AA31" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="21">
         <v>30</v>
       </c>
-      <c r="AB31" s="21">
-        <v>0</v>
-      </c>
-      <c r="AC31" s="21">
-        <v>0</v>
-      </c>
       <c r="AD31" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="21">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>276</v>
       </c>
@@ -5867,93 +6103,99 @@
       <c r="AD32" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE32" t="s">
+        <v>252</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="33" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>277</v>
       </c>
       <c r="C33" t="str">
-        <f t="shared" ref="C33:N33" si="51">IF(C31=0,"",CONCATENATE("W",C31,LEFT(C32,1),"c"))</f>
+        <f t="shared" ref="C33:O33" si="73">IF(C31=0,"",CONCATENATE("W",C31,LEFT(C32,1),"c"))</f>
         <v/>
       </c>
       <c r="D33" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="E33" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="F33" t="str">
-        <f t="shared" ref="F33" si="52">IF(F31=0,"",CONCATENATE("W",F31,LEFT(F32,1),"c"))</f>
+        <f t="shared" ref="F33" si="74">IF(F31=0,"",CONCATENATE("W",F31,LEFT(F32,1),"c"))</f>
         <v/>
       </c>
       <c r="G33" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="H33" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="I33" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="J33" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="K33" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="L33" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" ref="L33" si="75">IF(L31=0,"",CONCATENATE("W",L31,LEFT(L32,1),"c"))</f>
         <v/>
       </c>
       <c r="M33" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="N33" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="O33" t="str">
-        <f t="shared" ref="O33:U33" si="53">IF(O31=0,"",CONCATENATE("S",O31,LEFT(O32,1),"c"))</f>
+        <f t="shared" si="73"/>
+        <v/>
+      </c>
+      <c r="P33" t="str">
+        <f t="shared" ref="P33:V33" si="76">IF(P31=0,"",CONCATENATE("S",P31,LEFT(P32,1),"c"))</f>
         <v>S10lc</v>
       </c>
-      <c r="P33" t="str">
-        <f t="shared" si="53"/>
+      <c r="Q33" t="str">
+        <f t="shared" si="76"/>
         <v>S20lc</v>
       </c>
-      <c r="Q33" t="str">
-        <f t="shared" si="53"/>
+      <c r="R33" t="str">
+        <f t="shared" si="76"/>
         <v>S30lc</v>
       </c>
-      <c r="R33" t="str">
-        <f t="shared" si="53"/>
+      <c r="S33" t="str">
+        <f t="shared" si="76"/>
         <v>S30lc</v>
       </c>
-      <c r="S33" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
       <c r="T33" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="U33" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="V33" t="str">
-        <f>IF(V31=0,"",CONCATENATE("S",V31,LEFT(V32,1),"c"))</f>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="W33" t="str">
-        <f>IF(W31=0,"",CONCATENATE("W",W31,LEFT(W32,1),"c"))</f>
+        <f>IF(W31=0,"",CONCATENATE("S",W31,LEFT(W32,1),"c"))</f>
         <v/>
       </c>
       <c r="X33" t="str">
@@ -5969,104 +6211,112 @@
         <v/>
       </c>
       <c r="AA33" t="str">
-        <f t="shared" ref="AA33" si="54">IF(AA31=0,"",CONCATENATE("S",AA31,LEFT(AA32,1),"c"))</f>
+        <f>IF(AA31=0,"",CONCATENATE("W",AA31,LEFT(AA32,1),"c"))</f>
+        <v/>
+      </c>
+      <c r="AB33" t="str">
+        <f>IF(AB31=0,"",CONCATENATE("W",AB31,LEFT(AB32,1),"c"))</f>
+        <v/>
+      </c>
+      <c r="AC33" t="str">
+        <f t="shared" ref="AC33" si="77">IF(AC31=0,"",CONCATENATE("S",AC31,LEFT(AC32,1),"c"))</f>
         <v>S30lc</v>
-      </c>
-      <c r="AB33" t="str">
-        <f>IF(AB31=0,"",CONCATENATE("S",AB31,LEFT(AB32,1),"c"))</f>
-        <v/>
-      </c>
-      <c r="AC33" t="str">
-        <f>IF(AC31=0,"",CONCATENATE("S",AC31,LEFT(AC32,1),"c"))</f>
-        <v/>
       </c>
       <c r="AD33" t="str">
         <f>IF(AD31=0,"",CONCATENATE("S",AD31,LEFT(AD32,1),"c"))</f>
         <v/>
       </c>
-    </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE33" t="str">
+        <f>IF(AE31=0,"",CONCATENATE("S",AE31,LEFT(AE32,1),"c"))</f>
+        <v/>
+      </c>
+      <c r="AF33" t="str">
+        <f>IF(AF31=0,"",CONCATENATE("S",AF31,LEFT(AF32,1),"c"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>278</v>
       </c>
       <c r="C34" t="str">
-        <f t="shared" ref="C34:U34" si="55">CONCATENATE("solar",UPPER(LEFT(C32,1)), "C",C31)</f>
+        <f t="shared" ref="C34:V34" si="78">CONCATENATE("solar",UPPER(LEFT(C32,1)), "C",C31)</f>
         <v>solarLC0</v>
       </c>
       <c r="D34" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="78"/>
         <v>solarLC0</v>
       </c>
       <c r="E34" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="78"/>
         <v>solarLC0</v>
       </c>
       <c r="F34" t="str">
-        <f t="shared" ref="F34" si="56">CONCATENATE("solar",UPPER(LEFT(F32,1)), "C",F31)</f>
+        <f t="shared" ref="F34" si="79">CONCATENATE("solar",UPPER(LEFT(F32,1)), "C",F31)</f>
         <v>solarLC0</v>
       </c>
       <c r="G34" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="78"/>
         <v>solarLC0</v>
       </c>
       <c r="H34" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="78"/>
         <v>solarLC0</v>
       </c>
       <c r="I34" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="78"/>
         <v>solarLC0</v>
       </c>
       <c r="J34" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="78"/>
         <v>solarLC0</v>
       </c>
       <c r="K34" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="78"/>
         <v>solarLC0</v>
       </c>
       <c r="L34" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" ref="L34" si="80">CONCATENATE("solar",UPPER(LEFT(L32,1)), "C",L31)</f>
         <v>solarLC0</v>
       </c>
       <c r="M34" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="78"/>
         <v>solarLC0</v>
       </c>
       <c r="N34" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="78"/>
         <v>solarLC0</v>
       </c>
       <c r="O34" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="78"/>
+        <v>solarLC0</v>
+      </c>
+      <c r="P34" t="str">
+        <f t="shared" si="78"/>
         <v>solarLC10</v>
       </c>
-      <c r="P34" t="str">
-        <f t="shared" si="55"/>
+      <c r="Q34" t="str">
+        <f t="shared" si="78"/>
         <v>solarLC20</v>
       </c>
-      <c r="Q34" t="str">
-        <f t="shared" si="55"/>
+      <c r="R34" t="str">
+        <f t="shared" si="78"/>
         <v>solarLC30</v>
       </c>
-      <c r="R34" t="str">
-        <f t="shared" si="55"/>
+      <c r="S34" t="str">
+        <f t="shared" si="78"/>
         <v>solarLC30</v>
       </c>
-      <c r="S34" t="str">
-        <f t="shared" si="55"/>
+      <c r="T34" t="str">
+        <f t="shared" si="78"/>
         <v>solarLC0</v>
       </c>
-      <c r="T34" t="str">
-        <f t="shared" si="55"/>
+      <c r="U34" t="str">
+        <f t="shared" si="78"/>
         <v>solarLC0</v>
       </c>
-      <c r="U34" t="str">
-        <f t="shared" si="55"/>
-        <v>solarLC0</v>
-      </c>
       <c r="V34" t="str">
-        <f>CONCATENATE("solar",UPPER(LEFT(V32,1)), "C",V31)</f>
+        <f t="shared" si="78"/>
         <v>solarLC0</v>
       </c>
       <c r="W34" t="str">
@@ -6086,23 +6336,31 @@
         <v>solarLC0</v>
       </c>
       <c r="AA34" t="str">
-        <f t="shared" ref="AA34" si="57">CONCATENATE("solar",UPPER(LEFT(AA32,1)), "C",AA31)</f>
-        <v>solarLC30</v>
+        <f>CONCATENATE("solar",UPPER(LEFT(AA32,1)), "C",AA31)</f>
+        <v>solarLC0</v>
       </c>
       <c r="AB34" t="str">
         <f>CONCATENATE("solar",UPPER(LEFT(AB32,1)), "C",AB31)</f>
         <v>solarLC0</v>
       </c>
       <c r="AC34" t="str">
-        <f>CONCATENATE("solar",UPPER(LEFT(AC32,1)), "C",AC31)</f>
-        <v>solarLC0</v>
+        <f t="shared" ref="AC34" si="81">CONCATENATE("solar",UPPER(LEFT(AC32,1)), "C",AC31)</f>
+        <v>solarLC30</v>
       </c>
       <c r="AD34" t="str">
         <f>CONCATENATE("solar",UPPER(LEFT(AD32,1)), "C",AD31)</f>
         <v>solarLC0</v>
       </c>
-    </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE34" t="str">
+        <f>CONCATENATE("solar",UPPER(LEFT(AE32,1)), "C",AE31)</f>
+        <v>solarLC0</v>
+      </c>
+      <c r="AF34" t="str">
+        <f>CONCATENATE("solar",UPPER(LEFT(AF32,1)), "C",AF31)</f>
+        <v>solarLC0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A35" s="21" t="s">
         <v>279</v>
       </c>
@@ -6158,19 +6416,19 @@
         <v>80</v>
       </c>
       <c r="S35" s="21">
+        <v>80</v>
+      </c>
+      <c r="T35" s="21">
         <v>120</v>
-      </c>
-      <c r="T35" s="21">
-        <v>80</v>
       </c>
       <c r="U35" s="21">
         <v>80</v>
       </c>
       <c r="V35" s="21">
+        <v>80</v>
+      </c>
+      <c r="W35" s="21">
         <v>120</v>
-      </c>
-      <c r="W35" s="21">
-        <v>80</v>
       </c>
       <c r="X35" s="21">
         <v>80</v>
@@ -6193,94 +6451,100 @@
       <c r="AD35" s="21">
         <v>80</v>
       </c>
-    </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE35" s="21">
+        <v>80</v>
+      </c>
+      <c r="AF35" s="21">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>281</v>
       </c>
       <c r="C36" t="str">
-        <f t="shared" ref="C36:U36" si="58">IF(C35=80,"", CONCATENATE("W",C35))</f>
+        <f t="shared" ref="C36:V36" si="82">IF(C35=80,"", CONCATENATE("W",C35))</f>
         <v/>
       </c>
       <c r="D36" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="E36" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="F36" t="str">
-        <f t="shared" ref="F36" si="59">IF(F35=80,"", CONCATENATE("W",F35))</f>
+        <f t="shared" ref="F36" si="83">IF(F35=80,"", CONCATENATE("W",F35))</f>
         <v/>
       </c>
       <c r="G36" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="H36" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="I36" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="J36" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="K36" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="L36" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" ref="L36" si="84">IF(L35=80,"", CONCATENATE("W",L35))</f>
         <v/>
       </c>
       <c r="M36" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="N36" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="O36" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="P36" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="Q36" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="R36" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="S36" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="T36" t="str">
+        <f t="shared" si="82"/>
         <v>W120</v>
       </c>
-      <c r="T36" t="str">
-        <f t="shared" si="58"/>
-        <v/>
-      </c>
       <c r="U36" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="V36" t="str">
-        <f>IF(V35=80,"", CONCATENATE("W",V35))</f>
-        <v>W120</v>
+        <f t="shared" si="82"/>
+        <v/>
       </c>
       <c r="W36" t="str">
         <f>IF(W35=80,"", CONCATENATE("W",W35))</f>
-        <v/>
+        <v>W120</v>
       </c>
       <c r="X36" t="str">
         <f>IF(X35=80,"", CONCATENATE("W",X35))</f>
@@ -6295,7 +6559,7 @@
         <v/>
       </c>
       <c r="AA36" t="str">
-        <f t="shared" ref="AA36" si="60">IF(AA35=80,"", CONCATENATE("W",AA35))</f>
+        <f>IF(AA35=80,"", CONCATENATE("W",AA35))</f>
         <v/>
       </c>
       <c r="AB36" t="str">
@@ -6303,101 +6567,109 @@
         <v/>
       </c>
       <c r="AC36" t="str">
-        <f>IF(AC35=80,"", CONCATENATE("W",AC35))</f>
+        <f t="shared" ref="AC36" si="85">IF(AC35=80,"", CONCATENATE("W",AC35))</f>
         <v/>
       </c>
       <c r="AD36" t="str">
         <f>IF(AD35=80,"", CONCATENATE("W",AD35))</f>
         <v/>
       </c>
-    </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE36" t="str">
+        <f>IF(AE35=80,"", CONCATENATE("W",AE35))</f>
+        <v/>
+      </c>
+      <c r="AF36" t="str">
+        <f>IF(AF35=80,"", CONCATENATE("W",AF35))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>282</v>
       </c>
       <c r="C37" t="str">
-        <f t="shared" ref="C37:U37" si="61">CONCATENATE("W",C35)</f>
+        <f t="shared" ref="C37:V37" si="86">CONCATENATE("W",C35)</f>
         <v>W80</v>
       </c>
       <c r="D37" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="86"/>
         <v>W80</v>
       </c>
       <c r="E37" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="86"/>
         <v>W80</v>
       </c>
       <c r="F37" t="str">
-        <f t="shared" ref="F37" si="62">CONCATENATE("W",F35)</f>
+        <f t="shared" ref="F37" si="87">CONCATENATE("W",F35)</f>
         <v>W80</v>
       </c>
       <c r="G37" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="86"/>
         <v>W80</v>
       </c>
       <c r="H37" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="86"/>
         <v>W80</v>
       </c>
       <c r="I37" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="86"/>
         <v>W80</v>
       </c>
       <c r="J37" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="86"/>
         <v>W80</v>
       </c>
       <c r="K37" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="86"/>
         <v>W80</v>
       </c>
       <c r="L37" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" ref="L37" si="88">CONCATENATE("W",L35)</f>
         <v>W80</v>
       </c>
       <c r="M37" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="86"/>
         <v>W80</v>
       </c>
       <c r="N37" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="86"/>
         <v>W80</v>
       </c>
       <c r="O37" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="86"/>
         <v>W80</v>
       </c>
       <c r="P37" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="86"/>
         <v>W80</v>
       </c>
       <c r="Q37" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="86"/>
         <v>W80</v>
       </c>
       <c r="R37" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="86"/>
         <v>W80</v>
       </c>
       <c r="S37" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="86"/>
+        <v>W80</v>
+      </c>
+      <c r="T37" t="str">
+        <f t="shared" si="86"/>
         <v>W120</v>
       </c>
-      <c r="T37" t="str">
-        <f t="shared" si="61"/>
+      <c r="U37" t="str">
+        <f t="shared" si="86"/>
         <v>W80</v>
       </c>
-      <c r="U37" t="str">
-        <f t="shared" si="61"/>
+      <c r="V37" t="str">
+        <f t="shared" si="86"/>
         <v>W80</v>
-      </c>
-      <c r="V37" t="str">
-        <f>CONCATENATE("W",V35)</f>
-        <v>W120</v>
       </c>
       <c r="W37" t="str">
         <f>CONCATENATE("W",W35)</f>
-        <v>W80</v>
+        <v>W120</v>
       </c>
       <c r="X37" t="str">
         <f>CONCATENATE("W",X35)</f>
@@ -6412,7 +6684,7 @@
         <v>W80</v>
       </c>
       <c r="AA37" t="str">
-        <f t="shared" ref="AA37" si="63">CONCATENATE("W",AA35)</f>
+        <f>CONCATENATE("W",AA35)</f>
         <v>W80</v>
       </c>
       <c r="AB37" t="str">
@@ -6420,15 +6692,23 @@
         <v>W80</v>
       </c>
       <c r="AC37" t="str">
-        <f>CONCATENATE("W",AC35)</f>
+        <f t="shared" ref="AC37" si="89">CONCATENATE("W",AC35)</f>
         <v>W80</v>
       </c>
       <c r="AD37" t="str">
         <f>CONCATENATE("W",AD35)</f>
         <v>W80</v>
       </c>
-    </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE37" t="str">
+        <f>CONCATENATE("W",AE35)</f>
+        <v>W80</v>
+      </c>
+      <c r="AF37" t="str">
+        <f>CONCATENATE("W",AF35)</f>
+        <v>W80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A38" s="21" t="s">
         <v>283</v>
       </c>
@@ -6487,16 +6767,16 @@
         <v>285</v>
       </c>
       <c r="T38" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="U38" s="21" t="s">
         <v>286</v>
       </c>
-      <c r="U38" s="21" t="s">
+      <c r="V38" s="21" t="s">
         <v>287</v>
       </c>
-      <c r="V38" s="21" t="s">
+      <c r="W38" s="21" t="s">
         <v>286</v>
-      </c>
-      <c r="W38" s="21" t="s">
-        <v>285</v>
       </c>
       <c r="X38" s="21" t="s">
         <v>285</v>
@@ -6519,94 +6799,100 @@
       <c r="AD38" s="21" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE38" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="AF38" s="21" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="39" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>288</v>
       </c>
       <c r="C39" t="str">
-        <f t="shared" ref="C39:U39" si="64">IF(C38="0d", "", CONCATENATE("S",C38))</f>
+        <f t="shared" ref="C39:V39" si="90">IF(C38="0d", "", CONCATENATE("S",C38))</f>
         <v/>
       </c>
       <c r="D39" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="E39" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="F39" t="str">
-        <f t="shared" ref="F39" si="65">IF(F38="0d", "", CONCATENATE("S",F38))</f>
+        <f t="shared" ref="F39" si="91">IF(F38="0d", "", CONCATENATE("S",F38))</f>
         <v/>
       </c>
       <c r="G39" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="H39" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="I39" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="J39" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="K39" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="L39" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" ref="L39" si="92">IF(L38="0d", "", CONCATENATE("S",L38))</f>
         <v/>
       </c>
       <c r="M39" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="N39" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="O39" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="P39" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="Q39" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="R39" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="S39" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="T39" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="U39" t="str">
+        <f t="shared" si="90"/>
         <v>S1A</v>
       </c>
-      <c r="U39" t="str">
-        <f t="shared" si="64"/>
+      <c r="V39" t="str">
+        <f t="shared" si="90"/>
         <v>S90d</v>
-      </c>
-      <c r="V39" t="str">
-        <f>IF(V38="0d", "", CONCATENATE("S",V38))</f>
-        <v>S1A</v>
       </c>
       <c r="W39" t="str">
         <f>IF(W38="0d", "", CONCATENATE("S",W38))</f>
-        <v/>
+        <v>S1A</v>
       </c>
       <c r="X39" t="str">
         <f>IF(X38="0d", "", CONCATENATE("S",X38))</f>
@@ -6621,7 +6907,7 @@
         <v/>
       </c>
       <c r="AA39" t="str">
-        <f t="shared" ref="AA39" si="66">IF(AA38="0d", "", CONCATENATE("S",AA38))</f>
+        <f>IF(AA38="0d", "", CONCATENATE("S",AA38))</f>
         <v/>
       </c>
       <c r="AB39" t="str">
@@ -6629,101 +6915,109 @@
         <v/>
       </c>
       <c r="AC39" t="str">
-        <f>IF(AC38="0d", "", CONCATENATE("S",AC38))</f>
+        <f t="shared" ref="AC39" si="93">IF(AC38="0d", "", CONCATENATE("S",AC38))</f>
         <v/>
       </c>
       <c r="AD39" t="str">
         <f>IF(AD38="0d", "", CONCATENATE("S",AD38))</f>
         <v/>
       </c>
-    </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE39" t="str">
+        <f>IF(AE38="0d", "", CONCATENATE("S",AE38))</f>
+        <v/>
+      </c>
+      <c r="AF39" t="str">
+        <f>IF(AF38="0d", "", CONCATENATE("S",AF38))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>289</v>
       </c>
       <c r="C40" t="str">
-        <f t="shared" ref="C40:U40" si="67">CONCATENATE("S",C38)</f>
+        <f t="shared" ref="C40:V40" si="94">CONCATENATE("S",C38)</f>
         <v>S0d</v>
       </c>
       <c r="D40" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="94"/>
         <v>S0d</v>
       </c>
       <c r="E40" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="94"/>
         <v>S0d</v>
       </c>
       <c r="F40" t="str">
-        <f t="shared" ref="F40" si="68">CONCATENATE("S",F38)</f>
+        <f t="shared" ref="F40" si="95">CONCATENATE("S",F38)</f>
         <v>S0d</v>
       </c>
       <c r="G40" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="94"/>
         <v>S0d</v>
       </c>
       <c r="H40" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="94"/>
         <v>S0d</v>
       </c>
       <c r="I40" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="94"/>
         <v>S0d</v>
       </c>
       <c r="J40" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="94"/>
         <v>S0d</v>
       </c>
       <c r="K40" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="94"/>
         <v>S0d</v>
       </c>
       <c r="L40" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" ref="L40" si="96">CONCATENATE("S",L38)</f>
         <v>S0d</v>
       </c>
       <c r="M40" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="94"/>
         <v>S0d</v>
       </c>
       <c r="N40" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="94"/>
         <v>S0d</v>
       </c>
       <c r="O40" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="94"/>
         <v>S0d</v>
       </c>
       <c r="P40" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="94"/>
         <v>S0d</v>
       </c>
       <c r="Q40" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="94"/>
         <v>S0d</v>
       </c>
       <c r="R40" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="94"/>
         <v>S0d</v>
       </c>
       <c r="S40" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="94"/>
         <v>S0d</v>
       </c>
       <c r="T40" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="94"/>
+        <v>S0d</v>
+      </c>
+      <c r="U40" t="str">
+        <f t="shared" si="94"/>
         <v>S1A</v>
       </c>
-      <c r="U40" t="str">
-        <f t="shared" si="67"/>
+      <c r="V40" t="str">
+        <f t="shared" si="94"/>
         <v>S90d</v>
-      </c>
-      <c r="V40" t="str">
-        <f>CONCATENATE("S",V38)</f>
-        <v>S1A</v>
       </c>
       <c r="W40" t="str">
         <f>CONCATENATE("S",W38)</f>
-        <v>S0d</v>
+        <v>S1A</v>
       </c>
       <c r="X40" t="str">
         <f>CONCATENATE("S",X38)</f>
@@ -6738,7 +7032,7 @@
         <v>S0d</v>
       </c>
       <c r="AA40" t="str">
-        <f t="shared" ref="AA40" si="69">CONCATENATE("S",AA38)</f>
+        <f>CONCATENATE("S",AA38)</f>
         <v>S0d</v>
       </c>
       <c r="AB40" t="str">
@@ -6746,15 +7040,23 @@
         <v>S0d</v>
       </c>
       <c r="AC40" t="str">
-        <f>CONCATENATE("S",AC38)</f>
+        <f t="shared" ref="AC40" si="97">CONCATENATE("S",AC38)</f>
         <v>S0d</v>
       </c>
       <c r="AD40" t="str">
         <f>CONCATENATE("S",AD38)</f>
         <v>S0d</v>
       </c>
-    </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE40" t="str">
+        <f>CONCATENATE("S",AE38)</f>
+        <v>S0d</v>
+      </c>
+      <c r="AF40" t="str">
+        <f>CONCATENATE("S",AF38)</f>
+        <v>S0d</v>
+      </c>
+    </row>
+    <row r="41" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A41" s="21" t="s">
         <v>290</v>
       </c>
@@ -6843,89 +7145,95 @@
       <c r="AD41" s="21">
         <v>2014</v>
       </c>
-    </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE41" s="21">
+        <v>2014</v>
+      </c>
+      <c r="AF41" s="21">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="42" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>291</v>
       </c>
       <c r="C42" t="str">
-        <f t="shared" ref="C42:U42" si="70">IF(C41=2014,"",CONCATENATE("L",C41))</f>
+        <f t="shared" ref="C42:V42" si="98">IF(C41=2014,"",CONCATENATE("L",C41))</f>
         <v/>
       </c>
       <c r="D42" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="98"/>
         <v/>
       </c>
       <c r="E42" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="98"/>
         <v/>
       </c>
       <c r="F42" t="str">
-        <f t="shared" ref="F42" si="71">IF(F41=2014,"",CONCATENATE("L",F41))</f>
+        <f t="shared" ref="F42" si="99">IF(F41=2014,"",CONCATENATE("L",F41))</f>
         <v/>
       </c>
       <c r="G42" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="98"/>
         <v/>
       </c>
       <c r="H42" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="98"/>
         <v/>
       </c>
       <c r="I42" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="98"/>
         <v/>
       </c>
       <c r="J42" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="98"/>
         <v/>
       </c>
       <c r="K42" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="98"/>
         <v/>
       </c>
       <c r="L42" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" ref="L42" si="100">IF(L41=2014,"",CONCATENATE("L",L41))</f>
         <v/>
       </c>
       <c r="M42" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="98"/>
         <v/>
       </c>
       <c r="N42" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="98"/>
         <v/>
       </c>
       <c r="O42" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="98"/>
         <v/>
       </c>
       <c r="P42" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="98"/>
         <v/>
       </c>
       <c r="Q42" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="98"/>
         <v/>
       </c>
       <c r="R42" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="98"/>
         <v/>
       </c>
       <c r="S42" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="98"/>
         <v/>
       </c>
       <c r="T42" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="98"/>
         <v/>
       </c>
       <c r="U42" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="98"/>
         <v/>
       </c>
       <c r="V42" t="str">
-        <f>IF(V41=2014,"",CONCATENATE("L",V41))</f>
+        <f t="shared" si="98"/>
         <v/>
       </c>
       <c r="W42" t="str">
@@ -6945,7 +7253,7 @@
         <v/>
       </c>
       <c r="AA42" t="str">
-        <f t="shared" ref="AA42" si="72">IF(AA41=2014,"",CONCATENATE("L",AA41))</f>
+        <f>IF(AA41=2014,"",CONCATENATE("L",AA41))</f>
         <v/>
       </c>
       <c r="AB42" t="str">
@@ -6953,15 +7261,23 @@
         <v/>
       </c>
       <c r="AC42" t="str">
-        <f>IF(AC41=2014,"",CONCATENATE("L",AC41))</f>
+        <f t="shared" ref="AC42" si="101">IF(AC41=2014,"",CONCATENATE("L",AC41))</f>
         <v/>
       </c>
       <c r="AD42" t="str">
         <f>IF(AD41=2014,"",CONCATENATE("L",AD41))</f>
         <v/>
       </c>
-    </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE42" t="str">
+        <f>IF(AE41=2014,"",CONCATENATE("L",AE41))</f>
+        <v/>
+      </c>
+      <c r="AF42" t="str">
+        <f>IF(AF41=2014,"",CONCATENATE("L",AF41))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A43" s="21" t="s">
         <v>292</v>
       </c>
@@ -7044,97 +7360,103 @@
         <v>294</v>
       </c>
       <c r="AB43" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="AC43" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="AD43" s="21" t="s">
         <v>465</v>
       </c>
-      <c r="AC43" s="21" t="s">
+      <c r="AE43" s="21" t="s">
         <v>468</v>
       </c>
-      <c r="AD43" s="21" t="s">
+      <c r="AF43" s="21" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>295</v>
       </c>
       <c r="C44" t="str">
-        <f t="shared" ref="C44:U44" si="73">IF(C43="none","",CONCATENATE("L",C43))</f>
+        <f t="shared" ref="C44:V44" si="102">IF(C43="none","",CONCATENATE("L",C43))</f>
         <v/>
       </c>
       <c r="D44" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="102"/>
         <v/>
       </c>
       <c r="E44" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="102"/>
         <v/>
       </c>
       <c r="F44" t="str">
-        <f t="shared" ref="F44" si="74">IF(F43="none","",CONCATENATE("L",F43))</f>
+        <f t="shared" ref="F44" si="103">IF(F43="none","",CONCATENATE("L",F43))</f>
         <v/>
       </c>
       <c r="G44" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="102"/>
         <v/>
       </c>
       <c r="H44" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="102"/>
         <v/>
       </c>
       <c r="I44" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="102"/>
         <v/>
       </c>
       <c r="J44" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="102"/>
         <v/>
       </c>
       <c r="K44" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="102"/>
         <v/>
       </c>
       <c r="L44" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" ref="L44" si="104">IF(L43="none","",CONCATENATE("L",L43))</f>
         <v/>
       </c>
       <c r="M44" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="102"/>
         <v/>
       </c>
       <c r="N44" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="102"/>
         <v/>
       </c>
       <c r="O44" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="102"/>
         <v/>
       </c>
       <c r="P44" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="102"/>
         <v/>
       </c>
       <c r="Q44" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="102"/>
         <v/>
       </c>
       <c r="R44" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="102"/>
         <v/>
       </c>
       <c r="S44" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="102"/>
         <v/>
       </c>
       <c r="T44" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="102"/>
         <v/>
       </c>
       <c r="U44" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="102"/>
         <v/>
       </c>
       <c r="V44" t="str">
-        <f>IF(V43="none","",CONCATENATE("L",V43))</f>
+        <f t="shared" si="102"/>
         <v/>
       </c>
       <c r="W44" t="str">
@@ -7154,23 +7476,31 @@
         <v/>
       </c>
       <c r="AA44" t="str">
-        <f t="shared" ref="AA44" si="75">IF(AA43="none","",CONCATENATE("L",AA43))</f>
+        <f>IF(AA43="none","",CONCATENATE("L",AA43))</f>
         <v/>
       </c>
       <c r="AB44" t="str">
         <f>IF(AB43="none","",CONCATENATE("L",AB43))</f>
-        <v>Lmod_D0_M0_energyOnly</v>
+        <v/>
       </c>
       <c r="AC44" t="str">
-        <f>IF(AC43="none","",CONCATENATE("L",AC43))</f>
-        <v>Lmod_D50_M0_energyOnly</v>
+        <f t="shared" ref="AC44" si="105">IF(AC43="none","",CONCATENATE("L",AC43))</f>
+        <v/>
       </c>
       <c r="AD44" t="str">
         <f>IF(AD43="none","",CONCATENATE("L",AD43))</f>
+        <v>Lmod_D0_M0_energyOnly</v>
+      </c>
+      <c r="AE44" t="str">
+        <f>IF(AE43="none","",CONCATENATE("L",AE43))</f>
+        <v>Lmod_D50_M0_energyOnly</v>
+      </c>
+      <c r="AF44" t="str">
+        <f>IF(AF43="none","",CONCATENATE("L",AF43))</f>
         <v>Lmod_D25_M25_energyOnly</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A45" s="21" t="s">
         <v>296</v>
       </c>
@@ -7261,8 +7591,14 @@
       <c r="AD45" s="21" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="AF45" s="21" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="46" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>299</v>
       </c>
@@ -7350,89 +7686,95 @@
       <c r="AD46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE46">
+        <v>0</v>
+      </c>
+      <c r="AF46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>300</v>
       </c>
       <c r="C47" t="str">
-        <f t="shared" ref="C47:U47" si="76">IF(C45="RT","",CONCATENATE(C45,C46))</f>
+        <f t="shared" ref="C47:V47" si="106">IF(C45="RT","",CONCATENATE(C45,C46))</f>
         <v/>
       </c>
       <c r="D47" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="106"/>
         <v/>
       </c>
       <c r="E47" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="106"/>
         <v/>
       </c>
       <c r="F47" t="str">
-        <f t="shared" ref="F47" si="77">IF(F45="RT","",CONCATENATE(F45,F46))</f>
+        <f t="shared" ref="F47" si="107">IF(F45="RT","",CONCATENATE(F45,F46))</f>
         <v/>
       </c>
       <c r="G47" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="106"/>
         <v/>
       </c>
       <c r="H47" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="106"/>
         <v/>
       </c>
       <c r="I47" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="106"/>
         <v/>
       </c>
       <c r="J47" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="106"/>
         <v/>
       </c>
       <c r="K47" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="106"/>
         <v/>
       </c>
       <c r="L47" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" ref="L47" si="108">IF(L45="RT","",CONCATENATE(L45,L46))</f>
         <v/>
       </c>
       <c r="M47" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="106"/>
         <v/>
       </c>
       <c r="N47" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="106"/>
         <v/>
       </c>
       <c r="O47" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="106"/>
         <v/>
       </c>
       <c r="P47" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="106"/>
         <v/>
       </c>
       <c r="Q47" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="106"/>
         <v/>
       </c>
       <c r="R47" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="106"/>
         <v/>
       </c>
       <c r="S47" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="106"/>
         <v/>
       </c>
       <c r="T47" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="106"/>
         <v/>
       </c>
       <c r="U47" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="106"/>
         <v/>
       </c>
       <c r="V47" t="str">
-        <f>IF(V45="RT","",CONCATENATE(V45,V46))</f>
+        <f t="shared" si="106"/>
         <v/>
       </c>
       <c r="W47" t="str">
@@ -7452,7 +7794,7 @@
         <v/>
       </c>
       <c r="AA47" t="str">
-        <f t="shared" ref="AA47" si="78">IF(AA45="RT","",CONCATENATE(AA45,AA46))</f>
+        <f>IF(AA45="RT","",CONCATENATE(AA45,AA46))</f>
         <v/>
       </c>
       <c r="AB47" t="str">
@@ -7460,11 +7802,19 @@
         <v/>
       </c>
       <c r="AC47" t="str">
-        <f>IF(AC45="RT","",CONCATENATE(AC45,AC46))</f>
+        <f t="shared" ref="AC47" si="109">IF(AC45="RT","",CONCATENATE(AC45,AC46))</f>
         <v/>
       </c>
       <c r="AD47" t="str">
         <f>IF(AD45="RT","",CONCATENATE(AD45,AD46))</f>
+        <v/>
+      </c>
+      <c r="AE47" t="str">
+        <f>IF(AE45="RT","",CONCATENATE(AE45,AE46))</f>
+        <v/>
+      </c>
+      <c r="AF47" t="str">
+        <f>IF(AF45="RT","",CONCATENATE(AF45,AF46))</f>
         <v/>
       </c>
     </row>
@@ -7619,10 +7969,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB7"/>
+  <dimension ref="A1:AD7"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="X18" sqref="X18"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Y11" sqref="Y11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7635,21 +7985,23 @@
     <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="24" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="27.83203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="28.83203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" customWidth="1"/>
+    <col min="11" max="13" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="25" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.6640625" customWidth="1"/>
+    <col min="27" max="27" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="29.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>220</v>
       </c>
@@ -7675,64 +8027,70 @@
         <v>232</v>
       </c>
       <c r="J1" t="s">
+        <v>480</v>
+      </c>
+      <c r="K1" t="s">
         <v>233</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>234</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>235</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>236</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>237</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>238</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>239</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>240</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>241</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>242</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>414</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>419</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>420</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>421</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>422</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
+        <v>481</v>
+      </c>
+      <c r="AA1" t="s">
         <v>438</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>464</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>466</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>439</v>
       </c>
@@ -7758,64 +8116,70 @@
         <v>446</v>
       </c>
       <c r="J2" t="s">
+        <v>482</v>
+      </c>
+      <c r="K2" t="s">
         <v>447</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>448</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>449</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>450</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>451</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>452</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>453</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>454</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>455</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>456</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>457</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>458</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>459</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>460</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>461</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
+        <v>483</v>
+      </c>
+      <c r="AA2" t="s">
         <v>462</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AB2" t="s">
         <v>470</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AC2" t="s">
         <v>471</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AD2" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>409</v>
       </c>
@@ -7843,9 +8207,6 @@
       <c r="I3" t="s">
         <v>411</v>
       </c>
-      <c r="J3" t="s">
-        <v>411</v>
-      </c>
       <c r="K3" t="s">
         <v>411</v>
       </c>
@@ -7891,17 +8252,20 @@
       <c r="Y3" t="s">
         <v>411</v>
       </c>
-      <c r="Z3" t="s">
-        <v>411</v>
-      </c>
       <c r="AA3" t="s">
         <v>411</v>
       </c>
       <c r="AB3" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC3" t="s">
+        <v>411</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>410</v>
       </c>
@@ -7929,9 +8293,6 @@
       <c r="I4" t="s">
         <v>411</v>
       </c>
-      <c r="J4" t="s">
-        <v>411</v>
-      </c>
       <c r="K4" t="s">
         <v>411</v>
       </c>
@@ -7977,17 +8338,20 @@
       <c r="Y4" t="s">
         <v>411</v>
       </c>
-      <c r="Z4" t="s">
-        <v>411</v>
-      </c>
       <c r="AA4" t="s">
         <v>411</v>
       </c>
       <c r="AB4" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC4" t="s">
+        <v>411</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>406</v>
       </c>
@@ -8006,9 +8370,6 @@
       <c r="I5" t="s">
         <v>411</v>
       </c>
-      <c r="J5" t="s">
-        <v>411</v>
-      </c>
       <c r="K5" t="s">
         <v>411</v>
       </c>
@@ -8033,20 +8394,23 @@
       <c r="R5" t="s">
         <v>411</v>
       </c>
-      <c r="T5" t="s">
+      <c r="S5" t="s">
         <v>411</v>
       </c>
-      <c r="V5" t="s">
+      <c r="U5" t="s">
         <v>411</v>
       </c>
-      <c r="X5" t="s">
+      <c r="W5" t="s">
         <v>411</v>
       </c>
       <c r="Y5" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AA5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>407</v>
       </c>
@@ -8065,9 +8429,6 @@
       <c r="I6" t="s">
         <v>411</v>
       </c>
-      <c r="J6" t="s">
-        <v>411</v>
-      </c>
       <c r="K6" t="s">
         <v>411</v>
       </c>
@@ -8092,20 +8453,23 @@
       <c r="R6" t="s">
         <v>411</v>
       </c>
-      <c r="T6" t="s">
+      <c r="S6" t="s">
         <v>411</v>
       </c>
-      <c r="V6" t="s">
+      <c r="U6" t="s">
         <v>411</v>
       </c>
-      <c r="X6" t="s">
+      <c r="W6" t="s">
         <v>411</v>
       </c>
       <c r="Y6" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AA6" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>408</v>
       </c>
@@ -8124,9 +8488,6 @@
       <c r="I7" t="s">
         <v>411</v>
       </c>
-      <c r="J7" t="s">
-        <v>411</v>
-      </c>
       <c r="K7" t="s">
         <v>411</v>
       </c>
@@ -8151,16 +8512,19 @@
       <c r="R7" t="s">
         <v>411</v>
       </c>
-      <c r="T7" t="s">
+      <c r="S7" t="s">
         <v>411</v>
       </c>
-      <c r="V7" t="s">
+      <c r="U7" t="s">
         <v>411</v>
       </c>
-      <c r="X7" t="s">
+      <c r="W7" t="s">
         <v>411</v>
       </c>
       <c r="Y7" t="s">
+        <v>411</v>
+      </c>
+      <c r="AA7" t="s">
         <v>411</v>
       </c>
     </row>
@@ -12402,8 +12766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:N13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14857,7 +15221,7 @@
   <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/india_REV_input/Scenarios_Cost_Master_v5.xlsx
+++ b/india_REV_input/Scenarios_Cost_Master_v5.xlsx
@@ -20,8 +20,9 @@
     <sheet name="generator_cost_all" sheetId="8" r:id="rId6"/>
     <sheet name="Data and sources" sheetId="4" r:id="rId7"/>
     <sheet name="inflation rate" sheetId="5" r:id="rId8"/>
-    <sheet name="scenarios" sheetId="13" r:id="rId9"/>
-    <sheet name="run_times" sheetId="12" r:id="rId10"/>
+    <sheet name="FGD costs" sheetId="15" r:id="rId9"/>
+    <sheet name="scenarios" sheetId="13" r:id="rId10"/>
+    <sheet name="run_times" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -463,7 +464,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="491">
   <si>
     <t>Screening curves</t>
   </si>
@@ -1915,6 +1916,27 @@
   </si>
   <si>
     <t>ClcC70mB60B50lc</t>
+  </si>
+  <si>
+    <t>FGD costs from CEA</t>
+  </si>
+  <si>
+    <t>CEA new emissions norms 2019</t>
+  </si>
+  <si>
+    <t>Capacity (MW)</t>
+  </si>
+  <si>
+    <t>INR per MW</t>
+  </si>
+  <si>
+    <t>USD per MW</t>
+  </si>
+  <si>
+    <t>INR/USD</t>
+  </si>
+  <si>
+    <t>battery60B50LC_coalHC</t>
   </si>
 </sst>
 </file>
@@ -2425,13 +2447,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF47"/>
+  <dimension ref="A1:AG47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="8" topLeftCell="AA9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="AC15" sqref="AC15"/>
+      <selection pane="bottomRight" activeCell="AC10" sqref="AC10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2453,12 +2475,13 @@
     <col min="23" max="23" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="24" max="26" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="27" max="28" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="19" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="27.83203125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="25" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="34.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>225</v>
       </c>
@@ -2544,19 +2567,22 @@
         <v>481</v>
       </c>
       <c r="AC1" t="s">
+        <v>490</v>
+      </c>
+      <c r="AD1" t="s">
         <v>438</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>464</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>466</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
         <v>243</v>
       </c>
@@ -2572,7 +2598,7 @@
         <v>ChcC70m</v>
       </c>
       <c r="E2" s="21" t="str">
-        <f t="shared" ref="E2:AC2" si="0">E3</f>
+        <f t="shared" ref="E2:AD2" si="0">E3</f>
         <v>ClcC55m</v>
       </c>
       <c r="F2" s="21" t="str">
@@ -2669,22 +2695,26 @@
       </c>
       <c r="AC2" s="21" t="str">
         <f t="shared" si="0"/>
+        <v>ChcC70mB60B50lc</v>
+      </c>
+      <c r="AD2" s="21" t="str">
+        <f t="shared" si="0"/>
         <v>ChcC70mW30lcS30lc</v>
-      </c>
-      <c r="AD2" s="21" t="str">
-        <f>AD3</f>
-        <v>ClcC70mLmod_D0_M0_energyOnly</v>
       </c>
       <c r="AE2" s="21" t="str">
         <f>AE3</f>
-        <v>ClcC70mLmod_D50_M0_energyOnly</v>
+        <v>ClcC70mLmod_D0_M0_energyOnly</v>
       </c>
       <c r="AF2" s="21" t="str">
         <f>AF3</f>
+        <v>ClcC70mLmod_D50_M0_energyOnly</v>
+      </c>
+      <c r="AG2" s="21" t="str">
+        <f>AG3</f>
         <v>ClcC70mLmod_D25_M25_energyOnly</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>245</v>
       </c>
@@ -2789,27 +2819,31 @@
         <v>ClcC70mB30B50lc</v>
       </c>
       <c r="AB3" t="str">
-        <f t="shared" ref="AB3" si="4">CONCATENATE(AB10,AB13,AB17,AB19,AB21,AB25,AB29,AB33,AB36,AB39,AB42,AB44,AB47)</f>
+        <f t="shared" ref="AB3:AC3" si="4">CONCATENATE(AB10,AB13,AB17,AB19,AB21,AB25,AB29,AB33,AB36,AB39,AB42,AB44,AB47)</f>
         <v>ClcC70mB60B50lc</v>
       </c>
       <c r="AC3" t="str">
-        <f t="shared" ref="AC3" si="5">CONCATENATE(AC10,AC13,AC17,AC19,AC21,AC25,AC29,AC33,AC36,AC39,AC42,AC44,AC47)</f>
+        <f t="shared" si="4"/>
+        <v>ChcC70mB60B50lc</v>
+      </c>
+      <c r="AD3" t="str">
+        <f t="shared" ref="AD3" si="5">CONCATENATE(AD10,AD13,AD17,AD19,AD21,AD25,AD29,AD33,AD36,AD39,AD42,AD44,AD47)</f>
         <v>ChcC70mW30lcS30lc</v>
-      </c>
-      <c r="AD3" t="str">
-        <f>CONCATENATE(AD10,AD13,AD17,AD19,AD21,AD25,AD29,AD33,AD36,AD39,AD42,AD44,AD47)</f>
-        <v>ClcC70mLmod_D0_M0_energyOnly</v>
       </c>
       <c r="AE3" t="str">
         <f>CONCATENATE(AE10,AE13,AE17,AE19,AE21,AE25,AE29,AE33,AE36,AE39,AE42,AE44,AE47)</f>
-        <v>ClcC70mLmod_D50_M0_energyOnly</v>
+        <v>ClcC70mLmod_D0_M0_energyOnly</v>
       </c>
       <c r="AF3" t="str">
         <f>CONCATENATE(AF10,AF13,AF17,AF19,AF21,AF25,AF29,AF33,AF36,AF39,AF42,AF44,AF47)</f>
+        <v>ClcC70mLmod_D50_M0_energyOnly</v>
+      </c>
+      <c r="AG3" t="str">
+        <f>CONCATENATE(AG10,AG13,AG17,AG19,AG21,AG25,AG29,AG33,AG36,AG39,AG42,AG44,AG47)</f>
         <v>ClcC70mLmod_D25_M25_energyOnly</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>413</v>
       </c>
@@ -2830,7 +2864,7 @@
         <v>ClcC0m</v>
       </c>
       <c r="G4" t="str">
-        <f t="shared" ref="G4:AF4" si="7">CONCATENATE(G10,G13,G15,G17,G19,G21,G36,G39,G42,G44,G47)</f>
+        <f t="shared" ref="G4:AG4" si="7">CONCATENATE(G10,G13,G15,G17,G19,G21,G36,G39,G42,G44,G47)</f>
         <v>ClcC70mH-25</v>
       </c>
       <c r="H4" t="str">
@@ -2914,27 +2948,31 @@
         <v>ClcC70mB30</v>
       </c>
       <c r="AB4" t="str">
-        <f t="shared" ref="AB4" si="9">CONCATENATE(AB10,AB13,AB15,AB17,AB19,AB21,AB36,AB39,AB42,AB44,AB47)</f>
+        <f t="shared" ref="AB4:AC4" si="9">CONCATENATE(AB10,AB13,AB15,AB17,AB19,AB21,AB36,AB39,AB42,AB44,AB47)</f>
         <v>ClcC70mB60</v>
       </c>
       <c r="AC4" t="str">
+        <f t="shared" si="9"/>
+        <v>ChcC70mB60</v>
+      </c>
+      <c r="AD4" t="str">
         <f t="shared" si="7"/>
         <v>ChcC70m</v>
       </c>
-      <c r="AD4" t="str">
+      <c r="AE4" t="str">
         <f t="shared" si="7"/>
         <v>ClcC70mLmod_D0_M0_energyOnly</v>
       </c>
-      <c r="AE4" t="str">
+      <c r="AF4" t="str">
         <f t="shared" si="7"/>
         <v>ClcC70mLmod_D50_M0_energyOnly</v>
       </c>
-      <c r="AF4" t="str">
+      <c r="AG4" t="str">
         <f t="shared" si="7"/>
         <v>ClcC70mLmod_D25_M25_energyOnly</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>246</v>
       </c>
@@ -3019,52 +3057,56 @@
         <v>coallcS90d</v>
       </c>
       <c r="W5" t="str">
-        <f>CONCATENATE(W11,W17,W19,W21,W36,W39,W42,W44,W47)</f>
+        <f t="shared" ref="W5:AB5" si="13">CONCATENATE(W11,W17,W19,W21,W36,W39,W42,W44,W47)</f>
         <v>coallcW120S1A</v>
       </c>
       <c r="X5" t="str">
-        <f>CONCATENATE(X11,X17,X19,X21,X36,X39,X42,X44,X47)</f>
+        <f t="shared" si="13"/>
         <v>coallcB15</v>
       </c>
       <c r="Y5" t="str">
-        <f>CONCATENATE(Y11,Y17,Y19,Y21,Y36,Y39,Y42,Y44,Y47)</f>
+        <f t="shared" si="13"/>
         <v>coallcB15</v>
       </c>
       <c r="Z5" t="str">
-        <f>CONCATENATE(Z11,Z17,Z19,Z21,Z36,Z39,Z42,Z44,Z47)</f>
+        <f t="shared" si="13"/>
         <v>coallcB30</v>
       </c>
       <c r="AA5" t="str">
-        <f>CONCATENATE(AA11,AA17,AA19,AA21,AA36,AA39,AA42,AA44,AA47)</f>
+        <f t="shared" si="13"/>
         <v>coallcB30</v>
       </c>
       <c r="AB5" t="str">
-        <f>CONCATENATE(AB11,AB17,AB19,AB21,AB36,AB39,AB42,AB44,AB47)</f>
+        <f t="shared" si="13"/>
         <v>coallcB60</v>
       </c>
       <c r="AC5" t="str">
-        <f t="shared" ref="AC5" si="13">CONCATENATE(AC11,AC17,AC19,AC21,AC36,AC39,AC42,AC44,AC47)</f>
+        <f t="shared" ref="AC5" si="14">CONCATENATE(AC11,AC17,AC19,AC21,AC36,AC39,AC42,AC44,AC47)</f>
+        <v>coalhcB60</v>
+      </c>
+      <c r="AD5" t="str">
+        <f t="shared" ref="AD5" si="15">CONCATENATE(AD11,AD17,AD19,AD21,AD36,AD39,AD42,AD44,AD47)</f>
         <v>coalhc</v>
-      </c>
-      <c r="AD5" t="str">
-        <f>CONCATENATE(AD11,AD17,AD19,AD21,AD36,AD39,AD42,AD44,AD47)</f>
-        <v>coallcLmod_D0_M0_energyOnly</v>
       </c>
       <c r="AE5" t="str">
         <f>CONCATENATE(AE11,AE17,AE19,AE21,AE36,AE39,AE42,AE44,AE47)</f>
-        <v>coallcLmod_D50_M0_energyOnly</v>
+        <v>coallcLmod_D0_M0_energyOnly</v>
       </c>
       <c r="AF5" t="str">
         <f>CONCATENATE(AF11,AF17,AF19,AF21,AF36,AF39,AF42,AF44,AF47)</f>
+        <v>coallcLmod_D50_M0_energyOnly</v>
+      </c>
+      <c r="AG5" t="str">
+        <f>CONCATENATE(AG11,AG17,AG19,AG21,AG36,AG39,AG42,AG44,AG47)</f>
         <v>coallcLmod_D25_M25_energyOnly</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>247</v>
       </c>
       <c r="C6" t="str">
-        <f t="shared" ref="C6:V6" si="14">CONCATENATE(C11,C17,C19,C21,C36,C39,C42,C44,C47)</f>
+        <f t="shared" ref="C6:V6" si="16">CONCATENATE(C11,C17,C19,C21,C36,C39,C42,C44,C47)</f>
         <v>coallc</v>
       </c>
       <c r="D6" t="str">
@@ -3072,232 +3114,236 @@
         <v>coallc</v>
       </c>
       <c r="E6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>coallc</v>
       </c>
       <c r="F6" t="str">
-        <f t="shared" ref="F6" si="15">CONCATENATE(F11,F17,F19,F21,F36,F39,F42,F44,F47)</f>
+        <f t="shared" ref="F6" si="17">CONCATENATE(F11,F17,F19,F21,F36,F39,F42,F44,F47)</f>
         <v>coallc</v>
       </c>
       <c r="G6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>coallcH-25</v>
       </c>
       <c r="H6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>coallcH25</v>
       </c>
       <c r="I6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>coallcN64</v>
       </c>
       <c r="J6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>coallcB15</v>
       </c>
       <c r="K6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>coallcB30</v>
       </c>
       <c r="L6" t="str">
-        <f t="shared" ref="L6" si="16">CONCATENATE(L11,L17,L19,L21,L36,L39,L42,L44,L47)</f>
+        <f t="shared" ref="L6" si="18">CONCATENATE(L11,L17,L19,L21,L36,L39,L42,L44,L47)</f>
         <v>coallcB60</v>
       </c>
       <c r="M6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>coallc</v>
       </c>
       <c r="N6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>coallc</v>
       </c>
       <c r="O6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>coallc</v>
       </c>
       <c r="P6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>coallc</v>
       </c>
       <c r="Q6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>coallc</v>
       </c>
       <c r="R6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>coallc</v>
       </c>
       <c r="S6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>coallc</v>
       </c>
       <c r="T6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>coallcW120</v>
       </c>
       <c r="U6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>coallcS1A</v>
       </c>
       <c r="V6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>coallcS90d</v>
       </c>
       <c r="W6" t="str">
-        <f>CONCATENATE(W11,W17,W19,W21,W36,W39,W42,W44,W47)</f>
+        <f t="shared" ref="W6:AB6" si="19">CONCATENATE(W11,W17,W19,W21,W36,W39,W42,W44,W47)</f>
         <v>coallcW120S1A</v>
       </c>
       <c r="X6" t="str">
-        <f>CONCATENATE(X11,X17,X19,X21,X36,X39,X42,X44,X47)</f>
+        <f t="shared" si="19"/>
         <v>coallcB15</v>
       </c>
       <c r="Y6" t="str">
-        <f>CONCATENATE(Y11,Y17,Y19,Y21,Y36,Y39,Y42,Y44,Y47)</f>
+        <f t="shared" si="19"/>
         <v>coallcB15</v>
       </c>
       <c r="Z6" t="str">
-        <f>CONCATENATE(Z11,Z17,Z19,Z21,Z36,Z39,Z42,Z44,Z47)</f>
+        <f t="shared" si="19"/>
         <v>coallcB30</v>
       </c>
       <c r="AA6" t="str">
-        <f>CONCATENATE(AA11,AA17,AA19,AA21,AA36,AA39,AA42,AA44,AA47)</f>
+        <f t="shared" si="19"/>
         <v>coallcB30</v>
       </c>
       <c r="AB6" t="str">
-        <f>CONCATENATE(AB11,AB17,AB19,AB21,AB36,AB39,AB42,AB44,AB47)</f>
+        <f t="shared" si="19"/>
         <v>coallcB60</v>
       </c>
       <c r="AC6" t="str">
+        <f t="shared" ref="AC6" si="20">CONCATENATE(AC11,AC17,AC19,AC21,AC36,AC39,AC42,AC44,AC47)</f>
+        <v>coalhcB60</v>
+      </c>
+      <c r="AD6" t="str">
         <f>C6</f>
         <v>coallc</v>
       </c>
-      <c r="AD6" t="str">
-        <f>CONCATENATE(AD11,AD17,AD19,AD21,AD36,AD39,AD42,AD44,AD47)</f>
-        <v>coallcLmod_D0_M0_energyOnly</v>
-      </c>
       <c r="AE6" t="str">
         <f>CONCATENATE(AE11,AE17,AE19,AE21,AE36,AE39,AE42,AE44,AE47)</f>
-        <v>coallcLmod_D50_M0_energyOnly</v>
+        <v>coallcLmod_D0_M0_energyOnly</v>
       </c>
       <c r="AF6" t="str">
         <f>CONCATENATE(AF11,AF17,AF19,AF21,AF36,AF39,AF42,AF44,AF47)</f>
+        <v>coallcLmod_D50_M0_energyOnly</v>
+      </c>
+      <c r="AG6" t="str">
+        <f>CONCATENATE(AG11,AG17,AG19,AG21,AG36,AG39,AG42,AG44,AG47)</f>
         <v>coallcLmod_D25_M25_energyOnly</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>248</v>
       </c>
       <c r="C7" t="str">
-        <f t="shared" ref="C7:V7" si="17">CONCATENATE(C37,"_",C40)</f>
+        <f t="shared" ref="C7:V7" si="21">CONCATENATE(C37,"_",C40)</f>
         <v>W80_S0d</v>
       </c>
       <c r="D7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>W80_S0d</v>
       </c>
       <c r="E7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>W80_S0d</v>
       </c>
       <c r="F7" t="str">
-        <f t="shared" ref="F7" si="18">CONCATENATE(F37,"_",F40)</f>
+        <f t="shared" ref="F7" si="22">CONCATENATE(F37,"_",F40)</f>
         <v>W80_S0d</v>
       </c>
       <c r="G7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>W80_S0d</v>
       </c>
       <c r="H7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>W80_S0d</v>
       </c>
       <c r="I7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>W80_S0d</v>
       </c>
       <c r="J7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>W80_S0d</v>
       </c>
       <c r="K7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>W80_S0d</v>
       </c>
       <c r="L7" t="str">
-        <f t="shared" ref="L7" si="19">CONCATENATE(L37,"_",L40)</f>
+        <f t="shared" ref="L7" si="23">CONCATENATE(L37,"_",L40)</f>
         <v>W80_S0d</v>
       </c>
       <c r="M7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>W80_S0d</v>
       </c>
       <c r="N7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>W80_S0d</v>
       </c>
       <c r="O7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>W80_S0d</v>
       </c>
       <c r="P7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>W80_S0d</v>
       </c>
       <c r="Q7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>W80_S0d</v>
       </c>
       <c r="R7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>W80_S0d</v>
       </c>
       <c r="S7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>W80_S0d</v>
       </c>
       <c r="T7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>W120_S0d</v>
       </c>
       <c r="U7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>W80_S1A</v>
       </c>
       <c r="V7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>W80_S90d</v>
       </c>
       <c r="W7" t="str">
-        <f>CONCATENATE(W37,"_",W40)</f>
+        <f t="shared" ref="W7:AB7" si="24">CONCATENATE(W37,"_",W40)</f>
         <v>W120_S1A</v>
       </c>
       <c r="X7" t="str">
-        <f>CONCATENATE(X37,"_",X40)</f>
+        <f t="shared" si="24"/>
         <v>W80_S0d</v>
       </c>
       <c r="Y7" t="str">
-        <f>CONCATENATE(Y37,"_",Y40)</f>
+        <f t="shared" si="24"/>
         <v>W80_S0d</v>
       </c>
       <c r="Z7" t="str">
-        <f>CONCATENATE(Z37,"_",Z40)</f>
+        <f t="shared" si="24"/>
         <v>W80_S0d</v>
       </c>
       <c r="AA7" t="str">
-        <f>CONCATENATE(AA37,"_",AA40)</f>
+        <f t="shared" si="24"/>
         <v>W80_S0d</v>
       </c>
       <c r="AB7" t="str">
-        <f>CONCATENATE(AB37,"_",AB40)</f>
+        <f t="shared" si="24"/>
         <v>W80_S0d</v>
       </c>
       <c r="AC7" t="str">
-        <f t="shared" ref="AC7" si="20">CONCATENATE(AC37,"_",AC40)</f>
+        <f t="shared" ref="AC7" si="25">CONCATENATE(AC37,"_",AC40)</f>
         <v>W80_S0d</v>
       </c>
       <c r="AD7" t="str">
-        <f>CONCATENATE(AD37,"_",AD40)</f>
+        <f t="shared" ref="AD7" si="26">CONCATENATE(AD37,"_",AD40)</f>
         <v>W80_S0d</v>
       </c>
       <c r="AE7" t="str">
@@ -3308,8 +3354,12 @@
         <f>CONCATENATE(AF37,"_",AF40)</f>
         <v>W80_S0d</v>
       </c>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG7" t="str">
+        <f>CONCATENATE(AG37,"_",AG40)</f>
+        <v>W80_S0d</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>249</v>
       </c>
@@ -3318,112 +3368,112 @@
         <v>coallc</v>
       </c>
       <c r="D8" t="str">
-        <f t="shared" ref="D8:AA8" si="21">CONCATENATE(D11,D29,D33,D25)</f>
+        <f t="shared" ref="D8:AA8" si="27">CONCATENATE(D11,D29,D33,D25)</f>
         <v>coalhc</v>
       </c>
       <c r="E8" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>coallc</v>
       </c>
       <c r="F8" t="str">
-        <f t="shared" ref="F8" si="22">CONCATENATE(F11,F29,F33,F25)</f>
+        <f t="shared" ref="F8" si="28">CONCATENATE(F11,F29,F33,F25)</f>
         <v>coallc</v>
       </c>
       <c r="G8" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>coallc</v>
       </c>
       <c r="H8" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>coallc</v>
       </c>
       <c r="I8" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>coallc</v>
       </c>
       <c r="J8" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>coallc</v>
       </c>
       <c r="K8" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>coallc</v>
       </c>
       <c r="L8" t="str">
-        <f t="shared" ref="L8" si="23">CONCATENATE(L11,L29,L33,L25)</f>
+        <f t="shared" ref="L8" si="29">CONCATENATE(L11,L29,L33,L25)</f>
         <v>coallc</v>
       </c>
       <c r="M8" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>coallcW10lc</v>
       </c>
       <c r="N8" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>coallcW20lc</v>
       </c>
       <c r="O8" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>coallcW30lc</v>
       </c>
       <c r="P8" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>coallcS10lc</v>
       </c>
       <c r="Q8" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>coallcS20lc</v>
       </c>
       <c r="R8" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>coallcS30lc</v>
       </c>
       <c r="S8" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>coallcW30lcS30lc</v>
       </c>
       <c r="T8" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>coallc</v>
       </c>
       <c r="U8" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>coallc</v>
       </c>
       <c r="V8" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>coallc</v>
       </c>
       <c r="W8" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>coallc</v>
       </c>
       <c r="X8" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>coallcB25lc</v>
       </c>
       <c r="Y8" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>coallcB50lc</v>
       </c>
       <c r="Z8" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>coallcB25lc</v>
       </c>
       <c r="AA8" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>coallcB50lc</v>
       </c>
       <c r="AB8" t="str">
-        <f t="shared" ref="AB8" si="24">CONCATENATE(AB11,AB29,AB33,AB25)</f>
+        <f t="shared" ref="AB8:AC8" si="30">CONCATENATE(AB11,AB29,AB33,AB25)</f>
         <v>coallcB50lc</v>
       </c>
       <c r="AC8" t="str">
-        <f t="shared" ref="AC8" si="25">CONCATENATE(AC11,AC29,AC33,AC25)</f>
+        <f t="shared" si="30"/>
+        <v>coalhcB50lc</v>
+      </c>
+      <c r="AD8" t="str">
+        <f t="shared" ref="AD8" si="31">CONCATENATE(AD11,AD29,AD33,AD25)</f>
         <v>coalhcW30lcS30lc</v>
-      </c>
-      <c r="AD8" t="str">
-        <f>CONCATENATE(AD11,AD29,AD33,AD25)</f>
-        <v>coallc</v>
       </c>
       <c r="AE8" t="str">
         <f>CONCATENATE(AE11,AE29,AE33,AE25)</f>
@@ -3433,8 +3483,12 @@
         <f>CONCATENATE(AF11,AF29,AF33,AF25)</f>
         <v>coallc</v>
       </c>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG8" t="str">
+        <f>CONCATENATE(AG11,AG29,AG33,AG25)</f>
+        <v>coallc</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
         <v>250</v>
       </c>
@@ -3523,7 +3577,7 @@
         <v>253</v>
       </c>
       <c r="AD9" s="21" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AE9" s="21" t="s">
         <v>252</v>
@@ -3531,8 +3585,11 @@
       <c r="AF9" s="21" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG9" s="21" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>254</v>
       </c>
@@ -3541,112 +3598,112 @@
         <v>Clc</v>
       </c>
       <c r="D10" t="str">
-        <f t="shared" ref="D10:V10" si="26">CONCATENATE("C", LEFT(D9,1), "c")</f>
+        <f t="shared" ref="D10:V10" si="32">CONCATENATE("C", LEFT(D9,1), "c")</f>
         <v>Chc</v>
       </c>
       <c r="E10" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>Clc</v>
       </c>
       <c r="F10" t="str">
-        <f t="shared" ref="F10" si="27">CONCATENATE("C", LEFT(F9,1), "c")</f>
+        <f t="shared" ref="F10" si="33">CONCATENATE("C", LEFT(F9,1), "c")</f>
         <v>Clc</v>
       </c>
       <c r="G10" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>Clc</v>
       </c>
       <c r="H10" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>Clc</v>
       </c>
       <c r="I10" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>Clc</v>
       </c>
       <c r="J10" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>Clc</v>
       </c>
       <c r="K10" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>Clc</v>
       </c>
       <c r="L10" t="str">
-        <f t="shared" ref="L10" si="28">CONCATENATE("C", LEFT(L9,1), "c")</f>
+        <f t="shared" ref="L10" si="34">CONCATENATE("C", LEFT(L9,1), "c")</f>
         <v>Clc</v>
       </c>
       <c r="M10" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>Clc</v>
       </c>
       <c r="N10" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>Clc</v>
       </c>
       <c r="O10" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>Clc</v>
       </c>
       <c r="P10" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>Clc</v>
       </c>
       <c r="Q10" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>Clc</v>
       </c>
       <c r="R10" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>Clc</v>
       </c>
       <c r="S10" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>Clc</v>
       </c>
       <c r="T10" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>Clc</v>
       </c>
       <c r="U10" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>Clc</v>
       </c>
       <c r="V10" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>Clc</v>
       </c>
       <c r="W10" t="str">
-        <f>CONCATENATE("C", LEFT(W9,1), "c")</f>
+        <f t="shared" ref="W10:AB10" si="35">CONCATENATE("C", LEFT(W9,1), "c")</f>
         <v>Clc</v>
       </c>
       <c r="X10" t="str">
-        <f>CONCATENATE("C", LEFT(X9,1), "c")</f>
+        <f t="shared" si="35"/>
         <v>Clc</v>
       </c>
       <c r="Y10" t="str">
-        <f>CONCATENATE("C", LEFT(Y9,1), "c")</f>
+        <f t="shared" si="35"/>
         <v>Clc</v>
       </c>
       <c r="Z10" t="str">
-        <f>CONCATENATE("C", LEFT(Z9,1), "c")</f>
+        <f t="shared" si="35"/>
         <v>Clc</v>
       </c>
       <c r="AA10" t="str">
-        <f>CONCATENATE("C", LEFT(AA9,1), "c")</f>
+        <f t="shared" si="35"/>
         <v>Clc</v>
       </c>
       <c r="AB10" t="str">
-        <f>CONCATENATE("C", LEFT(AB9,1), "c")</f>
+        <f t="shared" si="35"/>
         <v>Clc</v>
       </c>
       <c r="AC10" t="str">
-        <f t="shared" ref="AC10" si="29">CONCATENATE("C", LEFT(AC9,1), "c")</f>
+        <f t="shared" ref="AC10" si="36">CONCATENATE("C", LEFT(AC9,1), "c")</f>
         <v>Chc</v>
       </c>
       <c r="AD10" t="str">
-        <f>CONCATENATE("C", LEFT(AD9,1), "c")</f>
-        <v>Clc</v>
+        <f t="shared" ref="AD10" si="37">CONCATENATE("C", LEFT(AD9,1), "c")</f>
+        <v>Chc</v>
       </c>
       <c r="AE10" t="str">
         <f>CONCATENATE("C", LEFT(AE9,1), "c")</f>
@@ -3656,122 +3713,126 @@
         <f>CONCATENATE("C", LEFT(AF9,1), "c")</f>
         <v>Clc</v>
       </c>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG10" t="str">
+        <f>CONCATENATE("C", LEFT(AG9,1), "c")</f>
+        <v>Clc</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>255</v>
       </c>
       <c r="C11" t="str">
-        <f t="shared" ref="C11:V11" si="30">CONCATENATE("coal",LEFT(C9,1), "c")</f>
+        <f t="shared" ref="C11:V11" si="38">CONCATENATE("coal",LEFT(C9,1), "c")</f>
         <v>coallc</v>
       </c>
       <c r="D11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>coalhc</v>
       </c>
       <c r="E11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>coallc</v>
       </c>
       <c r="F11" t="str">
-        <f t="shared" ref="F11" si="31">CONCATENATE("coal",LEFT(F9,1), "c")</f>
+        <f t="shared" ref="F11" si="39">CONCATENATE("coal",LEFT(F9,1), "c")</f>
         <v>coallc</v>
       </c>
       <c r="G11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>coallc</v>
       </c>
       <c r="H11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>coallc</v>
       </c>
       <c r="I11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>coallc</v>
       </c>
       <c r="J11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>coallc</v>
       </c>
       <c r="K11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>coallc</v>
       </c>
       <c r="L11" t="str">
-        <f t="shared" ref="L11" si="32">CONCATENATE("coal",LEFT(L9,1), "c")</f>
+        <f t="shared" ref="L11" si="40">CONCATENATE("coal",LEFT(L9,1), "c")</f>
         <v>coallc</v>
       </c>
       <c r="M11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>coallc</v>
       </c>
       <c r="N11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>coallc</v>
       </c>
       <c r="O11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>coallc</v>
       </c>
       <c r="P11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>coallc</v>
       </c>
       <c r="Q11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>coallc</v>
       </c>
       <c r="R11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>coallc</v>
       </c>
       <c r="S11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>coallc</v>
       </c>
       <c r="T11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>coallc</v>
       </c>
       <c r="U11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>coallc</v>
       </c>
       <c r="V11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>coallc</v>
       </c>
       <c r="W11" t="str">
-        <f>CONCATENATE("coal",LEFT(W9,1), "c")</f>
+        <f t="shared" ref="W11:AB11" si="41">CONCATENATE("coal",LEFT(W9,1), "c")</f>
         <v>coallc</v>
       </c>
       <c r="X11" t="str">
-        <f>CONCATENATE("coal",LEFT(X9,1), "c")</f>
+        <f t="shared" si="41"/>
         <v>coallc</v>
       </c>
       <c r="Y11" t="str">
-        <f>CONCATENATE("coal",LEFT(Y9,1), "c")</f>
+        <f t="shared" si="41"/>
         <v>coallc</v>
       </c>
       <c r="Z11" t="str">
-        <f>CONCATENATE("coal",LEFT(Z9,1), "c")</f>
+        <f t="shared" si="41"/>
         <v>coallc</v>
       </c>
       <c r="AA11" t="str">
-        <f>CONCATENATE("coal",LEFT(AA9,1), "c")</f>
+        <f t="shared" si="41"/>
         <v>coallc</v>
       </c>
       <c r="AB11" t="str">
-        <f>CONCATENATE("coal",LEFT(AB9,1), "c")</f>
+        <f t="shared" si="41"/>
         <v>coallc</v>
       </c>
       <c r="AC11" t="str">
-        <f t="shared" ref="AC11" si="33">CONCATENATE("coal",LEFT(AC9,1), "c")</f>
+        <f t="shared" ref="AC11" si="42">CONCATENATE("coal",LEFT(AC9,1), "c")</f>
         <v>coalhc</v>
       </c>
       <c r="AD11" t="str">
-        <f>CONCATENATE("coal",LEFT(AD9,1), "c")</f>
-        <v>coallc</v>
+        <f t="shared" ref="AD11" si="43">CONCATENATE("coal",LEFT(AD9,1), "c")</f>
+        <v>coalhc</v>
       </c>
       <c r="AE11" t="str">
         <f>CONCATENATE("coal",LEFT(AE9,1), "c")</f>
@@ -3781,8 +3842,12 @@
         <f>CONCATENATE("coal",LEFT(AF9,1), "c")</f>
         <v>coallc</v>
       </c>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG11" t="str">
+        <f>CONCATENATE("coal",LEFT(AG9,1), "c")</f>
+        <v>coallc</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A12" s="21" t="s">
         <v>256</v>
       </c>
@@ -3879,8 +3944,11 @@
       <c r="AF12" s="21">
         <v>70</v>
       </c>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG12" s="21">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>258</v>
       </c>
@@ -3889,111 +3957,111 @@
         <v>C70m</v>
       </c>
       <c r="D13" t="str">
-        <f t="shared" ref="D13:V13" si="34">CONCATENATE("C",D12,"m")</f>
+        <f t="shared" ref="D13:V13" si="44">CONCATENATE("C",D12,"m")</f>
         <v>C70m</v>
       </c>
       <c r="E13" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>C55m</v>
       </c>
       <c r="F13" t="str">
-        <f t="shared" ref="F13" si="35">CONCATENATE("C",F12,"m")</f>
+        <f t="shared" ref="F13" si="45">CONCATENATE("C",F12,"m")</f>
         <v>C0m</v>
       </c>
       <c r="G13" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>C70m</v>
       </c>
       <c r="H13" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>C70m</v>
       </c>
       <c r="I13" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>C70m</v>
       </c>
       <c r="J13" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>C70m</v>
       </c>
       <c r="K13" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>C70m</v>
       </c>
       <c r="L13" t="str">
-        <f t="shared" ref="L13" si="36">CONCATENATE("C",L12,"m")</f>
+        <f t="shared" ref="L13" si="46">CONCATENATE("C",L12,"m")</f>
         <v>C70m</v>
       </c>
       <c r="M13" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>C70m</v>
       </c>
       <c r="N13" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>C70m</v>
       </c>
       <c r="O13" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>C70m</v>
       </c>
       <c r="P13" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>C70m</v>
       </c>
       <c r="Q13" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>C70m</v>
       </c>
       <c r="R13" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>C70m</v>
       </c>
       <c r="S13" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>C70m</v>
       </c>
       <c r="T13" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>C70m</v>
       </c>
       <c r="U13" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>C70m</v>
       </c>
       <c r="V13" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>C70m</v>
       </c>
       <c r="W13" t="str">
-        <f>CONCATENATE("C",W12,"m")</f>
+        <f t="shared" ref="W13:AB13" si="47">CONCATENATE("C",W12,"m")</f>
         <v>C70m</v>
       </c>
       <c r="X13" t="str">
-        <f>CONCATENATE("C",X12,"m")</f>
+        <f t="shared" si="47"/>
         <v>C70m</v>
       </c>
       <c r="Y13" t="str">
-        <f>CONCATENATE("C",Y12,"m")</f>
+        <f t="shared" si="47"/>
         <v>C70m</v>
       </c>
       <c r="Z13" t="str">
-        <f>CONCATENATE("C",Z12,"m")</f>
+        <f t="shared" si="47"/>
         <v>C70m</v>
       </c>
       <c r="AA13" t="str">
-        <f>CONCATENATE("C",AA12,"m")</f>
+        <f t="shared" si="47"/>
         <v>C70m</v>
       </c>
       <c r="AB13" t="str">
-        <f>CONCATENATE("C",AB12,"m")</f>
+        <f t="shared" si="47"/>
         <v>C70m</v>
       </c>
       <c r="AC13" t="str">
-        <f t="shared" ref="AC13" si="37">CONCATENATE("C",AC12,"m")</f>
+        <f t="shared" ref="AC13" si="48">CONCATENATE("C",AC12,"m")</f>
         <v>C70m</v>
       </c>
       <c r="AD13" t="str">
-        <f>CONCATENATE("C",AD12,"m")</f>
+        <f t="shared" ref="AD13" si="49">CONCATENATE("C",AD12,"m")</f>
         <v>C70m</v>
       </c>
       <c r="AE13" t="str">
@@ -4004,8 +4072,12 @@
         <f>CONCATENATE("C",AF12,"m")</f>
         <v>C70m</v>
       </c>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG13" t="str">
+        <f>CONCATENATE("C",AG12,"m")</f>
+        <v>C70m</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14" s="21" t="s">
         <v>474</v>
       </c>
@@ -4102,8 +4174,11 @@
       <c r="AF14" s="21">
         <v>50</v>
       </c>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG14" s="21">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>475</v>
       </c>
@@ -4112,123 +4187,127 @@
         <v/>
       </c>
       <c r="D15" t="str">
-        <f t="shared" ref="D15:AF15" si="38">IF(D14=50,"",CONCATENATE("G",D14, "m"))</f>
+        <f t="shared" ref="D15:AG15" si="50">IF(D14=50,"",CONCATENATE("G",D14, "m"))</f>
         <v/>
       </c>
       <c r="E15" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="F15" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="50"/>
         <v>G0m</v>
       </c>
       <c r="G15" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="H15" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="I15" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="J15" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="K15" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="L15" t="str">
-        <f t="shared" ref="L15" si="39">IF(L14=50,"",CONCATENATE("G",L14, "m"))</f>
+        <f t="shared" ref="L15" si="51">IF(L14=50,"",CONCATENATE("G",L14, "m"))</f>
         <v/>
       </c>
       <c r="M15" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="N15" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="O15" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="P15" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="Q15" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="R15" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="S15" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="T15" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="U15" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="V15" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="W15" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="X15" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="Y15" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="Z15" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="AA15" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="AB15" t="str">
-        <f t="shared" ref="AB15" si="40">IF(AB14=50,"",CONCATENATE("G",AB14, "m"))</f>
+        <f t="shared" ref="AB15:AC15" si="52">IF(AB14=50,"",CONCATENATE("G",AB14, "m"))</f>
         <v/>
       </c>
       <c r="AC15" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="AD15" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="AE15" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="AF15" t="str">
-        <f t="shared" si="38"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="AG15" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A16" s="21" t="s">
         <v>259</v>
       </c>
@@ -4325,121 +4404,124 @@
       <c r="AF16" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG16" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>261</v>
       </c>
       <c r="C17" t="str">
-        <f t="shared" ref="C17:V17" si="41">IF(C16=0,"",CONCATENATE("H",C16))</f>
+        <f t="shared" ref="C17:V17" si="53">IF(C16=0,"",CONCATENATE("H",C16))</f>
         <v/>
       </c>
       <c r="D17" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="E17" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="F17" t="str">
-        <f t="shared" ref="F17" si="42">IF(F16=0,"",CONCATENATE("H",F16))</f>
+        <f t="shared" ref="F17" si="54">IF(F16=0,"",CONCATENATE("H",F16))</f>
         <v/>
       </c>
       <c r="G17" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="53"/>
         <v>H-25</v>
       </c>
       <c r="H17" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="53"/>
         <v>H25</v>
       </c>
       <c r="I17" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="J17" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="K17" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="L17" t="str">
-        <f t="shared" ref="L17" si="43">IF(L16=0,"",CONCATENATE("H",L16))</f>
+        <f t="shared" ref="L17" si="55">IF(L16=0,"",CONCATENATE("H",L16))</f>
         <v/>
       </c>
       <c r="M17" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="N17" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="O17" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="P17" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="Q17" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="R17" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="S17" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="T17" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="U17" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="V17" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="W17" t="str">
-        <f>IF(W16=0,"",CONCATENATE("H",W16))</f>
+        <f t="shared" ref="W17:AB17" si="56">IF(W16=0,"",CONCATENATE("H",W16))</f>
         <v/>
       </c>
       <c r="X17" t="str">
-        <f>IF(X16=0,"",CONCATENATE("H",X16))</f>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="Y17" t="str">
-        <f>IF(Y16=0,"",CONCATENATE("H",Y16))</f>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="Z17" t="str">
-        <f>IF(Z16=0,"",CONCATENATE("H",Z16))</f>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="AA17" t="str">
-        <f>IF(AA16=0,"",CONCATENATE("H",AA16))</f>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="AB17" t="str">
-        <f>IF(AB16=0,"",CONCATENATE("H",AB16))</f>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="AC17" t="str">
-        <f t="shared" ref="AC17" si="44">IF(AC16=0,"",CONCATENATE("H",AC16))</f>
+        <f t="shared" ref="AC17" si="57">IF(AC16=0,"",CONCATENATE("H",AC16))</f>
         <v/>
       </c>
       <c r="AD17" t="str">
-        <f>IF(AD16=0,"",CONCATENATE("H",AD16))</f>
+        <f t="shared" ref="AD17" si="58">IF(AD16=0,"",CONCATENATE("H",AD16))</f>
         <v/>
       </c>
       <c r="AE17" t="str">
@@ -4450,8 +4532,12 @@
         <f>IF(AF16=0,"",CONCATENATE("H",AF16))</f>
         <v/>
       </c>
-    </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG17" t="str">
+        <f>IF(AG16=0,"",CONCATENATE("H",AG16))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A18" s="21" t="s">
         <v>262</v>
       </c>
@@ -4548,121 +4634,124 @@
       <c r="AF18" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG18" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>264</v>
       </c>
       <c r="C19" t="str">
-        <f t="shared" ref="C19:V19" si="45">IF(C18=0,"",CONCATENATE("N",C18))</f>
+        <f t="shared" ref="C19:V19" si="59">IF(C18=0,"",CONCATENATE("N",C18))</f>
         <v/>
       </c>
       <c r="D19" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="E19" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="F19" t="str">
-        <f t="shared" ref="F19" si="46">IF(F18=0,"",CONCATENATE("N",F18))</f>
+        <f t="shared" ref="F19" si="60">IF(F18=0,"",CONCATENATE("N",F18))</f>
         <v/>
       </c>
       <c r="G19" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="H19" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="I19" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="59"/>
         <v>N64</v>
       </c>
       <c r="J19" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="K19" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="L19" t="str">
-        <f t="shared" ref="L19" si="47">IF(L18=0,"",CONCATENATE("N",L18))</f>
+        <f t="shared" ref="L19" si="61">IF(L18=0,"",CONCATENATE("N",L18))</f>
         <v/>
       </c>
       <c r="M19" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="N19" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="O19" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="P19" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="Q19" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="R19" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="S19" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="T19" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="U19" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="V19" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="W19" t="str">
-        <f>IF(W18=0,"",CONCATENATE("N",W18))</f>
+        <f t="shared" ref="W19:AB19" si="62">IF(W18=0,"",CONCATENATE("N",W18))</f>
         <v/>
       </c>
       <c r="X19" t="str">
-        <f>IF(X18=0,"",CONCATENATE("N",X18))</f>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="Y19" t="str">
-        <f>IF(Y18=0,"",CONCATENATE("N",Y18))</f>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="Z19" t="str">
-        <f>IF(Z18=0,"",CONCATENATE("N",Z18))</f>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="AA19" t="str">
-        <f>IF(AA18=0,"",CONCATENATE("N",AA18))</f>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="AB19" t="str">
-        <f>IF(AB18=0,"",CONCATENATE("N",AB18))</f>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="AC19" t="str">
-        <f t="shared" ref="AC19" si="48">IF(AC18=0,"",CONCATENATE("N",AC18))</f>
+        <f t="shared" ref="AC19" si="63">IF(AC18=0,"",CONCATENATE("N",AC18))</f>
         <v/>
       </c>
       <c r="AD19" t="str">
-        <f>IF(AD18=0,"",CONCATENATE("N",AD18))</f>
+        <f t="shared" ref="AD19" si="64">IF(AD18=0,"",CONCATENATE("N",AD18))</f>
         <v/>
       </c>
       <c r="AE19" t="str">
@@ -4673,8 +4762,12 @@
         <f>IF(AF18=0,"",CONCATENATE("N",AF18))</f>
         <v/>
       </c>
-    </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG19" t="str">
+        <f>IF(AG18=0,"",CONCATENATE("N",AG18))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
         <v>265</v>
       </c>
@@ -4760,7 +4853,7 @@
         <v>60</v>
       </c>
       <c r="AC20" s="21">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AD20" s="21">
         <v>0</v>
@@ -4771,121 +4864,124 @@
       <c r="AF20" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG20" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>267</v>
       </c>
       <c r="C21" t="str">
-        <f t="shared" ref="C21:V21" si="49">IF(C20=0,"",CONCATENATE("B",C20))</f>
+        <f t="shared" ref="C21:V21" si="65">IF(C20=0,"",CONCATENATE("B",C20))</f>
         <v/>
       </c>
       <c r="D21" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="65"/>
         <v/>
       </c>
       <c r="E21" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="65"/>
         <v/>
       </c>
       <c r="F21" t="str">
-        <f t="shared" ref="F21" si="50">IF(F20=0,"",CONCATENATE("B",F20))</f>
+        <f t="shared" ref="F21" si="66">IF(F20=0,"",CONCATENATE("B",F20))</f>
         <v/>
       </c>
       <c r="G21" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="65"/>
         <v/>
       </c>
       <c r="H21" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="65"/>
         <v/>
       </c>
       <c r="I21" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="65"/>
         <v/>
       </c>
       <c r="J21" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="65"/>
         <v>B15</v>
       </c>
       <c r="K21" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="65"/>
         <v>B30</v>
       </c>
       <c r="L21" t="str">
-        <f t="shared" ref="L21" si="51">IF(L20=0,"",CONCATENATE("B",L20))</f>
+        <f t="shared" ref="L21" si="67">IF(L20=0,"",CONCATENATE("B",L20))</f>
         <v>B60</v>
       </c>
       <c r="M21" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="65"/>
         <v/>
       </c>
       <c r="N21" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="65"/>
         <v/>
       </c>
       <c r="O21" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="65"/>
         <v/>
       </c>
       <c r="P21" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="65"/>
         <v/>
       </c>
       <c r="Q21" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="65"/>
         <v/>
       </c>
       <c r="R21" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="65"/>
         <v/>
       </c>
       <c r="S21" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="65"/>
         <v/>
       </c>
       <c r="T21" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="65"/>
         <v/>
       </c>
       <c r="U21" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="65"/>
         <v/>
       </c>
       <c r="V21" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="65"/>
         <v/>
       </c>
       <c r="W21" t="str">
-        <f>IF(W20=0,"",CONCATENATE("B",W20))</f>
+        <f t="shared" ref="W21:AB21" si="68">IF(W20=0,"",CONCATENATE("B",W20))</f>
         <v/>
       </c>
       <c r="X21" t="str">
-        <f>IF(X20=0,"",CONCATENATE("B",X20))</f>
+        <f t="shared" si="68"/>
         <v>B15</v>
       </c>
       <c r="Y21" t="str">
-        <f>IF(Y20=0,"",CONCATENATE("B",Y20))</f>
+        <f t="shared" si="68"/>
         <v>B15</v>
       </c>
       <c r="Z21" t="str">
-        <f>IF(Z20=0,"",CONCATENATE("B",Z20))</f>
+        <f t="shared" si="68"/>
         <v>B30</v>
       </c>
       <c r="AA21" t="str">
-        <f>IF(AA20=0,"",CONCATENATE("B",AA20))</f>
+        <f t="shared" si="68"/>
         <v>B30</v>
       </c>
       <c r="AB21" t="str">
-        <f>IF(AB20=0,"",CONCATENATE("B",AB20))</f>
+        <f t="shared" si="68"/>
         <v>B60</v>
       </c>
       <c r="AC21" t="str">
-        <f t="shared" ref="AC21" si="52">IF(AC20=0,"",CONCATENATE("B",AC20))</f>
-        <v/>
+        <f t="shared" ref="AC21" si="69">IF(AC20=0,"",CONCATENATE("B",AC20))</f>
+        <v>B60</v>
       </c>
       <c r="AD21" t="str">
-        <f>IF(AD20=0,"",CONCATENATE("B",AD20))</f>
+        <f t="shared" ref="AD21" si="70">IF(AD20=0,"",CONCATENATE("B",AD20))</f>
         <v/>
       </c>
       <c r="AE21" t="str">
@@ -4896,121 +4992,125 @@
         <f>IF(AF20=0,"",CONCATENATE("B",AF20))</f>
         <v/>
       </c>
-    </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG21" t="str">
+        <f>IF(AG20=0,"",CONCATENATE("B",AG20))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>268</v>
       </c>
       <c r="C22" t="str">
-        <f t="shared" ref="C22:V22" si="53">CONCATENATE("bat", C20)</f>
+        <f t="shared" ref="C22:V22" si="71">CONCATENATE("bat", C20)</f>
         <v>bat0</v>
       </c>
       <c r="D22" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="71"/>
         <v>bat0</v>
       </c>
       <c r="E22" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="71"/>
         <v>bat0</v>
       </c>
       <c r="F22" t="str">
-        <f t="shared" ref="F22" si="54">CONCATENATE("bat", F20)</f>
+        <f t="shared" ref="F22" si="72">CONCATENATE("bat", F20)</f>
         <v>bat0</v>
       </c>
       <c r="G22" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="71"/>
         <v>bat0</v>
       </c>
       <c r="H22" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="71"/>
         <v>bat0</v>
       </c>
       <c r="I22" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="71"/>
         <v>bat0</v>
       </c>
       <c r="J22" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="71"/>
         <v>bat15</v>
       </c>
       <c r="K22" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="71"/>
         <v>bat30</v>
       </c>
       <c r="L22" t="str">
-        <f t="shared" ref="L22" si="55">CONCATENATE("bat", L20)</f>
+        <f t="shared" ref="L22" si="73">CONCATENATE("bat", L20)</f>
         <v>bat60</v>
       </c>
       <c r="M22" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="71"/>
         <v>bat0</v>
       </c>
       <c r="N22" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="71"/>
         <v>bat0</v>
       </c>
       <c r="O22" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="71"/>
         <v>bat0</v>
       </c>
       <c r="P22" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="71"/>
         <v>bat0</v>
       </c>
       <c r="Q22" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="71"/>
         <v>bat0</v>
       </c>
       <c r="R22" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="71"/>
         <v>bat0</v>
       </c>
       <c r="S22" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="71"/>
         <v>bat0</v>
       </c>
       <c r="T22" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="71"/>
         <v>bat0</v>
       </c>
       <c r="U22" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="71"/>
         <v>bat0</v>
       </c>
       <c r="V22" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="71"/>
         <v>bat0</v>
       </c>
       <c r="W22" t="str">
-        <f>CONCATENATE("bat", W20)</f>
+        <f t="shared" ref="W22:AB22" si="74">CONCATENATE("bat", W20)</f>
         <v>bat0</v>
       </c>
       <c r="X22" t="str">
-        <f>CONCATENATE("bat", X20)</f>
+        <f t="shared" si="74"/>
         <v>bat15</v>
       </c>
       <c r="Y22" t="str">
-        <f>CONCATENATE("bat", Y20)</f>
+        <f t="shared" si="74"/>
         <v>bat15</v>
       </c>
       <c r="Z22" t="str">
-        <f>CONCATENATE("bat", Z20)</f>
+        <f t="shared" si="74"/>
         <v>bat30</v>
       </c>
       <c r="AA22" t="str">
-        <f>CONCATENATE("bat", AA20)</f>
+        <f t="shared" si="74"/>
         <v>bat30</v>
       </c>
       <c r="AB22" t="str">
-        <f>CONCATENATE("bat", AB20)</f>
+        <f t="shared" si="74"/>
         <v>bat60</v>
       </c>
       <c r="AC22" t="str">
-        <f t="shared" ref="AC22" si="56">CONCATENATE("bat", AC20)</f>
-        <v>bat0</v>
+        <f t="shared" ref="AC22" si="75">CONCATENATE("bat", AC20)</f>
+        <v>bat60</v>
       </c>
       <c r="AD22" t="str">
-        <f>CONCATENATE("bat", AD20)</f>
+        <f t="shared" ref="AD22" si="76">CONCATENATE("bat", AD20)</f>
         <v>bat0</v>
       </c>
       <c r="AE22" t="str">
@@ -5021,8 +5121,12 @@
         <f>CONCATENATE("bat", AF20)</f>
         <v>bat0</v>
       </c>
-    </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG22" t="str">
+        <f>CONCATENATE("bat", AG20)</f>
+        <v>bat0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A23" s="21" t="s">
         <v>415</v>
       </c>
@@ -5108,7 +5212,7 @@
         <v>50</v>
       </c>
       <c r="AC23" s="21">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AD23" s="21">
         <v>0</v>
@@ -5119,8 +5223,11 @@
       <c r="AF23" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG23" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>416</v>
       </c>
@@ -5217,8 +5324,11 @@
       <c r="AF24" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG24" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>417</v>
       </c>
@@ -5227,83 +5337,83 @@
         <v/>
       </c>
       <c r="D25" t="str">
-        <f t="shared" ref="D25:W25" si="57">IF(D23=0,"",CONCATENATE("B",D23,LEFT(D24,1),"c"))</f>
+        <f t="shared" ref="D25:W25" si="77">IF(D23=0,"",CONCATENATE("B",D23,LEFT(D24,1),"c"))</f>
         <v/>
       </c>
       <c r="E25" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="F25" t="str">
-        <f t="shared" ref="F25" si="58">IF(F23=0,"",CONCATENATE("B",F23,LEFT(F24,1),"c"))</f>
+        <f t="shared" ref="F25" si="78">IF(F23=0,"",CONCATENATE("B",F23,LEFT(F24,1),"c"))</f>
         <v/>
       </c>
       <c r="G25" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="H25" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="I25" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="J25" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="K25" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="L25" t="str">
-        <f t="shared" ref="L25" si="59">IF(L23=0,"",CONCATENATE("B",L23,LEFT(L24,1),"c"))</f>
+        <f t="shared" ref="L25" si="79">IF(L23=0,"",CONCATENATE("B",L23,LEFT(L24,1),"c"))</f>
         <v/>
       </c>
       <c r="M25" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="N25" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="O25" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="P25" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="Q25" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="R25" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="S25" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="T25" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="U25" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="V25" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="W25" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="X25" t="str">
@@ -5327,11 +5437,11 @@
         <v>B50lc</v>
       </c>
       <c r="AC25" t="str">
-        <f t="shared" ref="AC25" si="60">IF(AC23=0,"",CONCATENATE("B",AC23,LEFT(AC24,1),"c"))</f>
-        <v/>
+        <f>IF(AC23=0,"",CONCATENATE("B",AC23,LEFT(AC24,1),"c"))</f>
+        <v>B50lc</v>
       </c>
       <c r="AD25" t="str">
-        <f>IF(AD23=0,"",CONCATENATE("B",AD23,LEFT(AD24,1),"c"))</f>
+        <f t="shared" ref="AD25" si="80">IF(AD23=0,"",CONCATENATE("B",AD23,LEFT(AD24,1),"c"))</f>
         <v/>
       </c>
       <c r="AE25" t="str">
@@ -5342,8 +5452,12 @@
         <f>IF(AF23=0,"",CONCATENATE("B",AF23,LEFT(AF24,1),"c"))</f>
         <v/>
       </c>
-    </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG25" t="str">
+        <f>IF(AG23=0,"",CONCATENATE("B",AG23,LEFT(AG24,1),"c"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>418</v>
       </c>
@@ -5352,83 +5466,83 @@
         <v>batteryLC0</v>
       </c>
       <c r="D26" t="str">
-        <f t="shared" ref="D26:W26" si="61">CONCATENATE("battery",UPPER(LEFT(D24,1)), "C",D23)</f>
+        <f t="shared" ref="D26:W26" si="81">CONCATENATE("battery",UPPER(LEFT(D24,1)), "C",D23)</f>
         <v>batteryLC0</v>
       </c>
       <c r="E26" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="81"/>
         <v>batteryLC0</v>
       </c>
       <c r="F26" t="str">
-        <f t="shared" ref="F26" si="62">CONCATENATE("battery",UPPER(LEFT(F24,1)), "C",F23)</f>
+        <f t="shared" ref="F26" si="82">CONCATENATE("battery",UPPER(LEFT(F24,1)), "C",F23)</f>
         <v>batteryLC0</v>
       </c>
       <c r="G26" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="81"/>
         <v>batteryLC0</v>
       </c>
       <c r="H26" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="81"/>
         <v>batteryLC0</v>
       </c>
       <c r="I26" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="81"/>
         <v>batteryLC0</v>
       </c>
       <c r="J26" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="81"/>
         <v>batteryLC0</v>
       </c>
       <c r="K26" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="81"/>
         <v>batteryLC0</v>
       </c>
       <c r="L26" t="str">
-        <f t="shared" ref="L26" si="63">CONCATENATE("battery",UPPER(LEFT(L24,1)), "C",L23)</f>
+        <f t="shared" ref="L26" si="83">CONCATENATE("battery",UPPER(LEFT(L24,1)), "C",L23)</f>
         <v>batteryLC0</v>
       </c>
       <c r="M26" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="81"/>
         <v>batteryLC0</v>
       </c>
       <c r="N26" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="81"/>
         <v>batteryLC0</v>
       </c>
       <c r="O26" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="81"/>
         <v>batteryLC0</v>
       </c>
       <c r="P26" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="81"/>
         <v>batteryLC0</v>
       </c>
       <c r="Q26" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="81"/>
         <v>batteryLC0</v>
       </c>
       <c r="R26" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="81"/>
         <v>batteryLC0</v>
       </c>
       <c r="S26" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="81"/>
         <v>batteryLC0</v>
       </c>
       <c r="T26" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="81"/>
         <v>batteryLC0</v>
       </c>
       <c r="U26" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="81"/>
         <v>batteryLC0</v>
       </c>
       <c r="V26" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="81"/>
         <v>batteryLC0</v>
       </c>
       <c r="W26" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="81"/>
         <v>batteryLC0</v>
       </c>
       <c r="X26" t="str">
@@ -5452,11 +5566,11 @@
         <v>batteryLC50</v>
       </c>
       <c r="AC26" t="str">
-        <f t="shared" ref="AC26" si="64">CONCATENATE("battery",UPPER(LEFT(AC24,1)), "C",AC23)</f>
-        <v>batteryLC0</v>
+        <f>CONCATENATE("battery",UPPER(LEFT(AC24,1)), "C",AC23)</f>
+        <v>batteryLC50</v>
       </c>
       <c r="AD26" t="str">
-        <f>CONCATENATE("battery",UPPER(LEFT(AD24,1)), "C",AD23)</f>
+        <f t="shared" ref="AD26" si="84">CONCATENATE("battery",UPPER(LEFT(AD24,1)), "C",AD23)</f>
         <v>batteryLC0</v>
       </c>
       <c r="AE26" t="str">
@@ -5467,8 +5581,12 @@
         <f>CONCATENATE("battery",UPPER(LEFT(AF24,1)), "C",AF23)</f>
         <v>batteryLC0</v>
       </c>
-    </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG26" t="str">
+        <f>CONCATENATE("battery",UPPER(LEFT(AG24,1)), "C",AG23)</f>
+        <v>batteryLC0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A27" s="21" t="s">
         <v>269</v>
       </c>
@@ -5554,19 +5672,22 @@
         <v>0</v>
       </c>
       <c r="AC27" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="21">
         <v>30</v>
       </c>
-      <c r="AD27" s="21">
-        <v>0</v>
-      </c>
       <c r="AE27" s="21">
         <v>0</v>
       </c>
       <c r="AF27" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG27" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>271</v>
       </c>
@@ -5663,122 +5784,125 @@
       <c r="AF28" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG28" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>273</v>
       </c>
       <c r="C29" t="str">
-        <f t="shared" ref="C29:V29" si="65">IF(C27=0,"",CONCATENATE("W",C27,LEFT(C28,1),"c"))</f>
+        <f t="shared" ref="C29:V29" si="85">IF(C27=0,"",CONCATENATE("W",C27,LEFT(C28,1),"c"))</f>
         <v/>
       </c>
       <c r="D29" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="E29" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="F29" t="str">
-        <f t="shared" ref="F29" si="66">IF(F27=0,"",CONCATENATE("W",F27,LEFT(F28,1),"c"))</f>
+        <f t="shared" ref="F29" si="86">IF(F27=0,"",CONCATENATE("W",F27,LEFT(F28,1),"c"))</f>
         <v/>
       </c>
       <c r="G29" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="H29" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="I29" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="J29" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="K29" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="L29" t="str">
-        <f t="shared" ref="L29" si="67">IF(L27=0,"",CONCATENATE("W",L27,LEFT(L28,1),"c"))</f>
+        <f t="shared" ref="L29" si="87">IF(L27=0,"",CONCATENATE("W",L27,LEFT(L28,1),"c"))</f>
         <v/>
       </c>
       <c r="M29" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="85"/>
         <v>W10lc</v>
       </c>
       <c r="N29" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="85"/>
         <v>W20lc</v>
       </c>
       <c r="O29" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="85"/>
         <v>W30lc</v>
       </c>
       <c r="P29" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="Q29" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="R29" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="S29" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="85"/>
         <v>W30lc</v>
       </c>
       <c r="T29" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="U29" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="V29" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="W29" t="str">
-        <f>IF(W27=0,"",CONCATENATE("W",W27,LEFT(W28,1),"c"))</f>
+        <f t="shared" ref="W29:AB29" si="88">IF(W27=0,"",CONCATENATE("W",W27,LEFT(W28,1),"c"))</f>
         <v/>
       </c>
       <c r="X29" t="str">
-        <f>IF(X27=0,"",CONCATENATE("W",X27,LEFT(X28,1),"c"))</f>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="Y29" t="str">
-        <f>IF(Y27=0,"",CONCATENATE("W",Y27,LEFT(Y28,1),"c"))</f>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="Z29" t="str">
-        <f>IF(Z27=0,"",CONCATENATE("W",Z27,LEFT(Z28,1),"c"))</f>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AA29" t="str">
-        <f>IF(AA27=0,"",CONCATENATE("W",AA27,LEFT(AA28,1),"c"))</f>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AB29" t="str">
-        <f>IF(AB27=0,"",CONCATENATE("W",AB27,LEFT(AB28,1),"c"))</f>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="AC29" t="str">
-        <f t="shared" ref="AC29" si="68">IF(AC27=0,"",CONCATENATE("W",AC27,LEFT(AC28,1),"c"))</f>
+        <f t="shared" ref="AC29" si="89">IF(AC27=0,"",CONCATENATE("W",AC27,LEFT(AC28,1),"c"))</f>
+        <v/>
+      </c>
+      <c r="AD29" t="str">
+        <f t="shared" ref="AD29" si="90">IF(AD27=0,"",CONCATENATE("W",AD27,LEFT(AD28,1),"c"))</f>
         <v>W30lc</v>
-      </c>
-      <c r="AD29" t="str">
-        <f>IF(AD27=0,"",CONCATENATE("W",AD27,LEFT(AD28,1),"c"))</f>
-        <v/>
       </c>
       <c r="AE29" t="str">
         <f>IF(AE27=0,"",CONCATENATE("W",AE27,LEFT(AE28,1),"c"))</f>
@@ -5788,122 +5912,126 @@
         <f>IF(AF27=0,"",CONCATENATE("W",AF27,LEFT(AF28,1),"c"))</f>
         <v/>
       </c>
-    </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG29" t="str">
+        <f>IF(AG27=0,"",CONCATENATE("W",AG27,LEFT(AG28,1),"c"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>274</v>
       </c>
       <c r="C30" t="str">
-        <f t="shared" ref="C30:V30" si="69">CONCATENATE("wind",UPPER(LEFT(C28,1)), "C",C27)</f>
+        <f t="shared" ref="C30:V30" si="91">CONCATENATE("wind",UPPER(LEFT(C28,1)), "C",C27)</f>
         <v>windLC0</v>
       </c>
       <c r="D30" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="91"/>
         <v>windLC0</v>
       </c>
       <c r="E30" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="91"/>
         <v>windLC0</v>
       </c>
       <c r="F30" t="str">
-        <f t="shared" ref="F30" si="70">CONCATENATE("wind",UPPER(LEFT(F28,1)), "C",F27)</f>
+        <f t="shared" ref="F30" si="92">CONCATENATE("wind",UPPER(LEFT(F28,1)), "C",F27)</f>
         <v>windLC0</v>
       </c>
       <c r="G30" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="91"/>
         <v>windLC0</v>
       </c>
       <c r="H30" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="91"/>
         <v>windLC0</v>
       </c>
       <c r="I30" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="91"/>
         <v>windLC0</v>
       </c>
       <c r="J30" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="91"/>
         <v>windLC0</v>
       </c>
       <c r="K30" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="91"/>
         <v>windLC0</v>
       </c>
       <c r="L30" t="str">
-        <f t="shared" ref="L30" si="71">CONCATENATE("wind",UPPER(LEFT(L28,1)), "C",L27)</f>
+        <f t="shared" ref="L30" si="93">CONCATENATE("wind",UPPER(LEFT(L28,1)), "C",L27)</f>
         <v>windLC0</v>
       </c>
       <c r="M30" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="91"/>
         <v>windLC10</v>
       </c>
       <c r="N30" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="91"/>
         <v>windLC20</v>
       </c>
       <c r="O30" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="91"/>
         <v>windLC30</v>
       </c>
       <c r="P30" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="91"/>
         <v>windLC0</v>
       </c>
       <c r="Q30" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="91"/>
         <v>windLC0</v>
       </c>
       <c r="R30" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="91"/>
         <v>windLC0</v>
       </c>
       <c r="S30" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="91"/>
         <v>windLC30</v>
       </c>
       <c r="T30" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="91"/>
         <v>windLC0</v>
       </c>
       <c r="U30" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="91"/>
         <v>windLC0</v>
       </c>
       <c r="V30" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="91"/>
         <v>windLC0</v>
       </c>
       <c r="W30" t="str">
-        <f>CONCATENATE("wind",UPPER(LEFT(W28,1)), "C",W27)</f>
+        <f t="shared" ref="W30:AB30" si="94">CONCATENATE("wind",UPPER(LEFT(W28,1)), "C",W27)</f>
         <v>windLC0</v>
       </c>
       <c r="X30" t="str">
-        <f>CONCATENATE("wind",UPPER(LEFT(X28,1)), "C",X27)</f>
+        <f t="shared" si="94"/>
         <v>windLC0</v>
       </c>
       <c r="Y30" t="str">
-        <f>CONCATENATE("wind",UPPER(LEFT(Y28,1)), "C",Y27)</f>
+        <f t="shared" si="94"/>
         <v>windLC0</v>
       </c>
       <c r="Z30" t="str">
-        <f>CONCATENATE("wind",UPPER(LEFT(Z28,1)), "C",Z27)</f>
+        <f t="shared" si="94"/>
         <v>windLC0</v>
       </c>
       <c r="AA30" t="str">
-        <f>CONCATENATE("wind",UPPER(LEFT(AA28,1)), "C",AA27)</f>
+        <f t="shared" si="94"/>
         <v>windLC0</v>
       </c>
       <c r="AB30" t="str">
-        <f>CONCATENATE("wind",UPPER(LEFT(AB28,1)), "C",AB27)</f>
+        <f t="shared" si="94"/>
         <v>windLC0</v>
       </c>
       <c r="AC30" t="str">
-        <f t="shared" ref="AC30" si="72">CONCATENATE("wind",UPPER(LEFT(AC28,1)), "C",AC27)</f>
+        <f t="shared" ref="AC30" si="95">CONCATENATE("wind",UPPER(LEFT(AC28,1)), "C",AC27)</f>
+        <v>windLC0</v>
+      </c>
+      <c r="AD30" t="str">
+        <f t="shared" ref="AD30" si="96">CONCATENATE("wind",UPPER(LEFT(AD28,1)), "C",AD27)</f>
         <v>windLC30</v>
-      </c>
-      <c r="AD30" t="str">
-        <f>CONCATENATE("wind",UPPER(LEFT(AD28,1)), "C",AD27)</f>
-        <v>windLC0</v>
       </c>
       <c r="AE30" t="str">
         <f>CONCATENATE("wind",UPPER(LEFT(AE28,1)), "C",AE27)</f>
@@ -5913,8 +6041,12 @@
         <f>CONCATENATE("wind",UPPER(LEFT(AF28,1)), "C",AF27)</f>
         <v>windLC0</v>
       </c>
-    </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG30" t="str">
+        <f>CONCATENATE("wind",UPPER(LEFT(AG28,1)), "C",AG27)</f>
+        <v>windLC0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A31" s="21" t="s">
         <v>275</v>
       </c>
@@ -6000,19 +6132,22 @@
         <v>0</v>
       </c>
       <c r="AC31" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="21">
         <v>30</v>
       </c>
-      <c r="AD31" s="21">
-        <v>0</v>
-      </c>
       <c r="AE31" s="21">
         <v>0</v>
       </c>
       <c r="AF31" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG31" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>276</v>
       </c>
@@ -6109,89 +6244,92 @@
       <c r="AF32" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG32" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>277</v>
       </c>
       <c r="C33" t="str">
-        <f t="shared" ref="C33:O33" si="73">IF(C31=0,"",CONCATENATE("W",C31,LEFT(C32,1),"c"))</f>
+        <f t="shared" ref="C33:O33" si="97">IF(C31=0,"",CONCATENATE("W",C31,LEFT(C32,1),"c"))</f>
         <v/>
       </c>
       <c r="D33" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
       <c r="E33" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
       <c r="F33" t="str">
-        <f t="shared" ref="F33" si="74">IF(F31=0,"",CONCATENATE("W",F31,LEFT(F32,1),"c"))</f>
+        <f t="shared" ref="F33" si="98">IF(F31=0,"",CONCATENATE("W",F31,LEFT(F32,1),"c"))</f>
         <v/>
       </c>
       <c r="G33" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
       <c r="H33" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
       <c r="I33" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
       <c r="J33" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
       <c r="K33" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
       <c r="L33" t="str">
-        <f t="shared" ref="L33" si="75">IF(L31=0,"",CONCATENATE("W",L31,LEFT(L32,1),"c"))</f>
+        <f t="shared" ref="L33" si="99">IF(L31=0,"",CONCATENATE("W",L31,LEFT(L32,1),"c"))</f>
         <v/>
       </c>
       <c r="M33" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
       <c r="N33" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
       <c r="O33" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
       <c r="P33" t="str">
-        <f t="shared" ref="P33:V33" si="76">IF(P31=0,"",CONCATENATE("S",P31,LEFT(P32,1),"c"))</f>
+        <f t="shared" ref="P33:V33" si="100">IF(P31=0,"",CONCATENATE("S",P31,LEFT(P32,1),"c"))</f>
         <v>S10lc</v>
       </c>
       <c r="Q33" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="100"/>
         <v>S20lc</v>
       </c>
       <c r="R33" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="100"/>
         <v>S30lc</v>
       </c>
       <c r="S33" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="100"/>
         <v>S30lc</v>
       </c>
       <c r="T33" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="100"/>
         <v/>
       </c>
       <c r="U33" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="100"/>
         <v/>
       </c>
       <c r="V33" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="100"/>
         <v/>
       </c>
       <c r="W33" t="str">
@@ -6219,12 +6357,12 @@
         <v/>
       </c>
       <c r="AC33" t="str">
-        <f t="shared" ref="AC33" si="77">IF(AC31=0,"",CONCATENATE("S",AC31,LEFT(AC32,1),"c"))</f>
+        <f>IF(AC31=0,"",CONCATENATE("W",AC31,LEFT(AC32,1),"c"))</f>
+        <v/>
+      </c>
+      <c r="AD33" t="str">
+        <f t="shared" ref="AD33" si="101">IF(AD31=0,"",CONCATENATE("S",AD31,LEFT(AD32,1),"c"))</f>
         <v>S30lc</v>
-      </c>
-      <c r="AD33" t="str">
-        <f>IF(AD31=0,"",CONCATENATE("S",AD31,LEFT(AD32,1),"c"))</f>
-        <v/>
       </c>
       <c r="AE33" t="str">
         <f>IF(AE31=0,"",CONCATENATE("S",AE31,LEFT(AE32,1),"c"))</f>
@@ -6234,122 +6372,126 @@
         <f>IF(AF31=0,"",CONCATENATE("S",AF31,LEFT(AF32,1),"c"))</f>
         <v/>
       </c>
-    </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG33" t="str">
+        <f>IF(AG31=0,"",CONCATENATE("S",AG31,LEFT(AG32,1),"c"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>278</v>
       </c>
       <c r="C34" t="str">
-        <f t="shared" ref="C34:V34" si="78">CONCATENATE("solar",UPPER(LEFT(C32,1)), "C",C31)</f>
+        <f t="shared" ref="C34:V34" si="102">CONCATENATE("solar",UPPER(LEFT(C32,1)), "C",C31)</f>
         <v>solarLC0</v>
       </c>
       <c r="D34" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="102"/>
         <v>solarLC0</v>
       </c>
       <c r="E34" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="102"/>
         <v>solarLC0</v>
       </c>
       <c r="F34" t="str">
-        <f t="shared" ref="F34" si="79">CONCATENATE("solar",UPPER(LEFT(F32,1)), "C",F31)</f>
+        <f t="shared" ref="F34" si="103">CONCATENATE("solar",UPPER(LEFT(F32,1)), "C",F31)</f>
         <v>solarLC0</v>
       </c>
       <c r="G34" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="102"/>
         <v>solarLC0</v>
       </c>
       <c r="H34" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="102"/>
         <v>solarLC0</v>
       </c>
       <c r="I34" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="102"/>
         <v>solarLC0</v>
       </c>
       <c r="J34" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="102"/>
         <v>solarLC0</v>
       </c>
       <c r="K34" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="102"/>
         <v>solarLC0</v>
       </c>
       <c r="L34" t="str">
-        <f t="shared" ref="L34" si="80">CONCATENATE("solar",UPPER(LEFT(L32,1)), "C",L31)</f>
+        <f t="shared" ref="L34" si="104">CONCATENATE("solar",UPPER(LEFT(L32,1)), "C",L31)</f>
         <v>solarLC0</v>
       </c>
       <c r="M34" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="102"/>
         <v>solarLC0</v>
       </c>
       <c r="N34" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="102"/>
         <v>solarLC0</v>
       </c>
       <c r="O34" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="102"/>
         <v>solarLC0</v>
       </c>
       <c r="P34" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="102"/>
         <v>solarLC10</v>
       </c>
       <c r="Q34" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="102"/>
         <v>solarLC20</v>
       </c>
       <c r="R34" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="102"/>
         <v>solarLC30</v>
       </c>
       <c r="S34" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="102"/>
         <v>solarLC30</v>
       </c>
       <c r="T34" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="102"/>
         <v>solarLC0</v>
       </c>
       <c r="U34" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="102"/>
         <v>solarLC0</v>
       </c>
       <c r="V34" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="102"/>
         <v>solarLC0</v>
       </c>
       <c r="W34" t="str">
-        <f>CONCATENATE("solar",UPPER(LEFT(W32,1)), "C",W31)</f>
+        <f t="shared" ref="W34:AB34" si="105">CONCATENATE("solar",UPPER(LEFT(W32,1)), "C",W31)</f>
         <v>solarLC0</v>
       </c>
       <c r="X34" t="str">
-        <f>CONCATENATE("solar",UPPER(LEFT(X32,1)), "C",X31)</f>
+        <f t="shared" si="105"/>
         <v>solarLC0</v>
       </c>
       <c r="Y34" t="str">
-        <f>CONCATENATE("solar",UPPER(LEFT(Y32,1)), "C",Y31)</f>
+        <f t="shared" si="105"/>
         <v>solarLC0</v>
       </c>
       <c r="Z34" t="str">
-        <f>CONCATENATE("solar",UPPER(LEFT(Z32,1)), "C",Z31)</f>
+        <f t="shared" si="105"/>
         <v>solarLC0</v>
       </c>
       <c r="AA34" t="str">
-        <f>CONCATENATE("solar",UPPER(LEFT(AA32,1)), "C",AA31)</f>
+        <f t="shared" si="105"/>
         <v>solarLC0</v>
       </c>
       <c r="AB34" t="str">
-        <f>CONCATENATE("solar",UPPER(LEFT(AB32,1)), "C",AB31)</f>
+        <f t="shared" si="105"/>
         <v>solarLC0</v>
       </c>
       <c r="AC34" t="str">
-        <f t="shared" ref="AC34" si="81">CONCATENATE("solar",UPPER(LEFT(AC32,1)), "C",AC31)</f>
+        <f t="shared" ref="AC34" si="106">CONCATENATE("solar",UPPER(LEFT(AC32,1)), "C",AC31)</f>
+        <v>solarLC0</v>
+      </c>
+      <c r="AD34" t="str">
+        <f t="shared" ref="AD34" si="107">CONCATENATE("solar",UPPER(LEFT(AD32,1)), "C",AD31)</f>
         <v>solarLC30</v>
-      </c>
-      <c r="AD34" t="str">
-        <f>CONCATENATE("solar",UPPER(LEFT(AD32,1)), "C",AD31)</f>
-        <v>solarLC0</v>
       </c>
       <c r="AE34" t="str">
         <f>CONCATENATE("solar",UPPER(LEFT(AE32,1)), "C",AE31)</f>
@@ -6359,8 +6501,12 @@
         <f>CONCATENATE("solar",UPPER(LEFT(AF32,1)), "C",AF31)</f>
         <v>solarLC0</v>
       </c>
-    </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG34" t="str">
+        <f>CONCATENATE("solar",UPPER(LEFT(AG32,1)), "C",AG31)</f>
+        <v>solarLC0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A35" s="21" t="s">
         <v>279</v>
       </c>
@@ -6457,121 +6603,124 @@
       <c r="AF35" s="21">
         <v>80</v>
       </c>
-    </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG35" s="21">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>281</v>
       </c>
       <c r="C36" t="str">
-        <f t="shared" ref="C36:V36" si="82">IF(C35=80,"", CONCATENATE("W",C35))</f>
+        <f t="shared" ref="C36:V36" si="108">IF(C35=80,"", CONCATENATE("W",C35))</f>
         <v/>
       </c>
       <c r="D36" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="108"/>
         <v/>
       </c>
       <c r="E36" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="108"/>
         <v/>
       </c>
       <c r="F36" t="str">
-        <f t="shared" ref="F36" si="83">IF(F35=80,"", CONCATENATE("W",F35))</f>
+        <f t="shared" ref="F36" si="109">IF(F35=80,"", CONCATENATE("W",F35))</f>
         <v/>
       </c>
       <c r="G36" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="108"/>
         <v/>
       </c>
       <c r="H36" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="108"/>
         <v/>
       </c>
       <c r="I36" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="108"/>
         <v/>
       </c>
       <c r="J36" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="108"/>
         <v/>
       </c>
       <c r="K36" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="108"/>
         <v/>
       </c>
       <c r="L36" t="str">
-        <f t="shared" ref="L36" si="84">IF(L35=80,"", CONCATENATE("W",L35))</f>
+        <f t="shared" ref="L36" si="110">IF(L35=80,"", CONCATENATE("W",L35))</f>
         <v/>
       </c>
       <c r="M36" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="108"/>
         <v/>
       </c>
       <c r="N36" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="108"/>
         <v/>
       </c>
       <c r="O36" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="108"/>
         <v/>
       </c>
       <c r="P36" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="108"/>
         <v/>
       </c>
       <c r="Q36" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="108"/>
         <v/>
       </c>
       <c r="R36" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="108"/>
         <v/>
       </c>
       <c r="S36" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="108"/>
         <v/>
       </c>
       <c r="T36" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="108"/>
         <v>W120</v>
       </c>
       <c r="U36" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="108"/>
         <v/>
       </c>
       <c r="V36" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="108"/>
         <v/>
       </c>
       <c r="W36" t="str">
-        <f>IF(W35=80,"", CONCATENATE("W",W35))</f>
+        <f t="shared" ref="W36:AB36" si="111">IF(W35=80,"", CONCATENATE("W",W35))</f>
         <v>W120</v>
       </c>
       <c r="X36" t="str">
-        <f>IF(X35=80,"", CONCATENATE("W",X35))</f>
+        <f t="shared" si="111"/>
         <v/>
       </c>
       <c r="Y36" t="str">
-        <f>IF(Y35=80,"", CONCATENATE("W",Y35))</f>
+        <f t="shared" si="111"/>
         <v/>
       </c>
       <c r="Z36" t="str">
-        <f>IF(Z35=80,"", CONCATENATE("W",Z35))</f>
+        <f t="shared" si="111"/>
         <v/>
       </c>
       <c r="AA36" t="str">
-        <f>IF(AA35=80,"", CONCATENATE("W",AA35))</f>
+        <f t="shared" si="111"/>
         <v/>
       </c>
       <c r="AB36" t="str">
-        <f>IF(AB35=80,"", CONCATENATE("W",AB35))</f>
+        <f t="shared" si="111"/>
         <v/>
       </c>
       <c r="AC36" t="str">
-        <f t="shared" ref="AC36" si="85">IF(AC35=80,"", CONCATENATE("W",AC35))</f>
+        <f t="shared" ref="AC36" si="112">IF(AC35=80,"", CONCATENATE("W",AC35))</f>
         <v/>
       </c>
       <c r="AD36" t="str">
-        <f>IF(AD35=80,"", CONCATENATE("W",AD35))</f>
+        <f t="shared" ref="AD36" si="113">IF(AD35=80,"", CONCATENATE("W",AD35))</f>
         <v/>
       </c>
       <c r="AE36" t="str">
@@ -6582,121 +6731,125 @@
         <f>IF(AF35=80,"", CONCATENATE("W",AF35))</f>
         <v/>
       </c>
-    </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG36" t="str">
+        <f>IF(AG35=80,"", CONCATENATE("W",AG35))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>282</v>
       </c>
       <c r="C37" t="str">
-        <f t="shared" ref="C37:V37" si="86">CONCATENATE("W",C35)</f>
+        <f t="shared" ref="C37:V37" si="114">CONCATENATE("W",C35)</f>
         <v>W80</v>
       </c>
       <c r="D37" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="114"/>
         <v>W80</v>
       </c>
       <c r="E37" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="114"/>
         <v>W80</v>
       </c>
       <c r="F37" t="str">
-        <f t="shared" ref="F37" si="87">CONCATENATE("W",F35)</f>
+        <f t="shared" ref="F37" si="115">CONCATENATE("W",F35)</f>
         <v>W80</v>
       </c>
       <c r="G37" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="114"/>
         <v>W80</v>
       </c>
       <c r="H37" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="114"/>
         <v>W80</v>
       </c>
       <c r="I37" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="114"/>
         <v>W80</v>
       </c>
       <c r="J37" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="114"/>
         <v>W80</v>
       </c>
       <c r="K37" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="114"/>
         <v>W80</v>
       </c>
       <c r="L37" t="str">
-        <f t="shared" ref="L37" si="88">CONCATENATE("W",L35)</f>
+        <f t="shared" ref="L37" si="116">CONCATENATE("W",L35)</f>
         <v>W80</v>
       </c>
       <c r="M37" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="114"/>
         <v>W80</v>
       </c>
       <c r="N37" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="114"/>
         <v>W80</v>
       </c>
       <c r="O37" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="114"/>
         <v>W80</v>
       </c>
       <c r="P37" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="114"/>
         <v>W80</v>
       </c>
       <c r="Q37" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="114"/>
         <v>W80</v>
       </c>
       <c r="R37" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="114"/>
         <v>W80</v>
       </c>
       <c r="S37" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="114"/>
         <v>W80</v>
       </c>
       <c r="T37" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="114"/>
         <v>W120</v>
       </c>
       <c r="U37" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="114"/>
         <v>W80</v>
       </c>
       <c r="V37" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="114"/>
         <v>W80</v>
       </c>
       <c r="W37" t="str">
-        <f>CONCATENATE("W",W35)</f>
+        <f t="shared" ref="W37:AB37" si="117">CONCATENATE("W",W35)</f>
         <v>W120</v>
       </c>
       <c r="X37" t="str">
-        <f>CONCATENATE("W",X35)</f>
+        <f t="shared" si="117"/>
         <v>W80</v>
       </c>
       <c r="Y37" t="str">
-        <f>CONCATENATE("W",Y35)</f>
+        <f t="shared" si="117"/>
         <v>W80</v>
       </c>
       <c r="Z37" t="str">
-        <f>CONCATENATE("W",Z35)</f>
+        <f t="shared" si="117"/>
         <v>W80</v>
       </c>
       <c r="AA37" t="str">
-        <f>CONCATENATE("W",AA35)</f>
+        <f t="shared" si="117"/>
         <v>W80</v>
       </c>
       <c r="AB37" t="str">
-        <f>CONCATENATE("W",AB35)</f>
+        <f t="shared" si="117"/>
         <v>W80</v>
       </c>
       <c r="AC37" t="str">
-        <f t="shared" ref="AC37" si="89">CONCATENATE("W",AC35)</f>
+        <f t="shared" ref="AC37" si="118">CONCATENATE("W",AC35)</f>
         <v>W80</v>
       </c>
       <c r="AD37" t="str">
-        <f>CONCATENATE("W",AD35)</f>
+        <f t="shared" ref="AD37" si="119">CONCATENATE("W",AD35)</f>
         <v>W80</v>
       </c>
       <c r="AE37" t="str">
@@ -6707,8 +6860,12 @@
         <f>CONCATENATE("W",AF35)</f>
         <v>W80</v>
       </c>
-    </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG37" t="str">
+        <f>CONCATENATE("W",AG35)</f>
+        <v>W80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A38" s="21" t="s">
         <v>283</v>
       </c>
@@ -6805,121 +6962,124 @@
       <c r="AF38" s="21" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG38" s="21" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>288</v>
       </c>
       <c r="C39" t="str">
-        <f t="shared" ref="C39:V39" si="90">IF(C38="0d", "", CONCATENATE("S",C38))</f>
+        <f t="shared" ref="C39:V39" si="120">IF(C38="0d", "", CONCATENATE("S",C38))</f>
         <v/>
       </c>
       <c r="D39" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="120"/>
         <v/>
       </c>
       <c r="E39" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="120"/>
         <v/>
       </c>
       <c r="F39" t="str">
-        <f t="shared" ref="F39" si="91">IF(F38="0d", "", CONCATENATE("S",F38))</f>
+        <f t="shared" ref="F39" si="121">IF(F38="0d", "", CONCATENATE("S",F38))</f>
         <v/>
       </c>
       <c r="G39" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="120"/>
         <v/>
       </c>
       <c r="H39" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="120"/>
         <v/>
       </c>
       <c r="I39" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="120"/>
         <v/>
       </c>
       <c r="J39" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="120"/>
         <v/>
       </c>
       <c r="K39" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="120"/>
         <v/>
       </c>
       <c r="L39" t="str">
-        <f t="shared" ref="L39" si="92">IF(L38="0d", "", CONCATENATE("S",L38))</f>
+        <f t="shared" ref="L39" si="122">IF(L38="0d", "", CONCATENATE("S",L38))</f>
         <v/>
       </c>
       <c r="M39" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="120"/>
         <v/>
       </c>
       <c r="N39" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="120"/>
         <v/>
       </c>
       <c r="O39" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="120"/>
         <v/>
       </c>
       <c r="P39" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="120"/>
         <v/>
       </c>
       <c r="Q39" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="120"/>
         <v/>
       </c>
       <c r="R39" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="120"/>
         <v/>
       </c>
       <c r="S39" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="120"/>
         <v/>
       </c>
       <c r="T39" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="120"/>
         <v/>
       </c>
       <c r="U39" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="120"/>
         <v>S1A</v>
       </c>
       <c r="V39" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="120"/>
         <v>S90d</v>
       </c>
       <c r="W39" t="str">
-        <f>IF(W38="0d", "", CONCATENATE("S",W38))</f>
+        <f t="shared" ref="W39:AB39" si="123">IF(W38="0d", "", CONCATENATE("S",W38))</f>
         <v>S1A</v>
       </c>
       <c r="X39" t="str">
-        <f>IF(X38="0d", "", CONCATENATE("S",X38))</f>
+        <f t="shared" si="123"/>
         <v/>
       </c>
       <c r="Y39" t="str">
-        <f>IF(Y38="0d", "", CONCATENATE("S",Y38))</f>
+        <f t="shared" si="123"/>
         <v/>
       </c>
       <c r="Z39" t="str">
-        <f>IF(Z38="0d", "", CONCATENATE("S",Z38))</f>
+        <f t="shared" si="123"/>
         <v/>
       </c>
       <c r="AA39" t="str">
-        <f>IF(AA38="0d", "", CONCATENATE("S",AA38))</f>
+        <f t="shared" si="123"/>
         <v/>
       </c>
       <c r="AB39" t="str">
-        <f>IF(AB38="0d", "", CONCATENATE("S",AB38))</f>
+        <f t="shared" si="123"/>
         <v/>
       </c>
       <c r="AC39" t="str">
-        <f t="shared" ref="AC39" si="93">IF(AC38="0d", "", CONCATENATE("S",AC38))</f>
+        <f t="shared" ref="AC39" si="124">IF(AC38="0d", "", CONCATENATE("S",AC38))</f>
         <v/>
       </c>
       <c r="AD39" t="str">
-        <f>IF(AD38="0d", "", CONCATENATE("S",AD38))</f>
+        <f t="shared" ref="AD39" si="125">IF(AD38="0d", "", CONCATENATE("S",AD38))</f>
         <v/>
       </c>
       <c r="AE39" t="str">
@@ -6930,121 +7090,125 @@
         <f>IF(AF38="0d", "", CONCATENATE("S",AF38))</f>
         <v/>
       </c>
-    </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG39" t="str">
+        <f>IF(AG38="0d", "", CONCATENATE("S",AG38))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>289</v>
       </c>
       <c r="C40" t="str">
-        <f t="shared" ref="C40:V40" si="94">CONCATENATE("S",C38)</f>
+        <f t="shared" ref="C40:V40" si="126">CONCATENATE("S",C38)</f>
         <v>S0d</v>
       </c>
       <c r="D40" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="126"/>
         <v>S0d</v>
       </c>
       <c r="E40" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="126"/>
         <v>S0d</v>
       </c>
       <c r="F40" t="str">
-        <f t="shared" ref="F40" si="95">CONCATENATE("S",F38)</f>
+        <f t="shared" ref="F40" si="127">CONCATENATE("S",F38)</f>
         <v>S0d</v>
       </c>
       <c r="G40" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="126"/>
         <v>S0d</v>
       </c>
       <c r="H40" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="126"/>
         <v>S0d</v>
       </c>
       <c r="I40" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="126"/>
         <v>S0d</v>
       </c>
       <c r="J40" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="126"/>
         <v>S0d</v>
       </c>
       <c r="K40" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="126"/>
         <v>S0d</v>
       </c>
       <c r="L40" t="str">
-        <f t="shared" ref="L40" si="96">CONCATENATE("S",L38)</f>
+        <f t="shared" ref="L40" si="128">CONCATENATE("S",L38)</f>
         <v>S0d</v>
       </c>
       <c r="M40" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="126"/>
         <v>S0d</v>
       </c>
       <c r="N40" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="126"/>
         <v>S0d</v>
       </c>
       <c r="O40" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="126"/>
         <v>S0d</v>
       </c>
       <c r="P40" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="126"/>
         <v>S0d</v>
       </c>
       <c r="Q40" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="126"/>
         <v>S0d</v>
       </c>
       <c r="R40" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="126"/>
         <v>S0d</v>
       </c>
       <c r="S40" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="126"/>
         <v>S0d</v>
       </c>
       <c r="T40" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="126"/>
         <v>S0d</v>
       </c>
       <c r="U40" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="126"/>
         <v>S1A</v>
       </c>
       <c r="V40" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="126"/>
         <v>S90d</v>
       </c>
       <c r="W40" t="str">
-        <f>CONCATENATE("S",W38)</f>
+        <f t="shared" ref="W40:AB40" si="129">CONCATENATE("S",W38)</f>
         <v>S1A</v>
       </c>
       <c r="X40" t="str">
-        <f>CONCATENATE("S",X38)</f>
+        <f t="shared" si="129"/>
         <v>S0d</v>
       </c>
       <c r="Y40" t="str">
-        <f>CONCATENATE("S",Y38)</f>
+        <f t="shared" si="129"/>
         <v>S0d</v>
       </c>
       <c r="Z40" t="str">
-        <f>CONCATENATE("S",Z38)</f>
+        <f t="shared" si="129"/>
         <v>S0d</v>
       </c>
       <c r="AA40" t="str">
-        <f>CONCATENATE("S",AA38)</f>
+        <f t="shared" si="129"/>
         <v>S0d</v>
       </c>
       <c r="AB40" t="str">
-        <f>CONCATENATE("S",AB38)</f>
+        <f t="shared" si="129"/>
         <v>S0d</v>
       </c>
       <c r="AC40" t="str">
-        <f t="shared" ref="AC40" si="97">CONCATENATE("S",AC38)</f>
+        <f t="shared" ref="AC40" si="130">CONCATENATE("S",AC38)</f>
         <v>S0d</v>
       </c>
       <c r="AD40" t="str">
-        <f>CONCATENATE("S",AD38)</f>
+        <f t="shared" ref="AD40" si="131">CONCATENATE("S",AD38)</f>
         <v>S0d</v>
       </c>
       <c r="AE40" t="str">
@@ -7055,8 +7219,12 @@
         <f>CONCATENATE("S",AF38)</f>
         <v>S0d</v>
       </c>
-    </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG40" t="str">
+        <f>CONCATENATE("S",AG38)</f>
+        <v>S0d</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A41" s="21" t="s">
         <v>290</v>
       </c>
@@ -7151,121 +7319,124 @@
       <c r="AF41" s="21">
         <v>2014</v>
       </c>
-    </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG41" s="21">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>291</v>
       </c>
       <c r="C42" t="str">
-        <f t="shared" ref="C42:V42" si="98">IF(C41=2014,"",CONCATENATE("L",C41))</f>
+        <f t="shared" ref="C42:V42" si="132">IF(C41=2014,"",CONCATENATE("L",C41))</f>
         <v/>
       </c>
       <c r="D42" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="132"/>
         <v/>
       </c>
       <c r="E42" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="132"/>
         <v/>
       </c>
       <c r="F42" t="str">
-        <f t="shared" ref="F42" si="99">IF(F41=2014,"",CONCATENATE("L",F41))</f>
+        <f t="shared" ref="F42" si="133">IF(F41=2014,"",CONCATENATE("L",F41))</f>
         <v/>
       </c>
       <c r="G42" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="132"/>
         <v/>
       </c>
       <c r="H42" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="132"/>
         <v/>
       </c>
       <c r="I42" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="132"/>
         <v/>
       </c>
       <c r="J42" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="132"/>
         <v/>
       </c>
       <c r="K42" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="132"/>
         <v/>
       </c>
       <c r="L42" t="str">
-        <f t="shared" ref="L42" si="100">IF(L41=2014,"",CONCATENATE("L",L41))</f>
+        <f t="shared" ref="L42" si="134">IF(L41=2014,"",CONCATENATE("L",L41))</f>
         <v/>
       </c>
       <c r="M42" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="132"/>
         <v/>
       </c>
       <c r="N42" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="132"/>
         <v/>
       </c>
       <c r="O42" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="132"/>
         <v/>
       </c>
       <c r="P42" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="132"/>
         <v/>
       </c>
       <c r="Q42" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="132"/>
         <v/>
       </c>
       <c r="R42" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="132"/>
         <v/>
       </c>
       <c r="S42" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="132"/>
         <v/>
       </c>
       <c r="T42" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="132"/>
         <v/>
       </c>
       <c r="U42" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="132"/>
         <v/>
       </c>
       <c r="V42" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="132"/>
         <v/>
       </c>
       <c r="W42" t="str">
-        <f>IF(W41=2014,"",CONCATENATE("L",W41))</f>
+        <f t="shared" ref="W42:AB42" si="135">IF(W41=2014,"",CONCATENATE("L",W41))</f>
         <v/>
       </c>
       <c r="X42" t="str">
-        <f>IF(X41=2014,"",CONCATENATE("L",X41))</f>
+        <f t="shared" si="135"/>
         <v/>
       </c>
       <c r="Y42" t="str">
-        <f>IF(Y41=2014,"",CONCATENATE("L",Y41))</f>
+        <f t="shared" si="135"/>
         <v/>
       </c>
       <c r="Z42" t="str">
-        <f>IF(Z41=2014,"",CONCATENATE("L",Z41))</f>
+        <f t="shared" si="135"/>
         <v/>
       </c>
       <c r="AA42" t="str">
-        <f>IF(AA41=2014,"",CONCATENATE("L",AA41))</f>
+        <f t="shared" si="135"/>
         <v/>
       </c>
       <c r="AB42" t="str">
-        <f>IF(AB41=2014,"",CONCATENATE("L",AB41))</f>
+        <f t="shared" si="135"/>
         <v/>
       </c>
       <c r="AC42" t="str">
-        <f t="shared" ref="AC42" si="101">IF(AC41=2014,"",CONCATENATE("L",AC41))</f>
+        <f t="shared" ref="AC42" si="136">IF(AC41=2014,"",CONCATENATE("L",AC41))</f>
         <v/>
       </c>
       <c r="AD42" t="str">
-        <f>IF(AD41=2014,"",CONCATENATE("L",AD41))</f>
+        <f t="shared" ref="AD42" si="137">IF(AD41=2014,"",CONCATENATE("L",AD41))</f>
         <v/>
       </c>
       <c r="AE42" t="str">
@@ -7276,8 +7447,12 @@
         <f>IF(AF41=2014,"",CONCATENATE("L",AF41))</f>
         <v/>
       </c>
-    </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG42" t="str">
+        <f>IF(AG41=2014,"",CONCATENATE("L",AG41))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A43" s="21" t="s">
         <v>292</v>
       </c>
@@ -7366,141 +7541,148 @@
         <v>294</v>
       </c>
       <c r="AD43" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="AE43" s="21" t="s">
         <v>465</v>
       </c>
-      <c r="AE43" s="21" t="s">
+      <c r="AF43" s="21" t="s">
         <v>468</v>
       </c>
-      <c r="AF43" s="21" t="s">
+      <c r="AG43" s="21" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>295</v>
       </c>
       <c r="C44" t="str">
-        <f t="shared" ref="C44:V44" si="102">IF(C43="none","",CONCATENATE("L",C43))</f>
+        <f t="shared" ref="C44:V44" si="138">IF(C43="none","",CONCATENATE("L",C43))</f>
         <v/>
       </c>
       <c r="D44" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="138"/>
         <v/>
       </c>
       <c r="E44" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="138"/>
         <v/>
       </c>
       <c r="F44" t="str">
-        <f t="shared" ref="F44" si="103">IF(F43="none","",CONCATENATE("L",F43))</f>
+        <f t="shared" ref="F44" si="139">IF(F43="none","",CONCATENATE("L",F43))</f>
         <v/>
       </c>
       <c r="G44" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="138"/>
         <v/>
       </c>
       <c r="H44" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="138"/>
         <v/>
       </c>
       <c r="I44" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="138"/>
         <v/>
       </c>
       <c r="J44" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="138"/>
         <v/>
       </c>
       <c r="K44" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="138"/>
         <v/>
       </c>
       <c r="L44" t="str">
-        <f t="shared" ref="L44" si="104">IF(L43="none","",CONCATENATE("L",L43))</f>
+        <f t="shared" ref="L44" si="140">IF(L43="none","",CONCATENATE("L",L43))</f>
         <v/>
       </c>
       <c r="M44" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="138"/>
         <v/>
       </c>
       <c r="N44" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="138"/>
         <v/>
       </c>
       <c r="O44" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="138"/>
         <v/>
       </c>
       <c r="P44" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="138"/>
         <v/>
       </c>
       <c r="Q44" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="138"/>
         <v/>
       </c>
       <c r="R44" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="138"/>
         <v/>
       </c>
       <c r="S44" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="138"/>
         <v/>
       </c>
       <c r="T44" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="138"/>
         <v/>
       </c>
       <c r="U44" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="138"/>
         <v/>
       </c>
       <c r="V44" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="138"/>
         <v/>
       </c>
       <c r="W44" t="str">
-        <f>IF(W43="none","",CONCATENATE("L",W43))</f>
+        <f t="shared" ref="W44:AB44" si="141">IF(W43="none","",CONCATENATE("L",W43))</f>
         <v/>
       </c>
       <c r="X44" t="str">
-        <f>IF(X43="none","",CONCATENATE("L",X43))</f>
+        <f t="shared" si="141"/>
         <v/>
       </c>
       <c r="Y44" t="str">
-        <f>IF(Y43="none","",CONCATENATE("L",Y43))</f>
+        <f t="shared" si="141"/>
         <v/>
       </c>
       <c r="Z44" t="str">
-        <f>IF(Z43="none","",CONCATENATE("L",Z43))</f>
+        <f t="shared" si="141"/>
         <v/>
       </c>
       <c r="AA44" t="str">
-        <f>IF(AA43="none","",CONCATENATE("L",AA43))</f>
+        <f t="shared" si="141"/>
         <v/>
       </c>
       <c r="AB44" t="str">
-        <f>IF(AB43="none","",CONCATENATE("L",AB43))</f>
+        <f t="shared" si="141"/>
         <v/>
       </c>
       <c r="AC44" t="str">
-        <f t="shared" ref="AC44" si="105">IF(AC43="none","",CONCATENATE("L",AC43))</f>
+        <f t="shared" ref="AC44" si="142">IF(AC43="none","",CONCATENATE("L",AC43))</f>
         <v/>
       </c>
       <c r="AD44" t="str">
-        <f>IF(AD43="none","",CONCATENATE("L",AD43))</f>
-        <v>Lmod_D0_M0_energyOnly</v>
+        <f t="shared" ref="AD44" si="143">IF(AD43="none","",CONCATENATE("L",AD43))</f>
+        <v/>
       </c>
       <c r="AE44" t="str">
         <f>IF(AE43="none","",CONCATENATE("L",AE43))</f>
-        <v>Lmod_D50_M0_energyOnly</v>
+        <v>Lmod_D0_M0_energyOnly</v>
       </c>
       <c r="AF44" t="str">
         <f>IF(AF43="none","",CONCATENATE("L",AF43))</f>
+        <v>Lmod_D50_M0_energyOnly</v>
+      </c>
+      <c r="AG44" t="str">
+        <f>IF(AG43="none","",CONCATENATE("L",AG43))</f>
         <v>Lmod_D25_M25_energyOnly</v>
       </c>
     </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A45" s="21" t="s">
         <v>296</v>
       </c>
@@ -7597,8 +7779,11 @@
       <c r="AF45" s="21" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG45" s="21" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>299</v>
       </c>
@@ -7692,121 +7877,124 @@
       <c r="AF46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>300</v>
       </c>
       <c r="C47" t="str">
-        <f t="shared" ref="C47:V47" si="106">IF(C45="RT","",CONCATENATE(C45,C46))</f>
+        <f t="shared" ref="C47:V47" si="144">IF(C45="RT","",CONCATENATE(C45,C46))</f>
         <v/>
       </c>
       <c r="D47" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="144"/>
         <v/>
       </c>
       <c r="E47" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="144"/>
         <v/>
       </c>
       <c r="F47" t="str">
-        <f t="shared" ref="F47" si="107">IF(F45="RT","",CONCATENATE(F45,F46))</f>
+        <f t="shared" ref="F47" si="145">IF(F45="RT","",CONCATENATE(F45,F46))</f>
         <v/>
       </c>
       <c r="G47" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="144"/>
         <v/>
       </c>
       <c r="H47" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="144"/>
         <v/>
       </c>
       <c r="I47" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="144"/>
         <v/>
       </c>
       <c r="J47" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="144"/>
         <v/>
       </c>
       <c r="K47" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="144"/>
         <v/>
       </c>
       <c r="L47" t="str">
-        <f t="shared" ref="L47" si="108">IF(L45="RT","",CONCATENATE(L45,L46))</f>
+        <f t="shared" ref="L47" si="146">IF(L45="RT","",CONCATENATE(L45,L46))</f>
         <v/>
       </c>
       <c r="M47" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="144"/>
         <v/>
       </c>
       <c r="N47" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="144"/>
         <v/>
       </c>
       <c r="O47" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="144"/>
         <v/>
       </c>
       <c r="P47" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="144"/>
         <v/>
       </c>
       <c r="Q47" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="144"/>
         <v/>
       </c>
       <c r="R47" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="144"/>
         <v/>
       </c>
       <c r="S47" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="144"/>
         <v/>
       </c>
       <c r="T47" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="144"/>
         <v/>
       </c>
       <c r="U47" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="144"/>
         <v/>
       </c>
       <c r="V47" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="144"/>
         <v/>
       </c>
       <c r="W47" t="str">
-        <f>IF(W45="RT","",CONCATENATE(W45,W46))</f>
+        <f t="shared" ref="W47:AB47" si="147">IF(W45="RT","",CONCATENATE(W45,W46))</f>
         <v/>
       </c>
       <c r="X47" t="str">
-        <f>IF(X45="RT","",CONCATENATE(X45,X46))</f>
+        <f t="shared" si="147"/>
         <v/>
       </c>
       <c r="Y47" t="str">
-        <f>IF(Y45="RT","",CONCATENATE(Y45,Y46))</f>
+        <f t="shared" si="147"/>
         <v/>
       </c>
       <c r="Z47" t="str">
-        <f>IF(Z45="RT","",CONCATENATE(Z45,Z46))</f>
+        <f t="shared" si="147"/>
         <v/>
       </c>
       <c r="AA47" t="str">
-        <f>IF(AA45="RT","",CONCATENATE(AA45,AA46))</f>
+        <f t="shared" si="147"/>
         <v/>
       </c>
       <c r="AB47" t="str">
-        <f>IF(AB45="RT","",CONCATENATE(AB45,AB46))</f>
+        <f t="shared" si="147"/>
         <v/>
       </c>
       <c r="AC47" t="str">
-        <f t="shared" ref="AC47" si="109">IF(AC45="RT","",CONCATENATE(AC45,AC46))</f>
+        <f t="shared" ref="AC47" si="148">IF(AC45="RT","",CONCATENATE(AC45,AC46))</f>
         <v/>
       </c>
       <c r="AD47" t="str">
-        <f>IF(AD45="RT","",CONCATENATE(AD45,AD46))</f>
+        <f t="shared" ref="AD47" si="149">IF(AD45="RT","",CONCATENATE(AD45,AD46))</f>
         <v/>
       </c>
       <c r="AE47" t="str">
@@ -7815,6 +8003,10 @@
       </c>
       <c r="AF47" t="str">
         <f>IF(AF45="RT","",CONCATENATE(AF45,AF46))</f>
+        <v/>
+      </c>
+      <c r="AG47" t="str">
+        <f>IF(AG45="RT","",CONCATENATE(AG45,AG46))</f>
         <v/>
       </c>
     </row>
@@ -7826,6 +8018,633 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I72"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.33203125" customWidth="1"/>
+    <col min="7" max="7" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5" customWidth="1"/>
+    <col min="9" max="9" width="32.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>395</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>200</v>
+      </c>
+      <c r="C6" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>200</v>
+      </c>
+      <c r="C7" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>200</v>
+      </c>
+      <c r="C8" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>200</v>
+      </c>
+      <c r="C9" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>200</v>
+      </c>
+      <c r="C10" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>300</v>
+      </c>
+      <c r="C11" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>300</v>
+      </c>
+      <c r="C12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>300</v>
+      </c>
+      <c r="C13" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>300</v>
+      </c>
+      <c r="C14" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>300</v>
+      </c>
+      <c r="C15" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>400</v>
+      </c>
+      <c r="C16" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>400</v>
+      </c>
+      <c r="C17" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>400</v>
+      </c>
+      <c r="C18" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>400</v>
+      </c>
+      <c r="C19" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>400</v>
+      </c>
+      <c r="C20" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>387</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D24" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="G24" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D25" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="G25" t="s">
+        <v>382</v>
+      </c>
+      <c r="H25" t="s">
+        <v>436</v>
+      </c>
+      <c r="I25" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E26" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="G26" t="s">
+        <v>380</v>
+      </c>
+      <c r="H26" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F27" t="s">
+        <v>379</v>
+      </c>
+      <c r="G27" t="s">
+        <v>378</v>
+      </c>
+      <c r="H27" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F28" t="s">
+        <v>377</v>
+      </c>
+      <c r="G28" t="s">
+        <v>376</v>
+      </c>
+      <c r="H28" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F29" t="s">
+        <v>375</v>
+      </c>
+      <c r="G29" t="s">
+        <v>374</v>
+      </c>
+      <c r="H29" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F30" t="s">
+        <v>373</v>
+      </c>
+      <c r="G30" t="s">
+        <v>372</v>
+      </c>
+      <c r="H30" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D31" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="G31" t="s">
+        <v>369</v>
+      </c>
+      <c r="H31" t="s">
+        <v>352</v>
+      </c>
+      <c r="I31" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D32" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="G32" t="s">
+        <v>366</v>
+      </c>
+      <c r="H32" t="s">
+        <v>352</v>
+      </c>
+      <c r="I32" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="33" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D33" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="G33" t="s">
+        <v>363</v>
+      </c>
+      <c r="I33" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="34" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D34" s="22" t="s">
+        <v>361</v>
+      </c>
+      <c r="G34" t="s">
+        <v>360</v>
+      </c>
+      <c r="H34" t="s">
+        <v>352</v>
+      </c>
+      <c r="I34" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="35" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D35" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="G35" t="s">
+        <v>358</v>
+      </c>
+      <c r="H35" t="s">
+        <v>352</v>
+      </c>
+      <c r="I35" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="36" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D36" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="G36" t="s">
+        <v>355</v>
+      </c>
+      <c r="H36" t="s">
+        <v>352</v>
+      </c>
+      <c r="I36" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="37" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D37" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="G37" t="s">
+        <v>353</v>
+      </c>
+      <c r="H37" t="s">
+        <v>352</v>
+      </c>
+      <c r="I37" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="38" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D38" t="s">
+        <v>350</v>
+      </c>
+      <c r="I38" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="39" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D39" t="s">
+        <v>349</v>
+      </c>
+      <c r="I39" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="40" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D40" t="s">
+        <v>347</v>
+      </c>
+      <c r="F40" t="s">
+        <v>346</v>
+      </c>
+      <c r="I40" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="41" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D41" t="s">
+        <v>345</v>
+      </c>
+      <c r="F41" t="s">
+        <v>344</v>
+      </c>
+      <c r="I41" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="42" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D42" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="G42" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="43" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D43" t="s">
+        <v>340</v>
+      </c>
+      <c r="I43" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="44" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D44" t="s">
+        <v>339</v>
+      </c>
+      <c r="I44" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="45" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D45" t="s">
+        <v>337</v>
+      </c>
+      <c r="G45" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="46" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D46" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="G46" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="47" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D47" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G47" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="48" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D48" t="s">
+        <v>332</v>
+      </c>
+      <c r="G48" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="49" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D49" t="s">
+        <v>330</v>
+      </c>
+      <c r="G49" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="54" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D54" t="s">
+        <v>329</v>
+      </c>
+      <c r="E54" t="s">
+        <v>328</v>
+      </c>
+      <c r="F54" t="s">
+        <v>311</v>
+      </c>
+      <c r="G54" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="55" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D55" t="s">
+        <v>322</v>
+      </c>
+      <c r="E55" t="s">
+        <v>315</v>
+      </c>
+      <c r="F55" t="s">
+        <v>313</v>
+      </c>
+      <c r="G55" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="56" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D56" t="s">
+        <v>320</v>
+      </c>
+      <c r="E56" t="s">
+        <v>314</v>
+      </c>
+      <c r="G56" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="57" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D57" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="58" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D58" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="59" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D59" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="60" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D60" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="63" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D63" t="s">
+        <v>326</v>
+      </c>
+      <c r="E63" t="s">
+        <v>325</v>
+      </c>
+      <c r="F63" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="64" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D64" t="s">
+        <v>323</v>
+      </c>
+      <c r="E64" t="s">
+        <v>322</v>
+      </c>
+      <c r="F64" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="65" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D65" t="s">
+        <v>321</v>
+      </c>
+      <c r="E65" t="s">
+        <v>320</v>
+      </c>
+      <c r="F65" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="66" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D66" t="s">
+        <v>316</v>
+      </c>
+      <c r="E66" t="s">
+        <v>319</v>
+      </c>
+      <c r="F66" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="67" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E67" t="s">
+        <v>318</v>
+      </c>
+      <c r="F67" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="68" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E68" t="s">
+        <v>317</v>
+      </c>
+      <c r="F68" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="69" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E69" t="s">
+        <v>316</v>
+      </c>
+      <c r="F69" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="70" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E70" t="s">
+        <v>315</v>
+      </c>
+      <c r="F70" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="71" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E71" t="s">
+        <v>314</v>
+      </c>
+      <c r="F71" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="72" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F72" t="s">
+        <v>313</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
@@ -15218,627 +16037,155 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I72"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.33203125" customWidth="1"/>
-    <col min="7" max="7" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5" customWidth="1"/>
-    <col min="9" max="9" width="32.83203125" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C3">
+        <v>70</v>
+      </c>
+      <c r="D3" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>395</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
+        <v>486</v>
+      </c>
+      <c r="B5" t="s">
+        <v>487</v>
       </c>
       <c r="C5" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>210</v>
+      </c>
       <c r="B6">
-        <v>200</v>
-      </c>
-      <c r="C6" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4500000</v>
+      </c>
+      <c r="C6" s="5">
+        <f>B6/$C$3</f>
+        <v>64285.714285714283</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>250</v>
+      </c>
       <c r="B7">
-        <v>200</v>
-      </c>
-      <c r="C7" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4500000</v>
+      </c>
+      <c r="C7" s="5">
+        <f t="shared" ref="C7:C14" si="0">B7/$C$3</f>
+        <v>64285.714285714283</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>300</v>
+      </c>
       <c r="B8">
-        <v>200</v>
-      </c>
-      <c r="C8" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4350000</v>
+      </c>
+      <c r="C8" s="5">
+        <f t="shared" si="0"/>
+        <v>62142.857142857145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>500</v>
+      </c>
       <c r="B9">
-        <v>200</v>
-      </c>
-      <c r="C9" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4050000</v>
+      </c>
+      <c r="C9" s="5">
+        <f t="shared" si="0"/>
+        <v>57857.142857142855</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>525</v>
+      </c>
       <c r="B10">
-        <v>200</v>
-      </c>
-      <c r="C10" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4050000</v>
+      </c>
+      <c r="C10" s="5">
+        <f t="shared" si="0"/>
+        <v>57857.142857142855</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>600</v>
+      </c>
       <c r="B11">
-        <v>300</v>
-      </c>
-      <c r="C11" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+        <v>3700000</v>
+      </c>
+      <c r="C11" s="5">
+        <f t="shared" si="0"/>
+        <v>52857.142857142855</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>660</v>
+      </c>
       <c r="B12">
-        <v>300</v>
-      </c>
-      <c r="C12" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+        <v>3700000</v>
+      </c>
+      <c r="C12" s="5">
+        <f t="shared" si="0"/>
+        <v>52857.142857142855</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>800</v>
+      </c>
       <c r="B13">
-        <v>300</v>
-      </c>
-      <c r="C13" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+        <v>3000000</v>
+      </c>
+      <c r="C13" s="5">
+        <f t="shared" si="0"/>
+        <v>42857.142857142855</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>830</v>
+      </c>
       <c r="B14">
-        <v>300</v>
-      </c>
-      <c r="C14" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B15">
-        <v>300</v>
-      </c>
-      <c r="C15" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B16">
-        <v>400</v>
-      </c>
-      <c r="C16" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B17">
-        <v>400</v>
-      </c>
-      <c r="C17" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B18">
-        <v>400</v>
-      </c>
-      <c r="C18" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B19">
-        <v>400</v>
-      </c>
-      <c r="C19" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B20">
-        <v>400</v>
-      </c>
-      <c r="C20" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>387</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D24" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="G24" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D25" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="G25" t="s">
-        <v>382</v>
-      </c>
-      <c r="H25" t="s">
-        <v>436</v>
-      </c>
-      <c r="I25" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E26" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="G26" t="s">
-        <v>380</v>
-      </c>
-      <c r="H26" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F27" t="s">
-        <v>379</v>
-      </c>
-      <c r="G27" t="s">
-        <v>378</v>
-      </c>
-      <c r="H27" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F28" t="s">
-        <v>377</v>
-      </c>
-      <c r="G28" t="s">
-        <v>376</v>
-      </c>
-      <c r="H28" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F29" t="s">
-        <v>375</v>
-      </c>
-      <c r="G29" t="s">
-        <v>374</v>
-      </c>
-      <c r="H29" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F30" t="s">
-        <v>373</v>
-      </c>
-      <c r="G30" t="s">
-        <v>372</v>
-      </c>
-      <c r="H30" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D31" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="G31" t="s">
-        <v>369</v>
-      </c>
-      <c r="H31" t="s">
-        <v>352</v>
-      </c>
-      <c r="I31" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D32" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="G32" t="s">
-        <v>366</v>
-      </c>
-      <c r="H32" t="s">
-        <v>352</v>
-      </c>
-      <c r="I32" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="33" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D33" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="G33" t="s">
-        <v>363</v>
-      </c>
-      <c r="I33" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="34" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D34" s="22" t="s">
-        <v>361</v>
-      </c>
-      <c r="G34" t="s">
-        <v>360</v>
-      </c>
-      <c r="H34" t="s">
-        <v>352</v>
-      </c>
-      <c r="I34" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="35" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D35" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="G35" t="s">
-        <v>358</v>
-      </c>
-      <c r="H35" t="s">
-        <v>352</v>
-      </c>
-      <c r="I35" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="36" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D36" s="22" t="s">
-        <v>356</v>
-      </c>
-      <c r="G36" t="s">
-        <v>355</v>
-      </c>
-      <c r="H36" t="s">
-        <v>352</v>
-      </c>
-      <c r="I36" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="37" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D37" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="G37" t="s">
-        <v>353</v>
-      </c>
-      <c r="H37" t="s">
-        <v>352</v>
-      </c>
-      <c r="I37" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="38" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D38" t="s">
-        <v>350</v>
-      </c>
-      <c r="I38" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="39" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D39" t="s">
-        <v>349</v>
-      </c>
-      <c r="I39" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="40" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D40" t="s">
-        <v>347</v>
-      </c>
-      <c r="F40" t="s">
-        <v>346</v>
-      </c>
-      <c r="I40" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="41" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D41" t="s">
-        <v>345</v>
-      </c>
-      <c r="F41" t="s">
-        <v>344</v>
-      </c>
-      <c r="I41" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="42" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D42" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="G42" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="43" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D43" t="s">
-        <v>340</v>
-      </c>
-      <c r="I43" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="44" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D44" t="s">
-        <v>339</v>
-      </c>
-      <c r="I44" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="45" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D45" t="s">
-        <v>337</v>
-      </c>
-      <c r="G45" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="46" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D46" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="G46" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="47" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D47" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="G47" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="48" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D48" t="s">
-        <v>332</v>
-      </c>
-      <c r="G48" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="49" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D49" t="s">
-        <v>330</v>
-      </c>
-      <c r="G49" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="54" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D54" t="s">
-        <v>329</v>
-      </c>
-      <c r="E54" t="s">
-        <v>328</v>
-      </c>
-      <c r="F54" t="s">
-        <v>311</v>
-      </c>
-      <c r="G54" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="55" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D55" t="s">
-        <v>322</v>
-      </c>
-      <c r="E55" t="s">
-        <v>315</v>
-      </c>
-      <c r="F55" t="s">
-        <v>313</v>
-      </c>
-      <c r="G55" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="56" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D56" t="s">
-        <v>320</v>
-      </c>
-      <c r="E56" t="s">
-        <v>314</v>
-      </c>
-      <c r="G56" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="57" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D57" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="58" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D58" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="59" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D59" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="60" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D60" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="63" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D63" t="s">
-        <v>326</v>
-      </c>
-      <c r="E63" t="s">
-        <v>325</v>
-      </c>
-      <c r="F63" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="64" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D64" t="s">
-        <v>323</v>
-      </c>
-      <c r="E64" t="s">
-        <v>322</v>
-      </c>
-      <c r="F64" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="65" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D65" t="s">
-        <v>321</v>
-      </c>
-      <c r="E65" t="s">
-        <v>320</v>
-      </c>
-      <c r="F65" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="66" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D66" t="s">
-        <v>316</v>
-      </c>
-      <c r="E66" t="s">
-        <v>319</v>
-      </c>
-      <c r="F66" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="67" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E67" t="s">
-        <v>318</v>
-      </c>
-      <c r="F67" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="68" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E68" t="s">
-        <v>317</v>
-      </c>
-      <c r="F68" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="69" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E69" t="s">
-        <v>316</v>
-      </c>
-      <c r="F69" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="70" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E70" t="s">
-        <v>315</v>
-      </c>
-      <c r="F70" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="71" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E71" t="s">
-        <v>314</v>
-      </c>
-      <c r="F71" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="72" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="F72" t="s">
-        <v>313</v>
+        <v>3000000</v>
+      </c>
+      <c r="C14" s="5">
+        <f t="shared" si="0"/>
+        <v>42857.142857142855</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/india_REV_input/Scenarios_Cost_Master_v5.xlsx
+++ b/india_REV_input/Scenarios_Cost_Master_v5.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ranjitster/Dropbox/renewable_energy_value/renewable_energy_value/india_REV_input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akjohnson\Desktop\Ranjit\renewable_energy_value\india_REV_input\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17535" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="REvalue_input_csv" sheetId="11" r:id="rId1"/>
@@ -24,16 +24,13 @@
     <sheet name="scenarios" sheetId="13" r:id="rId10"/>
     <sheet name="run_times" sheetId="12" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -46,7 +43,7 @@
     <author>Ranjit Deshmukh</author>
   </authors>
   <commentList>
-    <comment ref="A4" authorId="0">
+    <comment ref="A4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -70,7 +67,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D6" authorId="1">
+    <comment ref="D6" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -106,7 +103,7 @@
     <author>Ranjit</author>
   </authors>
   <commentList>
-    <comment ref="AC5" authorId="0">
+    <comment ref="AC5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -131,7 +128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B6" authorId="1">
+    <comment ref="B6" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -156,7 +153,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A8" authorId="1">
+    <comment ref="A8" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -180,7 +177,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B16" authorId="1">
+    <comment ref="B16" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -205,7 +202,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B18" authorId="1">
+    <comment ref="B18" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -229,7 +226,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D34" authorId="1">
+    <comment ref="D34" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -254,7 +251,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B37" authorId="1">
+    <comment ref="B37" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -278,7 +275,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D37" authorId="1">
+    <comment ref="D37" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -312,7 +309,7 @@
     <author>Ranjit</author>
   </authors>
   <commentList>
-    <comment ref="B22" authorId="0">
+    <comment ref="B22" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -337,7 +334,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C22" authorId="0">
+    <comment ref="C22" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -361,7 +358,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D22" authorId="0">
+    <comment ref="D22" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -386,7 +383,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E22" authorId="0">
+    <comment ref="E22" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -411,7 +408,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E34" authorId="0">
+    <comment ref="E34" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -435,7 +432,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B61" authorId="0">
+    <comment ref="B61" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -464,7 +461,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="491">
   <si>
     <t>Screening curves</t>
   </si>
@@ -2449,39 +2446,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
       <selection pane="bottomRight" activeCell="AC10" sqref="AC10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="16" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="16" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="19" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="26" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="25" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="27.83203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="34.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>225</v>
       </c>
@@ -2582,7 +2579,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>243</v>
       </c>
@@ -2714,7 +2711,7 @@
         <v>ClcC70mLmod_D25_M25_energyOnly</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>245</v>
       </c>
@@ -2843,7 +2840,7 @@
         <v>ClcC70mLmod_D25_M25_energyOnly</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>413</v>
       </c>
@@ -2972,7 +2969,7 @@
         <v>ClcC70mLmod_D25_M25_energyOnly</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>246</v>
       </c>
@@ -3101,7 +3098,7 @@
         <v>coallcLmod_D25_M25_energyOnly</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>247</v>
       </c>
@@ -3230,7 +3227,7 @@
         <v>coallcLmod_D25_M25_energyOnly</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>248</v>
       </c>
@@ -3359,7 +3356,7 @@
         <v>W80_S0d</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>249</v>
       </c>
@@ -3488,7 +3485,7 @@
         <v>coallc</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>250</v>
       </c>
@@ -3589,7 +3586,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>254</v>
       </c>
@@ -3718,7 +3715,7 @@
         <v>Clc</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>255</v>
       </c>
@@ -3847,7 +3844,7 @@
         <v>coallc</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
         <v>256</v>
       </c>
@@ -3948,7 +3945,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>258</v>
       </c>
@@ -4077,7 +4074,7 @@
         <v>C70m</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>474</v>
       </c>
@@ -4178,7 +4175,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>475</v>
       </c>
@@ -4307,7 +4304,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
         <v>259</v>
       </c>
@@ -4408,7 +4405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>261</v>
       </c>
@@ -4537,7 +4534,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
         <v>262</v>
       </c>
@@ -4638,7 +4635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>264</v>
       </c>
@@ -4767,7 +4764,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>265</v>
       </c>
@@ -4868,7 +4865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>267</v>
       </c>
@@ -4997,7 +4994,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>268</v>
       </c>
@@ -5126,7 +5123,7 @@
         <v>bat0</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" s="21" t="s">
         <v>415</v>
       </c>
@@ -5227,7 +5224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>416</v>
       </c>
@@ -5328,7 +5325,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>417</v>
       </c>
@@ -5417,31 +5414,31 @@
         <v/>
       </c>
       <c r="X25" t="str">
-        <f>IF(X23=0,"",CONCATENATE("B",X23,LEFT(X24,1),"c"))</f>
+        <f t="shared" ref="X25:AC25" si="80">IF(X23=0,"",CONCATENATE("B",X23,LEFT(X24,1),"c"))</f>
         <v>B25lc</v>
       </c>
       <c r="Y25" t="str">
-        <f>IF(Y23=0,"",CONCATENATE("B",Y23,LEFT(Y24,1),"c"))</f>
+        <f t="shared" si="80"/>
         <v>B50lc</v>
       </c>
       <c r="Z25" t="str">
-        <f>IF(Z23=0,"",CONCATENATE("B",Z23,LEFT(Z24,1),"c"))</f>
+        <f t="shared" si="80"/>
         <v>B25lc</v>
       </c>
       <c r="AA25" t="str">
-        <f>IF(AA23=0,"",CONCATENATE("B",AA23,LEFT(AA24,1),"c"))</f>
+        <f t="shared" si="80"/>
         <v>B50lc</v>
       </c>
       <c r="AB25" t="str">
-        <f>IF(AB23=0,"",CONCATENATE("B",AB23,LEFT(AB24,1),"c"))</f>
+        <f t="shared" si="80"/>
         <v>B50lc</v>
       </c>
       <c r="AC25" t="str">
-        <f>IF(AC23=0,"",CONCATENATE("B",AC23,LEFT(AC24,1),"c"))</f>
+        <f t="shared" si="80"/>
         <v>B50lc</v>
       </c>
       <c r="AD25" t="str">
-        <f t="shared" ref="AD25" si="80">IF(AD23=0,"",CONCATENATE("B",AD23,LEFT(AD24,1),"c"))</f>
+        <f t="shared" ref="AD25" si="81">IF(AD23=0,"",CONCATENATE("B",AD23,LEFT(AD24,1),"c"))</f>
         <v/>
       </c>
       <c r="AE25" t="str">
@@ -5457,7 +5454,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>418</v>
       </c>
@@ -5466,111 +5463,111 @@
         <v>batteryLC0</v>
       </c>
       <c r="D26" t="str">
-        <f t="shared" ref="D26:W26" si="81">CONCATENATE("battery",UPPER(LEFT(D24,1)), "C",D23)</f>
+        <f t="shared" ref="D26:W26" si="82">CONCATENATE("battery",UPPER(LEFT(D24,1)), "C",D23)</f>
         <v>batteryLC0</v>
       </c>
       <c r="E26" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>batteryLC0</v>
       </c>
       <c r="F26" t="str">
-        <f t="shared" ref="F26" si="82">CONCATENATE("battery",UPPER(LEFT(F24,1)), "C",F23)</f>
+        <f t="shared" ref="F26" si="83">CONCATENATE("battery",UPPER(LEFT(F24,1)), "C",F23)</f>
         <v>batteryLC0</v>
       </c>
       <c r="G26" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>batteryLC0</v>
       </c>
       <c r="H26" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>batteryLC0</v>
       </c>
       <c r="I26" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>batteryLC0</v>
       </c>
       <c r="J26" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>batteryLC0</v>
       </c>
       <c r="K26" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>batteryLC0</v>
       </c>
       <c r="L26" t="str">
-        <f t="shared" ref="L26" si="83">CONCATENATE("battery",UPPER(LEFT(L24,1)), "C",L23)</f>
+        <f t="shared" ref="L26" si="84">CONCATENATE("battery",UPPER(LEFT(L24,1)), "C",L23)</f>
         <v>batteryLC0</v>
       </c>
       <c r="M26" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>batteryLC0</v>
       </c>
       <c r="N26" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>batteryLC0</v>
       </c>
       <c r="O26" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>batteryLC0</v>
       </c>
       <c r="P26" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>batteryLC0</v>
       </c>
       <c r="Q26" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>batteryLC0</v>
       </c>
       <c r="R26" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>batteryLC0</v>
       </c>
       <c r="S26" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>batteryLC0</v>
       </c>
       <c r="T26" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>batteryLC0</v>
       </c>
       <c r="U26" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>batteryLC0</v>
       </c>
       <c r="V26" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>batteryLC0</v>
       </c>
       <c r="W26" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>batteryLC0</v>
       </c>
       <c r="X26" t="str">
-        <f>CONCATENATE("battery",UPPER(LEFT(X24,1)), "C",X23)</f>
+        <f t="shared" ref="X26:AC26" si="85">CONCATENATE("battery",UPPER(LEFT(X24,1)), "C",X23)</f>
         <v>batteryLC25</v>
       </c>
       <c r="Y26" t="str">
-        <f>CONCATENATE("battery",UPPER(LEFT(Y24,1)), "C",Y23)</f>
+        <f t="shared" si="85"/>
         <v>batteryLC50</v>
       </c>
       <c r="Z26" t="str">
-        <f>CONCATENATE("battery",UPPER(LEFT(Z24,1)), "C",Z23)</f>
+        <f t="shared" si="85"/>
         <v>batteryLC25</v>
       </c>
       <c r="AA26" t="str">
-        <f>CONCATENATE("battery",UPPER(LEFT(AA24,1)), "C",AA23)</f>
+        <f t="shared" si="85"/>
         <v>batteryLC50</v>
       </c>
       <c r="AB26" t="str">
-        <f>CONCATENATE("battery",UPPER(LEFT(AB24,1)), "C",AB23)</f>
+        <f t="shared" si="85"/>
         <v>batteryLC50</v>
       </c>
       <c r="AC26" t="str">
-        <f>CONCATENATE("battery",UPPER(LEFT(AC24,1)), "C",AC23)</f>
+        <f t="shared" si="85"/>
         <v>batteryLC50</v>
       </c>
       <c r="AD26" t="str">
-        <f t="shared" ref="AD26" si="84">CONCATENATE("battery",UPPER(LEFT(AD24,1)), "C",AD23)</f>
+        <f t="shared" ref="AD26" si="86">CONCATENATE("battery",UPPER(LEFT(AD24,1)), "C",AD23)</f>
         <v>batteryLC0</v>
       </c>
       <c r="AE26" t="str">
@@ -5586,7 +5583,7 @@
         <v>batteryLC0</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
         <v>269</v>
       </c>
@@ -5687,7 +5684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>271</v>
       </c>
@@ -5788,120 +5785,120 @@
         <v>252</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>273</v>
       </c>
       <c r="C29" t="str">
-        <f t="shared" ref="C29:V29" si="85">IF(C27=0,"",CONCATENATE("W",C27,LEFT(C28,1),"c"))</f>
+        <f t="shared" ref="C29:V29" si="87">IF(C27=0,"",CONCATENATE("W",C27,LEFT(C28,1),"c"))</f>
         <v/>
       </c>
       <c r="D29" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="E29" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="F29" t="str">
-        <f t="shared" ref="F29" si="86">IF(F27=0,"",CONCATENATE("W",F27,LEFT(F28,1),"c"))</f>
+        <f t="shared" ref="F29" si="88">IF(F27=0,"",CONCATENATE("W",F27,LEFT(F28,1),"c"))</f>
         <v/>
       </c>
       <c r="G29" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="H29" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="I29" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="J29" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="K29" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="L29" t="str">
-        <f t="shared" ref="L29" si="87">IF(L27=0,"",CONCATENATE("W",L27,LEFT(L28,1),"c"))</f>
+        <f t="shared" ref="L29" si="89">IF(L27=0,"",CONCATENATE("W",L27,LEFT(L28,1),"c"))</f>
         <v/>
       </c>
       <c r="M29" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>W10lc</v>
       </c>
       <c r="N29" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>W20lc</v>
       </c>
       <c r="O29" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>W30lc</v>
       </c>
       <c r="P29" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="Q29" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="R29" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="S29" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>W30lc</v>
       </c>
       <c r="T29" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="U29" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="V29" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="W29" t="str">
-        <f t="shared" ref="W29:AB29" si="88">IF(W27=0,"",CONCATENATE("W",W27,LEFT(W28,1),"c"))</f>
+        <f t="shared" ref="W29:AB29" si="90">IF(W27=0,"",CONCATENATE("W",W27,LEFT(W28,1),"c"))</f>
         <v/>
       </c>
       <c r="X29" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="Y29" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="Z29" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="AA29" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="AB29" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="AC29" t="str">
-        <f t="shared" ref="AC29" si="89">IF(AC27=0,"",CONCATENATE("W",AC27,LEFT(AC28,1),"c"))</f>
+        <f t="shared" ref="AC29" si="91">IF(AC27=0,"",CONCATENATE("W",AC27,LEFT(AC28,1),"c"))</f>
         <v/>
       </c>
       <c r="AD29" t="str">
-        <f t="shared" ref="AD29" si="90">IF(AD27=0,"",CONCATENATE("W",AD27,LEFT(AD28,1),"c"))</f>
+        <f t="shared" ref="AD29" si="92">IF(AD27=0,"",CONCATENATE("W",AD27,LEFT(AD28,1),"c"))</f>
         <v>W30lc</v>
       </c>
       <c r="AE29" t="str">
@@ -5917,120 +5914,120 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>274</v>
       </c>
       <c r="C30" t="str">
-        <f t="shared" ref="C30:V30" si="91">CONCATENATE("wind",UPPER(LEFT(C28,1)), "C",C27)</f>
+        <f t="shared" ref="C30:V30" si="93">CONCATENATE("wind",UPPER(LEFT(C28,1)), "C",C27)</f>
         <v>windLC0</v>
       </c>
       <c r="D30" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>windLC0</v>
       </c>
       <c r="E30" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>windLC0</v>
       </c>
       <c r="F30" t="str">
-        <f t="shared" ref="F30" si="92">CONCATENATE("wind",UPPER(LEFT(F28,1)), "C",F27)</f>
+        <f t="shared" ref="F30" si="94">CONCATENATE("wind",UPPER(LEFT(F28,1)), "C",F27)</f>
         <v>windLC0</v>
       </c>
       <c r="G30" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>windLC0</v>
       </c>
       <c r="H30" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>windLC0</v>
       </c>
       <c r="I30" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>windLC0</v>
       </c>
       <c r="J30" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>windLC0</v>
       </c>
       <c r="K30" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>windLC0</v>
       </c>
       <c r="L30" t="str">
-        <f t="shared" ref="L30" si="93">CONCATENATE("wind",UPPER(LEFT(L28,1)), "C",L27)</f>
+        <f t="shared" ref="L30" si="95">CONCATENATE("wind",UPPER(LEFT(L28,1)), "C",L27)</f>
         <v>windLC0</v>
       </c>
       <c r="M30" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>windLC10</v>
       </c>
       <c r="N30" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>windLC20</v>
       </c>
       <c r="O30" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>windLC30</v>
       </c>
       <c r="P30" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>windLC0</v>
       </c>
       <c r="Q30" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>windLC0</v>
       </c>
       <c r="R30" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>windLC0</v>
       </c>
       <c r="S30" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>windLC30</v>
       </c>
       <c r="T30" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>windLC0</v>
       </c>
       <c r="U30" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>windLC0</v>
       </c>
       <c r="V30" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>windLC0</v>
       </c>
       <c r="W30" t="str">
-        <f t="shared" ref="W30:AB30" si="94">CONCATENATE("wind",UPPER(LEFT(W28,1)), "C",W27)</f>
+        <f t="shared" ref="W30:AB30" si="96">CONCATENATE("wind",UPPER(LEFT(W28,1)), "C",W27)</f>
         <v>windLC0</v>
       </c>
       <c r="X30" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>windLC0</v>
       </c>
       <c r="Y30" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>windLC0</v>
       </c>
       <c r="Z30" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>windLC0</v>
       </c>
       <c r="AA30" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>windLC0</v>
       </c>
       <c r="AB30" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>windLC0</v>
       </c>
       <c r="AC30" t="str">
-        <f t="shared" ref="AC30" si="95">CONCATENATE("wind",UPPER(LEFT(AC28,1)), "C",AC27)</f>
+        <f t="shared" ref="AC30" si="97">CONCATENATE("wind",UPPER(LEFT(AC28,1)), "C",AC27)</f>
         <v>windLC0</v>
       </c>
       <c r="AD30" t="str">
-        <f t="shared" ref="AD30" si="96">CONCATENATE("wind",UPPER(LEFT(AD28,1)), "C",AD27)</f>
+        <f t="shared" ref="AD30" si="98">CONCATENATE("wind",UPPER(LEFT(AD28,1)), "C",AD27)</f>
         <v>windLC30</v>
       </c>
       <c r="AE30" t="str">
@@ -6046,7 +6043,7 @@
         <v>windLC0</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" s="21" t="s">
         <v>275</v>
       </c>
@@ -6147,7 +6144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>276</v>
       </c>
@@ -6248,88 +6245,88 @@
         <v>252</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>277</v>
       </c>
       <c r="C33" t="str">
-        <f t="shared" ref="C33:O33" si="97">IF(C31=0,"",CONCATENATE("W",C31,LEFT(C32,1),"c"))</f>
+        <f t="shared" ref="C33:O33" si="99">IF(C31=0,"",CONCATENATE("W",C31,LEFT(C32,1),"c"))</f>
         <v/>
       </c>
       <c r="D33" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v/>
       </c>
       <c r="E33" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v/>
       </c>
       <c r="F33" t="str">
-        <f t="shared" ref="F33" si="98">IF(F31=0,"",CONCATENATE("W",F31,LEFT(F32,1),"c"))</f>
+        <f t="shared" ref="F33" si="100">IF(F31=0,"",CONCATENATE("W",F31,LEFT(F32,1),"c"))</f>
         <v/>
       </c>
       <c r="G33" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v/>
       </c>
       <c r="H33" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v/>
       </c>
       <c r="I33" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v/>
       </c>
       <c r="J33" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v/>
       </c>
       <c r="K33" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v/>
       </c>
       <c r="L33" t="str">
-        <f t="shared" ref="L33" si="99">IF(L31=0,"",CONCATENATE("W",L31,LEFT(L32,1),"c"))</f>
+        <f t="shared" ref="L33" si="101">IF(L31=0,"",CONCATENATE("W",L31,LEFT(L32,1),"c"))</f>
         <v/>
       </c>
       <c r="M33" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v/>
       </c>
       <c r="N33" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v/>
       </c>
       <c r="O33" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v/>
       </c>
       <c r="P33" t="str">
-        <f t="shared" ref="P33:V33" si="100">IF(P31=0,"",CONCATENATE("S",P31,LEFT(P32,1),"c"))</f>
+        <f t="shared" ref="P33:V33" si="102">IF(P31=0,"",CONCATENATE("S",P31,LEFT(P32,1),"c"))</f>
         <v>S10lc</v>
       </c>
       <c r="Q33" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="102"/>
         <v>S20lc</v>
       </c>
       <c r="R33" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="102"/>
         <v>S30lc</v>
       </c>
       <c r="S33" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="102"/>
         <v>S30lc</v>
       </c>
       <c r="T33" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="102"/>
         <v/>
       </c>
       <c r="U33" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="102"/>
         <v/>
       </c>
       <c r="V33" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="102"/>
         <v/>
       </c>
       <c r="W33" t="str">
@@ -6337,31 +6334,31 @@
         <v/>
       </c>
       <c r="X33" t="str">
-        <f>IF(X31=0,"",CONCATENATE("W",X31,LEFT(X32,1),"c"))</f>
+        <f t="shared" ref="X33:AC33" si="103">IF(X31=0,"",CONCATENATE("W",X31,LEFT(X32,1),"c"))</f>
         <v/>
       </c>
       <c r="Y33" t="str">
-        <f>IF(Y31=0,"",CONCATENATE("W",Y31,LEFT(Y32,1),"c"))</f>
+        <f t="shared" si="103"/>
         <v/>
       </c>
       <c r="Z33" t="str">
-        <f>IF(Z31=0,"",CONCATENATE("W",Z31,LEFT(Z32,1),"c"))</f>
+        <f t="shared" si="103"/>
         <v/>
       </c>
       <c r="AA33" t="str">
-        <f>IF(AA31=0,"",CONCATENATE("W",AA31,LEFT(AA32,1),"c"))</f>
+        <f t="shared" si="103"/>
         <v/>
       </c>
       <c r="AB33" t="str">
-        <f>IF(AB31=0,"",CONCATENATE("W",AB31,LEFT(AB32,1),"c"))</f>
+        <f t="shared" si="103"/>
         <v/>
       </c>
       <c r="AC33" t="str">
-        <f>IF(AC31=0,"",CONCATENATE("W",AC31,LEFT(AC32,1),"c"))</f>
+        <f t="shared" si="103"/>
         <v/>
       </c>
       <c r="AD33" t="str">
-        <f t="shared" ref="AD33" si="101">IF(AD31=0,"",CONCATENATE("S",AD31,LEFT(AD32,1),"c"))</f>
+        <f t="shared" ref="AD33" si="104">IF(AD31=0,"",CONCATENATE("S",AD31,LEFT(AD32,1),"c"))</f>
         <v>S30lc</v>
       </c>
       <c r="AE33" t="str">
@@ -6377,120 +6374,120 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>278</v>
       </c>
       <c r="C34" t="str">
-        <f t="shared" ref="C34:V34" si="102">CONCATENATE("solar",UPPER(LEFT(C32,1)), "C",C31)</f>
+        <f t="shared" ref="C34:V34" si="105">CONCATENATE("solar",UPPER(LEFT(C32,1)), "C",C31)</f>
         <v>solarLC0</v>
       </c>
       <c r="D34" t="str">
-        <f t="shared" si="102"/>
-        <v>solarLC0</v>
-      </c>
-      <c r="E34" t="str">
-        <f t="shared" si="102"/>
-        <v>solarLC0</v>
-      </c>
-      <c r="F34" t="str">
-        <f t="shared" ref="F34" si="103">CONCATENATE("solar",UPPER(LEFT(F32,1)), "C",F31)</f>
-        <v>solarLC0</v>
-      </c>
-      <c r="G34" t="str">
-        <f t="shared" si="102"/>
-        <v>solarLC0</v>
-      </c>
-      <c r="H34" t="str">
-        <f t="shared" si="102"/>
-        <v>solarLC0</v>
-      </c>
-      <c r="I34" t="str">
-        <f t="shared" si="102"/>
-        <v>solarLC0</v>
-      </c>
-      <c r="J34" t="str">
-        <f t="shared" si="102"/>
-        <v>solarLC0</v>
-      </c>
-      <c r="K34" t="str">
-        <f t="shared" si="102"/>
-        <v>solarLC0</v>
-      </c>
-      <c r="L34" t="str">
-        <f t="shared" ref="L34" si="104">CONCATENATE("solar",UPPER(LEFT(L32,1)), "C",L31)</f>
-        <v>solarLC0</v>
-      </c>
-      <c r="M34" t="str">
-        <f t="shared" si="102"/>
-        <v>solarLC0</v>
-      </c>
-      <c r="N34" t="str">
-        <f t="shared" si="102"/>
-        <v>solarLC0</v>
-      </c>
-      <c r="O34" t="str">
-        <f t="shared" si="102"/>
-        <v>solarLC0</v>
-      </c>
-      <c r="P34" t="str">
-        <f t="shared" si="102"/>
-        <v>solarLC10</v>
-      </c>
-      <c r="Q34" t="str">
-        <f t="shared" si="102"/>
-        <v>solarLC20</v>
-      </c>
-      <c r="R34" t="str">
-        <f t="shared" si="102"/>
-        <v>solarLC30</v>
-      </c>
-      <c r="S34" t="str">
-        <f t="shared" si="102"/>
-        <v>solarLC30</v>
-      </c>
-      <c r="T34" t="str">
-        <f t="shared" si="102"/>
-        <v>solarLC0</v>
-      </c>
-      <c r="U34" t="str">
-        <f t="shared" si="102"/>
-        <v>solarLC0</v>
-      </c>
-      <c r="V34" t="str">
-        <f t="shared" si="102"/>
-        <v>solarLC0</v>
-      </c>
-      <c r="W34" t="str">
-        <f t="shared" ref="W34:AB34" si="105">CONCATENATE("solar",UPPER(LEFT(W32,1)), "C",W31)</f>
-        <v>solarLC0</v>
-      </c>
-      <c r="X34" t="str">
         <f t="shared" si="105"/>
         <v>solarLC0</v>
       </c>
-      <c r="Y34" t="str">
+      <c r="E34" t="str">
         <f t="shared" si="105"/>
         <v>solarLC0</v>
       </c>
-      <c r="Z34" t="str">
+      <c r="F34" t="str">
+        <f t="shared" ref="F34" si="106">CONCATENATE("solar",UPPER(LEFT(F32,1)), "C",F31)</f>
+        <v>solarLC0</v>
+      </c>
+      <c r="G34" t="str">
         <f t="shared" si="105"/>
         <v>solarLC0</v>
       </c>
-      <c r="AA34" t="str">
+      <c r="H34" t="str">
         <f t="shared" si="105"/>
         <v>solarLC0</v>
       </c>
-      <c r="AB34" t="str">
+      <c r="I34" t="str">
         <f t="shared" si="105"/>
         <v>solarLC0</v>
       </c>
+      <c r="J34" t="str">
+        <f t="shared" si="105"/>
+        <v>solarLC0</v>
+      </c>
+      <c r="K34" t="str">
+        <f t="shared" si="105"/>
+        <v>solarLC0</v>
+      </c>
+      <c r="L34" t="str">
+        <f t="shared" ref="L34" si="107">CONCATENATE("solar",UPPER(LEFT(L32,1)), "C",L31)</f>
+        <v>solarLC0</v>
+      </c>
+      <c r="M34" t="str">
+        <f t="shared" si="105"/>
+        <v>solarLC0</v>
+      </c>
+      <c r="N34" t="str">
+        <f t="shared" si="105"/>
+        <v>solarLC0</v>
+      </c>
+      <c r="O34" t="str">
+        <f t="shared" si="105"/>
+        <v>solarLC0</v>
+      </c>
+      <c r="P34" t="str">
+        <f t="shared" si="105"/>
+        <v>solarLC10</v>
+      </c>
+      <c r="Q34" t="str">
+        <f t="shared" si="105"/>
+        <v>solarLC20</v>
+      </c>
+      <c r="R34" t="str">
+        <f t="shared" si="105"/>
+        <v>solarLC30</v>
+      </c>
+      <c r="S34" t="str">
+        <f t="shared" si="105"/>
+        <v>solarLC30</v>
+      </c>
+      <c r="T34" t="str">
+        <f t="shared" si="105"/>
+        <v>solarLC0</v>
+      </c>
+      <c r="U34" t="str">
+        <f t="shared" si="105"/>
+        <v>solarLC0</v>
+      </c>
+      <c r="V34" t="str">
+        <f t="shared" si="105"/>
+        <v>solarLC0</v>
+      </c>
+      <c r="W34" t="str">
+        <f t="shared" ref="W34:AB34" si="108">CONCATENATE("solar",UPPER(LEFT(W32,1)), "C",W31)</f>
+        <v>solarLC0</v>
+      </c>
+      <c r="X34" t="str">
+        <f t="shared" si="108"/>
+        <v>solarLC0</v>
+      </c>
+      <c r="Y34" t="str">
+        <f t="shared" si="108"/>
+        <v>solarLC0</v>
+      </c>
+      <c r="Z34" t="str">
+        <f t="shared" si="108"/>
+        <v>solarLC0</v>
+      </c>
+      <c r="AA34" t="str">
+        <f t="shared" si="108"/>
+        <v>solarLC0</v>
+      </c>
+      <c r="AB34" t="str">
+        <f t="shared" si="108"/>
+        <v>solarLC0</v>
+      </c>
       <c r="AC34" t="str">
-        <f t="shared" ref="AC34" si="106">CONCATENATE("solar",UPPER(LEFT(AC32,1)), "C",AC31)</f>
+        <f t="shared" ref="AC34" si="109">CONCATENATE("solar",UPPER(LEFT(AC32,1)), "C",AC31)</f>
         <v>solarLC0</v>
       </c>
       <c r="AD34" t="str">
-        <f t="shared" ref="AD34" si="107">CONCATENATE("solar",UPPER(LEFT(AD32,1)), "C",AD31)</f>
+        <f t="shared" ref="AD34" si="110">CONCATENATE("solar",UPPER(LEFT(AD32,1)), "C",AD31)</f>
         <v>solarLC30</v>
       </c>
       <c r="AE34" t="str">
@@ -6506,7 +6503,7 @@
         <v>solarLC0</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" s="21" t="s">
         <v>279</v>
       </c>
@@ -6607,120 +6604,120 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>281</v>
       </c>
       <c r="C36" t="str">
-        <f t="shared" ref="C36:V36" si="108">IF(C35=80,"", CONCATENATE("W",C35))</f>
+        <f t="shared" ref="C36:V36" si="111">IF(C35=80,"", CONCATENATE("W",C35))</f>
         <v/>
       </c>
       <c r="D36" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="111"/>
         <v/>
       </c>
       <c r="E36" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="111"/>
         <v/>
       </c>
       <c r="F36" t="str">
-        <f t="shared" ref="F36" si="109">IF(F35=80,"", CONCATENATE("W",F35))</f>
+        <f t="shared" ref="F36" si="112">IF(F35=80,"", CONCATENATE("W",F35))</f>
         <v/>
       </c>
       <c r="G36" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="111"/>
         <v/>
       </c>
       <c r="H36" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="111"/>
         <v/>
       </c>
       <c r="I36" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="111"/>
         <v/>
       </c>
       <c r="J36" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="111"/>
         <v/>
       </c>
       <c r="K36" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="111"/>
         <v/>
       </c>
       <c r="L36" t="str">
-        <f t="shared" ref="L36" si="110">IF(L35=80,"", CONCATENATE("W",L35))</f>
+        <f t="shared" ref="L36" si="113">IF(L35=80,"", CONCATENATE("W",L35))</f>
         <v/>
       </c>
       <c r="M36" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="111"/>
         <v/>
       </c>
       <c r="N36" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="111"/>
         <v/>
       </c>
       <c r="O36" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="111"/>
         <v/>
       </c>
       <c r="P36" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="111"/>
         <v/>
       </c>
       <c r="Q36" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="111"/>
         <v/>
       </c>
       <c r="R36" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="111"/>
         <v/>
       </c>
       <c r="S36" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="111"/>
         <v/>
       </c>
       <c r="T36" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="111"/>
         <v>W120</v>
       </c>
       <c r="U36" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="111"/>
         <v/>
       </c>
       <c r="V36" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="111"/>
         <v/>
       </c>
       <c r="W36" t="str">
-        <f t="shared" ref="W36:AB36" si="111">IF(W35=80,"", CONCATENATE("W",W35))</f>
+        <f t="shared" ref="W36:AB36" si="114">IF(W35=80,"", CONCATENATE("W",W35))</f>
         <v>W120</v>
       </c>
       <c r="X36" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="114"/>
         <v/>
       </c>
       <c r="Y36" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="114"/>
         <v/>
       </c>
       <c r="Z36" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="114"/>
         <v/>
       </c>
       <c r="AA36" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="114"/>
         <v/>
       </c>
       <c r="AB36" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="114"/>
         <v/>
       </c>
       <c r="AC36" t="str">
-        <f t="shared" ref="AC36" si="112">IF(AC35=80,"", CONCATENATE("W",AC35))</f>
+        <f t="shared" ref="AC36" si="115">IF(AC35=80,"", CONCATENATE("W",AC35))</f>
         <v/>
       </c>
       <c r="AD36" t="str">
-        <f t="shared" ref="AD36" si="113">IF(AD35=80,"", CONCATENATE("W",AD35))</f>
+        <f t="shared" ref="AD36" si="116">IF(AD35=80,"", CONCATENATE("W",AD35))</f>
         <v/>
       </c>
       <c r="AE36" t="str">
@@ -6736,120 +6733,120 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>282</v>
       </c>
       <c r="C37" t="str">
-        <f t="shared" ref="C37:V37" si="114">CONCATENATE("W",C35)</f>
+        <f t="shared" ref="C37:V37" si="117">CONCATENATE("W",C35)</f>
         <v>W80</v>
       </c>
       <c r="D37" t="str">
-        <f t="shared" si="114"/>
-        <v>W80</v>
-      </c>
-      <c r="E37" t="str">
-        <f t="shared" si="114"/>
-        <v>W80</v>
-      </c>
-      <c r="F37" t="str">
-        <f t="shared" ref="F37" si="115">CONCATENATE("W",F35)</f>
-        <v>W80</v>
-      </c>
-      <c r="G37" t="str">
-        <f t="shared" si="114"/>
-        <v>W80</v>
-      </c>
-      <c r="H37" t="str">
-        <f t="shared" si="114"/>
-        <v>W80</v>
-      </c>
-      <c r="I37" t="str">
-        <f t="shared" si="114"/>
-        <v>W80</v>
-      </c>
-      <c r="J37" t="str">
-        <f t="shared" si="114"/>
-        <v>W80</v>
-      </c>
-      <c r="K37" t="str">
-        <f t="shared" si="114"/>
-        <v>W80</v>
-      </c>
-      <c r="L37" t="str">
-        <f t="shared" ref="L37" si="116">CONCATENATE("W",L35)</f>
-        <v>W80</v>
-      </c>
-      <c r="M37" t="str">
-        <f t="shared" si="114"/>
-        <v>W80</v>
-      </c>
-      <c r="N37" t="str">
-        <f t="shared" si="114"/>
-        <v>W80</v>
-      </c>
-      <c r="O37" t="str">
-        <f t="shared" si="114"/>
-        <v>W80</v>
-      </c>
-      <c r="P37" t="str">
-        <f t="shared" si="114"/>
-        <v>W80</v>
-      </c>
-      <c r="Q37" t="str">
-        <f t="shared" si="114"/>
-        <v>W80</v>
-      </c>
-      <c r="R37" t="str">
-        <f t="shared" si="114"/>
-        <v>W80</v>
-      </c>
-      <c r="S37" t="str">
-        <f t="shared" si="114"/>
-        <v>W80</v>
-      </c>
-      <c r="T37" t="str">
-        <f t="shared" si="114"/>
-        <v>W120</v>
-      </c>
-      <c r="U37" t="str">
-        <f t="shared" si="114"/>
-        <v>W80</v>
-      </c>
-      <c r="V37" t="str">
-        <f t="shared" si="114"/>
-        <v>W80</v>
-      </c>
-      <c r="W37" t="str">
-        <f t="shared" ref="W37:AB37" si="117">CONCATENATE("W",W35)</f>
-        <v>W120</v>
-      </c>
-      <c r="X37" t="str">
         <f t="shared" si="117"/>
         <v>W80</v>
       </c>
-      <c r="Y37" t="str">
+      <c r="E37" t="str">
         <f t="shared" si="117"/>
         <v>W80</v>
       </c>
-      <c r="Z37" t="str">
+      <c r="F37" t="str">
+        <f t="shared" ref="F37" si="118">CONCATENATE("W",F35)</f>
+        <v>W80</v>
+      </c>
+      <c r="G37" t="str">
         <f t="shared" si="117"/>
         <v>W80</v>
       </c>
-      <c r="AA37" t="str">
+      <c r="H37" t="str">
         <f t="shared" si="117"/>
         <v>W80</v>
       </c>
-      <c r="AB37" t="str">
+      <c r="I37" t="str">
         <f t="shared" si="117"/>
         <v>W80</v>
       </c>
+      <c r="J37" t="str">
+        <f t="shared" si="117"/>
+        <v>W80</v>
+      </c>
+      <c r="K37" t="str">
+        <f t="shared" si="117"/>
+        <v>W80</v>
+      </c>
+      <c r="L37" t="str">
+        <f t="shared" ref="L37" si="119">CONCATENATE("W",L35)</f>
+        <v>W80</v>
+      </c>
+      <c r="M37" t="str">
+        <f t="shared" si="117"/>
+        <v>W80</v>
+      </c>
+      <c r="N37" t="str">
+        <f t="shared" si="117"/>
+        <v>W80</v>
+      </c>
+      <c r="O37" t="str">
+        <f t="shared" si="117"/>
+        <v>W80</v>
+      </c>
+      <c r="P37" t="str">
+        <f t="shared" si="117"/>
+        <v>W80</v>
+      </c>
+      <c r="Q37" t="str">
+        <f t="shared" si="117"/>
+        <v>W80</v>
+      </c>
+      <c r="R37" t="str">
+        <f t="shared" si="117"/>
+        <v>W80</v>
+      </c>
+      <c r="S37" t="str">
+        <f t="shared" si="117"/>
+        <v>W80</v>
+      </c>
+      <c r="T37" t="str">
+        <f t="shared" si="117"/>
+        <v>W120</v>
+      </c>
+      <c r="U37" t="str">
+        <f t="shared" si="117"/>
+        <v>W80</v>
+      </c>
+      <c r="V37" t="str">
+        <f t="shared" si="117"/>
+        <v>W80</v>
+      </c>
+      <c r="W37" t="str">
+        <f t="shared" ref="W37:AB37" si="120">CONCATENATE("W",W35)</f>
+        <v>W120</v>
+      </c>
+      <c r="X37" t="str">
+        <f t="shared" si="120"/>
+        <v>W80</v>
+      </c>
+      <c r="Y37" t="str">
+        <f t="shared" si="120"/>
+        <v>W80</v>
+      </c>
+      <c r="Z37" t="str">
+        <f t="shared" si="120"/>
+        <v>W80</v>
+      </c>
+      <c r="AA37" t="str">
+        <f t="shared" si="120"/>
+        <v>W80</v>
+      </c>
+      <c r="AB37" t="str">
+        <f t="shared" si="120"/>
+        <v>W80</v>
+      </c>
       <c r="AC37" t="str">
-        <f t="shared" ref="AC37" si="118">CONCATENATE("W",AC35)</f>
+        <f t="shared" ref="AC37" si="121">CONCATENATE("W",AC35)</f>
         <v>W80</v>
       </c>
       <c r="AD37" t="str">
-        <f t="shared" ref="AD37" si="119">CONCATENATE("W",AD35)</f>
+        <f t="shared" ref="AD37" si="122">CONCATENATE("W",AD35)</f>
         <v>W80</v>
       </c>
       <c r="AE37" t="str">
@@ -6865,7 +6862,7 @@
         <v>W80</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" s="21" t="s">
         <v>283</v>
       </c>
@@ -6966,120 +6963,120 @@
         <v>285</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>288</v>
       </c>
       <c r="C39" t="str">
-        <f t="shared" ref="C39:V39" si="120">IF(C38="0d", "", CONCATENATE("S",C38))</f>
+        <f t="shared" ref="C39:V39" si="123">IF(C38="0d", "", CONCATENATE("S",C38))</f>
         <v/>
       </c>
       <c r="D39" t="str">
-        <f t="shared" si="120"/>
+        <f t="shared" si="123"/>
         <v/>
       </c>
       <c r="E39" t="str">
-        <f t="shared" si="120"/>
+        <f t="shared" si="123"/>
         <v/>
       </c>
       <c r="F39" t="str">
-        <f t="shared" ref="F39" si="121">IF(F38="0d", "", CONCATENATE("S",F38))</f>
+        <f t="shared" ref="F39" si="124">IF(F38="0d", "", CONCATENATE("S",F38))</f>
         <v/>
       </c>
       <c r="G39" t="str">
-        <f t="shared" si="120"/>
+        <f t="shared" si="123"/>
         <v/>
       </c>
       <c r="H39" t="str">
-        <f t="shared" si="120"/>
+        <f t="shared" si="123"/>
         <v/>
       </c>
       <c r="I39" t="str">
-        <f t="shared" si="120"/>
+        <f t="shared" si="123"/>
         <v/>
       </c>
       <c r="J39" t="str">
-        <f t="shared" si="120"/>
+        <f t="shared" si="123"/>
         <v/>
       </c>
       <c r="K39" t="str">
-        <f t="shared" si="120"/>
+        <f t="shared" si="123"/>
         <v/>
       </c>
       <c r="L39" t="str">
-        <f t="shared" ref="L39" si="122">IF(L38="0d", "", CONCATENATE("S",L38))</f>
+        <f t="shared" ref="L39" si="125">IF(L38="0d", "", CONCATENATE("S",L38))</f>
         <v/>
       </c>
       <c r="M39" t="str">
-        <f t="shared" si="120"/>
+        <f t="shared" si="123"/>
         <v/>
       </c>
       <c r="N39" t="str">
-        <f t="shared" si="120"/>
+        <f t="shared" si="123"/>
         <v/>
       </c>
       <c r="O39" t="str">
-        <f t="shared" si="120"/>
+        <f t="shared" si="123"/>
         <v/>
       </c>
       <c r="P39" t="str">
-        <f t="shared" si="120"/>
+        <f t="shared" si="123"/>
         <v/>
       </c>
       <c r="Q39" t="str">
-        <f t="shared" si="120"/>
+        <f t="shared" si="123"/>
         <v/>
       </c>
       <c r="R39" t="str">
-        <f t="shared" si="120"/>
+        <f t="shared" si="123"/>
         <v/>
       </c>
       <c r="S39" t="str">
-        <f t="shared" si="120"/>
+        <f t="shared" si="123"/>
         <v/>
       </c>
       <c r="T39" t="str">
-        <f t="shared" si="120"/>
+        <f t="shared" si="123"/>
         <v/>
       </c>
       <c r="U39" t="str">
-        <f t="shared" si="120"/>
+        <f t="shared" si="123"/>
         <v>S1A</v>
       </c>
       <c r="V39" t="str">
-        <f t="shared" si="120"/>
+        <f t="shared" si="123"/>
         <v>S90d</v>
       </c>
       <c r="W39" t="str">
-        <f t="shared" ref="W39:AB39" si="123">IF(W38="0d", "", CONCATENATE("S",W38))</f>
+        <f t="shared" ref="W39:AB39" si="126">IF(W38="0d", "", CONCATENATE("S",W38))</f>
         <v>S1A</v>
       </c>
       <c r="X39" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="126"/>
         <v/>
       </c>
       <c r="Y39" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="126"/>
         <v/>
       </c>
       <c r="Z39" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="126"/>
         <v/>
       </c>
       <c r="AA39" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="126"/>
         <v/>
       </c>
       <c r="AB39" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="126"/>
         <v/>
       </c>
       <c r="AC39" t="str">
-        <f t="shared" ref="AC39" si="124">IF(AC38="0d", "", CONCATENATE("S",AC38))</f>
+        <f t="shared" ref="AC39" si="127">IF(AC38="0d", "", CONCATENATE("S",AC38))</f>
         <v/>
       </c>
       <c r="AD39" t="str">
-        <f t="shared" ref="AD39" si="125">IF(AD38="0d", "", CONCATENATE("S",AD38))</f>
+        <f t="shared" ref="AD39" si="128">IF(AD38="0d", "", CONCATENATE("S",AD38))</f>
         <v/>
       </c>
       <c r="AE39" t="str">
@@ -7095,120 +7092,120 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>289</v>
       </c>
       <c r="C40" t="str">
-        <f t="shared" ref="C40:V40" si="126">CONCATENATE("S",C38)</f>
+        <f t="shared" ref="C40:V40" si="129">CONCATENATE("S",C38)</f>
         <v>S0d</v>
       </c>
       <c r="D40" t="str">
-        <f t="shared" si="126"/>
-        <v>S0d</v>
-      </c>
-      <c r="E40" t="str">
-        <f t="shared" si="126"/>
-        <v>S0d</v>
-      </c>
-      <c r="F40" t="str">
-        <f t="shared" ref="F40" si="127">CONCATENATE("S",F38)</f>
-        <v>S0d</v>
-      </c>
-      <c r="G40" t="str">
-        <f t="shared" si="126"/>
-        <v>S0d</v>
-      </c>
-      <c r="H40" t="str">
-        <f t="shared" si="126"/>
-        <v>S0d</v>
-      </c>
-      <c r="I40" t="str">
-        <f t="shared" si="126"/>
-        <v>S0d</v>
-      </c>
-      <c r="J40" t="str">
-        <f t="shared" si="126"/>
-        <v>S0d</v>
-      </c>
-      <c r="K40" t="str">
-        <f t="shared" si="126"/>
-        <v>S0d</v>
-      </c>
-      <c r="L40" t="str">
-        <f t="shared" ref="L40" si="128">CONCATENATE("S",L38)</f>
-        <v>S0d</v>
-      </c>
-      <c r="M40" t="str">
-        <f t="shared" si="126"/>
-        <v>S0d</v>
-      </c>
-      <c r="N40" t="str">
-        <f t="shared" si="126"/>
-        <v>S0d</v>
-      </c>
-      <c r="O40" t="str">
-        <f t="shared" si="126"/>
-        <v>S0d</v>
-      </c>
-      <c r="P40" t="str">
-        <f t="shared" si="126"/>
-        <v>S0d</v>
-      </c>
-      <c r="Q40" t="str">
-        <f t="shared" si="126"/>
-        <v>S0d</v>
-      </c>
-      <c r="R40" t="str">
-        <f t="shared" si="126"/>
-        <v>S0d</v>
-      </c>
-      <c r="S40" t="str">
-        <f t="shared" si="126"/>
-        <v>S0d</v>
-      </c>
-      <c r="T40" t="str">
-        <f t="shared" si="126"/>
-        <v>S0d</v>
-      </c>
-      <c r="U40" t="str">
-        <f t="shared" si="126"/>
-        <v>S1A</v>
-      </c>
-      <c r="V40" t="str">
-        <f t="shared" si="126"/>
-        <v>S90d</v>
-      </c>
-      <c r="W40" t="str">
-        <f t="shared" ref="W40:AB40" si="129">CONCATENATE("S",W38)</f>
-        <v>S1A</v>
-      </c>
-      <c r="X40" t="str">
         <f t="shared" si="129"/>
         <v>S0d</v>
       </c>
-      <c r="Y40" t="str">
+      <c r="E40" t="str">
         <f t="shared" si="129"/>
         <v>S0d</v>
       </c>
-      <c r="Z40" t="str">
+      <c r="F40" t="str">
+        <f t="shared" ref="F40" si="130">CONCATENATE("S",F38)</f>
+        <v>S0d</v>
+      </c>
+      <c r="G40" t="str">
         <f t="shared" si="129"/>
         <v>S0d</v>
       </c>
-      <c r="AA40" t="str">
+      <c r="H40" t="str">
         <f t="shared" si="129"/>
         <v>S0d</v>
       </c>
-      <c r="AB40" t="str">
+      <c r="I40" t="str">
         <f t="shared" si="129"/>
         <v>S0d</v>
       </c>
+      <c r="J40" t="str">
+        <f t="shared" si="129"/>
+        <v>S0d</v>
+      </c>
+      <c r="K40" t="str">
+        <f t="shared" si="129"/>
+        <v>S0d</v>
+      </c>
+      <c r="L40" t="str">
+        <f t="shared" ref="L40" si="131">CONCATENATE("S",L38)</f>
+        <v>S0d</v>
+      </c>
+      <c r="M40" t="str">
+        <f t="shared" si="129"/>
+        <v>S0d</v>
+      </c>
+      <c r="N40" t="str">
+        <f t="shared" si="129"/>
+        <v>S0d</v>
+      </c>
+      <c r="O40" t="str">
+        <f t="shared" si="129"/>
+        <v>S0d</v>
+      </c>
+      <c r="P40" t="str">
+        <f t="shared" si="129"/>
+        <v>S0d</v>
+      </c>
+      <c r="Q40" t="str">
+        <f t="shared" si="129"/>
+        <v>S0d</v>
+      </c>
+      <c r="R40" t="str">
+        <f t="shared" si="129"/>
+        <v>S0d</v>
+      </c>
+      <c r="S40" t="str">
+        <f t="shared" si="129"/>
+        <v>S0d</v>
+      </c>
+      <c r="T40" t="str">
+        <f t="shared" si="129"/>
+        <v>S0d</v>
+      </c>
+      <c r="U40" t="str">
+        <f t="shared" si="129"/>
+        <v>S1A</v>
+      </c>
+      <c r="V40" t="str">
+        <f t="shared" si="129"/>
+        <v>S90d</v>
+      </c>
+      <c r="W40" t="str">
+        <f t="shared" ref="W40:AB40" si="132">CONCATENATE("S",W38)</f>
+        <v>S1A</v>
+      </c>
+      <c r="X40" t="str">
+        <f t="shared" si="132"/>
+        <v>S0d</v>
+      </c>
+      <c r="Y40" t="str">
+        <f t="shared" si="132"/>
+        <v>S0d</v>
+      </c>
+      <c r="Z40" t="str">
+        <f t="shared" si="132"/>
+        <v>S0d</v>
+      </c>
+      <c r="AA40" t="str">
+        <f t="shared" si="132"/>
+        <v>S0d</v>
+      </c>
+      <c r="AB40" t="str">
+        <f t="shared" si="132"/>
+        <v>S0d</v>
+      </c>
       <c r="AC40" t="str">
-        <f t="shared" ref="AC40" si="130">CONCATENATE("S",AC38)</f>
+        <f t="shared" ref="AC40" si="133">CONCATENATE("S",AC38)</f>
         <v>S0d</v>
       </c>
       <c r="AD40" t="str">
-        <f t="shared" ref="AD40" si="131">CONCATENATE("S",AD38)</f>
+        <f t="shared" ref="AD40" si="134">CONCATENATE("S",AD38)</f>
         <v>S0d</v>
       </c>
       <c r="AE40" t="str">
@@ -7224,7 +7221,7 @@
         <v>S0d</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41" s="21" t="s">
         <v>290</v>
       </c>
@@ -7323,120 +7320,120 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>291</v>
       </c>
       <c r="C42" t="str">
-        <f t="shared" ref="C42:V42" si="132">IF(C41=2014,"",CONCATENATE("L",C41))</f>
+        <f t="shared" ref="C42:V42" si="135">IF(C41=2014,"",CONCATENATE("L",C41))</f>
         <v/>
       </c>
       <c r="D42" t="str">
-        <f t="shared" si="132"/>
+        <f t="shared" si="135"/>
         <v/>
       </c>
       <c r="E42" t="str">
-        <f t="shared" si="132"/>
+        <f t="shared" si="135"/>
         <v/>
       </c>
       <c r="F42" t="str">
-        <f t="shared" ref="F42" si="133">IF(F41=2014,"",CONCATENATE("L",F41))</f>
+        <f t="shared" ref="F42" si="136">IF(F41=2014,"",CONCATENATE("L",F41))</f>
         <v/>
       </c>
       <c r="G42" t="str">
-        <f t="shared" si="132"/>
+        <f t="shared" si="135"/>
         <v/>
       </c>
       <c r="H42" t="str">
-        <f t="shared" si="132"/>
+        <f t="shared" si="135"/>
         <v/>
       </c>
       <c r="I42" t="str">
-        <f t="shared" si="132"/>
+        <f t="shared" si="135"/>
         <v/>
       </c>
       <c r="J42" t="str">
-        <f t="shared" si="132"/>
+        <f t="shared" si="135"/>
         <v/>
       </c>
       <c r="K42" t="str">
-        <f t="shared" si="132"/>
+        <f t="shared" si="135"/>
         <v/>
       </c>
       <c r="L42" t="str">
-        <f t="shared" ref="L42" si="134">IF(L41=2014,"",CONCATENATE("L",L41))</f>
+        <f t="shared" ref="L42" si="137">IF(L41=2014,"",CONCATENATE("L",L41))</f>
         <v/>
       </c>
       <c r="M42" t="str">
-        <f t="shared" si="132"/>
+        <f t="shared" si="135"/>
         <v/>
       </c>
       <c r="N42" t="str">
-        <f t="shared" si="132"/>
+        <f t="shared" si="135"/>
         <v/>
       </c>
       <c r="O42" t="str">
-        <f t="shared" si="132"/>
+        <f t="shared" si="135"/>
         <v/>
       </c>
       <c r="P42" t="str">
-        <f t="shared" si="132"/>
+        <f t="shared" si="135"/>
         <v/>
       </c>
       <c r="Q42" t="str">
-        <f t="shared" si="132"/>
+        <f t="shared" si="135"/>
         <v/>
       </c>
       <c r="R42" t="str">
-        <f t="shared" si="132"/>
+        <f t="shared" si="135"/>
         <v/>
       </c>
       <c r="S42" t="str">
-        <f t="shared" si="132"/>
+        <f t="shared" si="135"/>
         <v/>
       </c>
       <c r="T42" t="str">
-        <f t="shared" si="132"/>
+        <f t="shared" si="135"/>
         <v/>
       </c>
       <c r="U42" t="str">
-        <f t="shared" si="132"/>
+        <f t="shared" si="135"/>
         <v/>
       </c>
       <c r="V42" t="str">
-        <f t="shared" si="132"/>
+        <f t="shared" si="135"/>
         <v/>
       </c>
       <c r="W42" t="str">
-        <f t="shared" ref="W42:AB42" si="135">IF(W41=2014,"",CONCATENATE("L",W41))</f>
+        <f t="shared" ref="W42:AB42" si="138">IF(W41=2014,"",CONCATENATE("L",W41))</f>
         <v/>
       </c>
       <c r="X42" t="str">
-        <f t="shared" si="135"/>
+        <f t="shared" si="138"/>
         <v/>
       </c>
       <c r="Y42" t="str">
-        <f t="shared" si="135"/>
+        <f t="shared" si="138"/>
         <v/>
       </c>
       <c r="Z42" t="str">
-        <f t="shared" si="135"/>
+        <f t="shared" si="138"/>
         <v/>
       </c>
       <c r="AA42" t="str">
-        <f t="shared" si="135"/>
+        <f t="shared" si="138"/>
         <v/>
       </c>
       <c r="AB42" t="str">
-        <f t="shared" si="135"/>
+        <f t="shared" si="138"/>
         <v/>
       </c>
       <c r="AC42" t="str">
-        <f t="shared" ref="AC42" si="136">IF(AC41=2014,"",CONCATENATE("L",AC41))</f>
+        <f t="shared" ref="AC42" si="139">IF(AC41=2014,"",CONCATENATE("L",AC41))</f>
         <v/>
       </c>
       <c r="AD42" t="str">
-        <f t="shared" ref="AD42" si="137">IF(AD41=2014,"",CONCATENATE("L",AD41))</f>
+        <f t="shared" ref="AD42" si="140">IF(AD41=2014,"",CONCATENATE("L",AD41))</f>
         <v/>
       </c>
       <c r="AE42" t="str">
@@ -7452,7 +7449,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43" s="21" t="s">
         <v>292</v>
       </c>
@@ -7553,120 +7550,120 @@
         <v>469</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>295</v>
       </c>
       <c r="C44" t="str">
-        <f t="shared" ref="C44:V44" si="138">IF(C43="none","",CONCATENATE("L",C43))</f>
+        <f t="shared" ref="C44:V44" si="141">IF(C43="none","",CONCATENATE("L",C43))</f>
         <v/>
       </c>
       <c r="D44" t="str">
-        <f t="shared" si="138"/>
+        <f t="shared" si="141"/>
         <v/>
       </c>
       <c r="E44" t="str">
-        <f t="shared" si="138"/>
+        <f t="shared" si="141"/>
         <v/>
       </c>
       <c r="F44" t="str">
-        <f t="shared" ref="F44" si="139">IF(F43="none","",CONCATENATE("L",F43))</f>
+        <f t="shared" ref="F44" si="142">IF(F43="none","",CONCATENATE("L",F43))</f>
         <v/>
       </c>
       <c r="G44" t="str">
-        <f t="shared" si="138"/>
+        <f t="shared" si="141"/>
         <v/>
       </c>
       <c r="H44" t="str">
-        <f t="shared" si="138"/>
+        <f t="shared" si="141"/>
         <v/>
       </c>
       <c r="I44" t="str">
-        <f t="shared" si="138"/>
+        <f t="shared" si="141"/>
         <v/>
       </c>
       <c r="J44" t="str">
-        <f t="shared" si="138"/>
+        <f t="shared" si="141"/>
         <v/>
       </c>
       <c r="K44" t="str">
-        <f t="shared" si="138"/>
+        <f t="shared" si="141"/>
         <v/>
       </c>
       <c r="L44" t="str">
-        <f t="shared" ref="L44" si="140">IF(L43="none","",CONCATENATE("L",L43))</f>
+        <f t="shared" ref="L44" si="143">IF(L43="none","",CONCATENATE("L",L43))</f>
         <v/>
       </c>
       <c r="M44" t="str">
-        <f t="shared" si="138"/>
+        <f t="shared" si="141"/>
         <v/>
       </c>
       <c r="N44" t="str">
-        <f t="shared" si="138"/>
+        <f t="shared" si="141"/>
         <v/>
       </c>
       <c r="O44" t="str">
-        <f t="shared" si="138"/>
+        <f t="shared" si="141"/>
         <v/>
       </c>
       <c r="P44" t="str">
-        <f t="shared" si="138"/>
+        <f t="shared" si="141"/>
         <v/>
       </c>
       <c r="Q44" t="str">
-        <f t="shared" si="138"/>
+        <f t="shared" si="141"/>
         <v/>
       </c>
       <c r="R44" t="str">
-        <f t="shared" si="138"/>
+        <f t="shared" si="141"/>
         <v/>
       </c>
       <c r="S44" t="str">
-        <f t="shared" si="138"/>
+        <f t="shared" si="141"/>
         <v/>
       </c>
       <c r="T44" t="str">
-        <f t="shared" si="138"/>
+        <f t="shared" si="141"/>
         <v/>
       </c>
       <c r="U44" t="str">
-        <f t="shared" si="138"/>
+        <f t="shared" si="141"/>
         <v/>
       </c>
       <c r="V44" t="str">
-        <f t="shared" si="138"/>
+        <f t="shared" si="141"/>
         <v/>
       </c>
       <c r="W44" t="str">
-        <f t="shared" ref="W44:AB44" si="141">IF(W43="none","",CONCATENATE("L",W43))</f>
+        <f t="shared" ref="W44:AB44" si="144">IF(W43="none","",CONCATENATE("L",W43))</f>
         <v/>
       </c>
       <c r="X44" t="str">
-        <f t="shared" si="141"/>
+        <f t="shared" si="144"/>
         <v/>
       </c>
       <c r="Y44" t="str">
-        <f t="shared" si="141"/>
+        <f t="shared" si="144"/>
         <v/>
       </c>
       <c r="Z44" t="str">
-        <f t="shared" si="141"/>
+        <f t="shared" si="144"/>
         <v/>
       </c>
       <c r="AA44" t="str">
-        <f t="shared" si="141"/>
+        <f t="shared" si="144"/>
         <v/>
       </c>
       <c r="AB44" t="str">
-        <f t="shared" si="141"/>
+        <f t="shared" si="144"/>
         <v/>
       </c>
       <c r="AC44" t="str">
-        <f t="shared" ref="AC44" si="142">IF(AC43="none","",CONCATENATE("L",AC43))</f>
+        <f t="shared" ref="AC44" si="145">IF(AC43="none","",CONCATENATE("L",AC43))</f>
         <v/>
       </c>
       <c r="AD44" t="str">
-        <f t="shared" ref="AD44" si="143">IF(AD43="none","",CONCATENATE("L",AD43))</f>
+        <f t="shared" ref="AD44" si="146">IF(AD43="none","",CONCATENATE("L",AD43))</f>
         <v/>
       </c>
       <c r="AE44" t="str">
@@ -7682,7 +7679,7 @@
         <v>Lmod_D25_M25_energyOnly</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45" s="21" t="s">
         <v>296</v>
       </c>
@@ -7783,7 +7780,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>299</v>
       </c>
@@ -7881,120 +7878,120 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>300</v>
       </c>
       <c r="C47" t="str">
-        <f t="shared" ref="C47:V47" si="144">IF(C45="RT","",CONCATENATE(C45,C46))</f>
+        <f t="shared" ref="C47:V47" si="147">IF(C45="RT","",CONCATENATE(C45,C46))</f>
         <v/>
       </c>
       <c r="D47" t="str">
-        <f t="shared" si="144"/>
+        <f t="shared" si="147"/>
         <v/>
       </c>
       <c r="E47" t="str">
-        <f t="shared" si="144"/>
+        <f t="shared" si="147"/>
         <v/>
       </c>
       <c r="F47" t="str">
-        <f t="shared" ref="F47" si="145">IF(F45="RT","",CONCATENATE(F45,F46))</f>
+        <f t="shared" ref="F47" si="148">IF(F45="RT","",CONCATENATE(F45,F46))</f>
         <v/>
       </c>
       <c r="G47" t="str">
-        <f t="shared" si="144"/>
+        <f t="shared" si="147"/>
         <v/>
       </c>
       <c r="H47" t="str">
-        <f t="shared" si="144"/>
+        <f t="shared" si="147"/>
         <v/>
       </c>
       <c r="I47" t="str">
-        <f t="shared" si="144"/>
+        <f t="shared" si="147"/>
         <v/>
       </c>
       <c r="J47" t="str">
-        <f t="shared" si="144"/>
+        <f t="shared" si="147"/>
         <v/>
       </c>
       <c r="K47" t="str">
-        <f t="shared" si="144"/>
+        <f t="shared" si="147"/>
         <v/>
       </c>
       <c r="L47" t="str">
-        <f t="shared" ref="L47" si="146">IF(L45="RT","",CONCATENATE(L45,L46))</f>
+        <f t="shared" ref="L47" si="149">IF(L45="RT","",CONCATENATE(L45,L46))</f>
         <v/>
       </c>
       <c r="M47" t="str">
-        <f t="shared" si="144"/>
+        <f t="shared" si="147"/>
         <v/>
       </c>
       <c r="N47" t="str">
-        <f t="shared" si="144"/>
+        <f t="shared" si="147"/>
         <v/>
       </c>
       <c r="O47" t="str">
-        <f t="shared" si="144"/>
+        <f t="shared" si="147"/>
         <v/>
       </c>
       <c r="P47" t="str">
-        <f t="shared" si="144"/>
+        <f t="shared" si="147"/>
         <v/>
       </c>
       <c r="Q47" t="str">
-        <f t="shared" si="144"/>
+        <f t="shared" si="147"/>
         <v/>
       </c>
       <c r="R47" t="str">
-        <f t="shared" si="144"/>
+        <f t="shared" si="147"/>
         <v/>
       </c>
       <c r="S47" t="str">
-        <f t="shared" si="144"/>
+        <f t="shared" si="147"/>
         <v/>
       </c>
       <c r="T47" t="str">
-        <f t="shared" si="144"/>
+        <f t="shared" si="147"/>
         <v/>
       </c>
       <c r="U47" t="str">
-        <f t="shared" si="144"/>
+        <f t="shared" si="147"/>
         <v/>
       </c>
       <c r="V47" t="str">
-        <f t="shared" si="144"/>
+        <f t="shared" si="147"/>
         <v/>
       </c>
       <c r="W47" t="str">
-        <f t="shared" ref="W47:AB47" si="147">IF(W45="RT","",CONCATENATE(W45,W46))</f>
+        <f t="shared" ref="W47:AB47" si="150">IF(W45="RT","",CONCATENATE(W45,W46))</f>
         <v/>
       </c>
       <c r="X47" t="str">
-        <f t="shared" si="147"/>
+        <f t="shared" si="150"/>
         <v/>
       </c>
       <c r="Y47" t="str">
-        <f t="shared" si="147"/>
+        <f t="shared" si="150"/>
         <v/>
       </c>
       <c r="Z47" t="str">
-        <f t="shared" si="147"/>
+        <f t="shared" si="150"/>
         <v/>
       </c>
       <c r="AA47" t="str">
-        <f t="shared" si="147"/>
+        <f t="shared" si="150"/>
         <v/>
       </c>
       <c r="AB47" t="str">
-        <f t="shared" si="147"/>
+        <f t="shared" si="150"/>
         <v/>
       </c>
       <c r="AC47" t="str">
-        <f t="shared" ref="AC47" si="148">IF(AC45="RT","",CONCATENATE(AC45,AC46))</f>
+        <f t="shared" ref="AC47" si="151">IF(AC45="RT","",CONCATENATE(AC45,AC46))</f>
         <v/>
       </c>
       <c r="AD47" t="str">
-        <f t="shared" ref="AD47" si="149">IF(AD45="RT","",CONCATENATE(AD45,AD46))</f>
+        <f t="shared" ref="AD47" si="152">IF(AD45="RT","",CONCATENATE(AD45,AD46))</f>
         <v/>
       </c>
       <c r="AE47" t="str">
@@ -8025,25 +8022,25 @@
       <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.33203125" customWidth="1"/>
-    <col min="7" max="7" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5" customWidth="1"/>
-    <col min="9" max="9" width="32.83203125" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.28515625" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" customWidth="1"/>
+    <col min="9" max="9" width="32.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>403</v>
       </c>
@@ -8072,7 +8069,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>395</v>
       </c>
@@ -8083,7 +8080,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>200</v>
       </c>
@@ -8091,7 +8088,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>200</v>
       </c>
@@ -8099,7 +8096,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>200</v>
       </c>
@@ -8107,7 +8104,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>200</v>
       </c>
@@ -8115,7 +8112,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>200</v>
       </c>
@@ -8123,7 +8120,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>300</v>
       </c>
@@ -8131,7 +8128,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>300</v>
       </c>
@@ -8139,7 +8136,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>300</v>
       </c>
@@ -8147,7 +8144,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>300</v>
       </c>
@@ -8155,7 +8152,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>300</v>
       </c>
@@ -8163,7 +8160,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>400</v>
       </c>
@@ -8171,7 +8168,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>400</v>
       </c>
@@ -8179,7 +8176,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>400</v>
       </c>
@@ -8187,7 +8184,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>400</v>
       </c>
@@ -8195,7 +8192,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>400</v>
       </c>
@@ -8203,12 +8200,12 @@
         <v>389</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>387</v>
       </c>
@@ -8216,7 +8213,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D24" s="7" t="s">
         <v>385</v>
       </c>
@@ -8224,7 +8221,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D25" s="7" t="s">
         <v>383</v>
       </c>
@@ -8238,7 +8235,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E26" s="7" t="s">
         <v>381</v>
       </c>
@@ -8249,7 +8246,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F27" t="s">
         <v>379</v>
       </c>
@@ -8260,7 +8257,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F28" t="s">
         <v>377</v>
       </c>
@@ -8271,7 +8268,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F29" t="s">
         <v>375</v>
       </c>
@@ -8282,7 +8279,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F30" t="s">
         <v>373</v>
       </c>
@@ -8293,7 +8290,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D31" s="7" t="s">
         <v>370</v>
       </c>
@@ -8307,7 +8304,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D32" s="7" t="s">
         <v>367</v>
       </c>
@@ -8321,7 +8318,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="33" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D33" s="7" t="s">
         <v>364</v>
       </c>
@@ -8332,7 +8329,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="34" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D34" s="22" t="s">
         <v>361</v>
       </c>
@@ -8346,7 +8343,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="35" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D35" s="7" t="s">
         <v>359</v>
       </c>
@@ -8360,7 +8357,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="36" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D36" s="22" t="s">
         <v>356</v>
       </c>
@@ -8374,7 +8371,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="37" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D37" s="7" t="s">
         <v>354</v>
       </c>
@@ -8388,7 +8385,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="38" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
         <v>350</v>
       </c>
@@ -8396,7 +8393,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="39" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
         <v>349</v>
       </c>
@@ -8404,7 +8401,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="40" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
         <v>347</v>
       </c>
@@ -8415,7 +8412,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="41" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
         <v>345</v>
       </c>
@@ -8426,7 +8423,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="42" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D42" s="7" t="s">
         <v>342</v>
       </c>
@@ -8434,7 +8431,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="43" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
         <v>340</v>
       </c>
@@ -8442,7 +8439,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="44" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
         <v>339</v>
       </c>
@@ -8450,7 +8447,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="45" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
         <v>337</v>
       </c>
@@ -8458,7 +8455,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="46" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D46" s="7" t="s">
         <v>335</v>
       </c>
@@ -8466,7 +8463,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="47" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D47" s="7" t="s">
         <v>333</v>
       </c>
@@ -8474,7 +8471,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="48" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
         <v>332</v>
       </c>
@@ -8482,7 +8479,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="49" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
         <v>330</v>
       </c>
@@ -8490,7 +8487,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="54" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
         <v>329</v>
       </c>
@@ -8504,7 +8501,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="55" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
         <v>322</v>
       </c>
@@ -8518,7 +8515,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="56" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
         <v>320</v>
       </c>
@@ -8529,27 +8526,27 @@
         <v>321</v>
       </c>
     </row>
-    <row r="57" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D57" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="58" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D58" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="59" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D59" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="60" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="63" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D63" t="s">
         <v>326</v>
       </c>
@@ -8560,7 +8557,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="64" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D64" t="s">
         <v>323</v>
       </c>
@@ -8571,7 +8568,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="65" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D65" t="s">
         <v>321</v>
       </c>
@@ -8582,7 +8579,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="66" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D66" t="s">
         <v>316</v>
       </c>
@@ -8593,7 +8590,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="67" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E67" t="s">
         <v>318</v>
       </c>
@@ -8601,7 +8598,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="68" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E68" t="s">
         <v>317</v>
       </c>
@@ -8609,7 +8606,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="69" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E69" t="s">
         <v>316</v>
       </c>
@@ -8617,7 +8614,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="70" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E70" t="s">
         <v>315</v>
       </c>
@@ -8625,7 +8622,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="71" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E71" t="s">
         <v>314</v>
       </c>
@@ -8633,7 +8630,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="72" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F72" t="s">
         <v>313</v>
       </c>
@@ -8652,13 +8649,13 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="36.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.83203125" customWidth="1"/>
+    <col min="6" max="6" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>312</v>
       </c>
@@ -8669,7 +8666,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>309</v>
       </c>
@@ -8686,7 +8683,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>303</v>
       </c>
@@ -8711,7 +8708,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>303</v>
       </c>
@@ -8736,7 +8733,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>303</v>
       </c>
@@ -8755,7 +8752,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>303</v>
       </c>
@@ -8794,33 +8791,33 @@
       <selection activeCell="Y11" sqref="Y11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" customWidth="1"/>
-    <col min="11" max="13" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="25" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.6640625" customWidth="1"/>
-    <col min="27" max="27" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="27.83203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="28.83203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" customWidth="1"/>
+    <col min="11" max="13" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="25" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" customWidth="1"/>
+    <col min="27" max="27" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="29.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>220</v>
       </c>
@@ -8909,7 +8906,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>439</v>
       </c>
@@ -8998,7 +8995,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>409</v>
       </c>
@@ -9084,7 +9081,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>410</v>
       </c>
@@ -9170,7 +9167,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>406</v>
       </c>
@@ -9229,7 +9226,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>407</v>
       </c>
@@ -9288,7 +9285,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>408</v>
       </c>
@@ -9357,40 +9354,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL73"/>
   <sheetViews>
-    <sheetView topLeftCell="G26" workbookViewId="0">
-      <selection activeCell="AM10" sqref="AM10"/>
+    <sheetView topLeftCell="S42" workbookViewId="0">
+      <selection activeCell="AE52" sqref="AE52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.5" customWidth="1"/>
-    <col min="4" max="4" width="11.1640625" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" customWidth="1"/>
-    <col min="7" max="7" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="7" max="7" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="32.42578125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="14" customWidth="1"/>
-    <col min="20" max="20" width="11.5" customWidth="1"/>
-    <col min="21" max="21" width="24.5" customWidth="1"/>
+    <col min="20" max="20" width="11.42578125" customWidth="1"/>
+    <col min="21" max="21" width="24.42578125" customWidth="1"/>
     <col min="22" max="22" width="12" customWidth="1"/>
-    <col min="23" max="23" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.33203125" customWidth="1"/>
-    <col min="25" max="25" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.5" customWidth="1"/>
-    <col min="27" max="27" width="26.1640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="24.1640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="28.83203125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="26.1640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.28515625" customWidth="1"/>
+    <col min="25" max="25" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.42578125" customWidth="1"/>
+    <col min="27" max="27" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="28" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="28.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -9404,7 +9401,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>35</v>
       </c>
@@ -9412,7 +9409,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>34</v>
       </c>
@@ -9459,7 +9456,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>54</v>
       </c>
@@ -9543,7 +9540,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -9618,7 +9615,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -9668,7 +9665,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -9699,7 +9696,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -9710,7 +9707,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -9766,11 +9763,15 @@
         <v>coallcB50lc</v>
       </c>
       <c r="AD9" t="str">
-        <f t="shared" ref="AD9" si="1">CONCATENATE(AD10,IF(AD11="base", "", AD11),IF(AD12="base", "", AD12), IF(AD13="base", "", AD13))</f>
+        <f t="shared" ref="AD9:AE9" si="1">CONCATENATE(AD10,IF(AD11="base", "", AD11),IF(AD12="base", "", AD12), IF(AD13="base", "", AD13))</f>
         <v>coalhcW30lcS30lc</v>
       </c>
-    </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AE9" t="str">
+        <f t="shared" si="1"/>
+        <v>coalhcB50lc</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -9817,8 +9818,11 @@
       <c r="AD10" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AE10" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -9865,8 +9869,11 @@
       <c r="AD11" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AE11" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>96</v>
       </c>
@@ -9913,8 +9920,11 @@
       <c r="AD12" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AE12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -9964,8 +9974,11 @@
       <c r="AD13" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AE13" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -9979,7 +9992,7 @@
         <v>184</v>
       </c>
       <c r="S14" s="1">
-        <f t="shared" ref="S14:AD14" si="2">$R$5</f>
+        <f t="shared" ref="S14:AE14" si="2">$R$5</f>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="T14" s="1">
@@ -10026,9 +10039,12 @@
         <f t="shared" si="2"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AE14" s="1"/>
-    </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AE14" s="1">
+        <f t="shared" si="2"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>434</v>
       </c>
@@ -10042,7 +10058,7 @@
         <v>189</v>
       </c>
       <c r="S15" s="2">
-        <f t="shared" ref="S15:AD15" si="3">$S$5</f>
+        <f t="shared" ref="S15:AE15" si="3">$S$5</f>
         <v>8.5810517220665614E-2</v>
       </c>
       <c r="T15" s="2">
@@ -10089,9 +10105,12 @@
         <f t="shared" si="3"/>
         <v>8.5810517220665614E-2</v>
       </c>
-      <c r="AE15" s="2"/>
-    </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AE15" s="2">
+        <f t="shared" si="3"/>
+        <v>8.5810517220665614E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -10102,7 +10121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -10117,7 +10136,7 @@
         <v>60</v>
       </c>
       <c r="S17" s="5">
-        <f t="shared" ref="S17:AD17" si="4">$Y$4</f>
+        <f t="shared" ref="S17:AE17" si="4">$Y$4</f>
         <v>678.26769230769241</v>
       </c>
       <c r="T17" s="5">
@@ -10164,9 +10183,12 @@
         <f t="shared" si="4"/>
         <v>678.26769230769241</v>
       </c>
-      <c r="AE17" s="5"/>
-    </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AE17" s="5">
+        <f t="shared" si="4"/>
+        <v>678.26769230769241</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>163</v>
       </c>
@@ -10181,7 +10203,7 @@
         <v>58</v>
       </c>
       <c r="S18">
-        <f t="shared" ref="S18:AD18" si="5">$AC$5</f>
+        <f t="shared" ref="S18:AE18" si="5">$AC$5</f>
         <v>10</v>
       </c>
       <c r="T18">
@@ -10228,8 +10250,12 @@
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AE18">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>165</v>
       </c>
@@ -10241,7 +10267,7 @@
         <v>20</v>
       </c>
       <c r="S19" s="5">
-        <f t="shared" ref="S19:AD19" si="6">S$17*S$15+$B$32</f>
+        <f t="shared" ref="S19:AE19" si="6">S$17*S$15+$B$32</f>
         <v>65.002501490990369</v>
       </c>
       <c r="T19" s="5">
@@ -10288,9 +10314,12 @@
         <f t="shared" si="6"/>
         <v>65.002501490990369</v>
       </c>
-      <c r="AE19" s="5"/>
-    </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AE19" s="5">
+        <f t="shared" si="6"/>
+        <v>65.002501490990369</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>47</v>
       </c>
@@ -10305,7 +10334,7 @@
         <v>32</v>
       </c>
       <c r="S20" s="5">
-        <f t="shared" ref="S20:AD20" si="7">($B$34*S$18*10^-3 + $B$33)/(1-$B$46)</f>
+        <f t="shared" ref="S20:AE20" si="7">($B$34*S$18*10^-3 + $B$33)/(1-$B$46)</f>
         <v>126.97417171717171</v>
       </c>
       <c r="T20" s="5">
@@ -10352,9 +10381,12 @@
         <f t="shared" si="7"/>
         <v>126.97417171717171</v>
       </c>
-      <c r="AE20" s="5"/>
-    </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AE20" s="5">
+        <f t="shared" si="7"/>
+        <v>126.97417171717171</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>49</v>
       </c>
@@ -10366,7 +10398,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>47</v>
       </c>
@@ -10381,7 +10413,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>49</v>
       </c>
@@ -10399,7 +10431,7 @@
         <v>61</v>
       </c>
       <c r="S23" s="5">
-        <f t="shared" ref="S23:AD23" si="8">$AA$4</f>
+        <f t="shared" ref="S23:AE23" si="8">$AA$4</f>
         <v>775.16307692307703</v>
       </c>
       <c r="T23" s="5">
@@ -10446,9 +10478,12 @@
         <f t="shared" si="8"/>
         <v>775.16307692307703</v>
       </c>
-      <c r="AE23" s="5"/>
-    </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AE23" s="5">
+        <f t="shared" si="8"/>
+        <v>775.16307692307703</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>133</v>
       </c>
@@ -10463,7 +10498,7 @@
         <v>20</v>
       </c>
       <c r="S24" s="5">
-        <f t="shared" ref="S24:AD24" si="9">S$23*S$15+$C$32</f>
+        <f t="shared" ref="S24:AE24" si="9">S$23*S$15+$C$32</f>
         <v>77.517144561131843</v>
       </c>
       <c r="T24" s="5">
@@ -10510,9 +10545,12 @@
         <f t="shared" si="9"/>
         <v>77.517144561131843</v>
       </c>
-      <c r="AE24" s="5"/>
-    </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AE24" s="5">
+        <f t="shared" si="9"/>
+        <v>77.517144561131843</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>52</v>
       </c>
@@ -10526,7 +10564,7 @@
         <v>32</v>
       </c>
       <c r="S25" s="5">
-        <f t="shared" ref="S25:AD25" si="10">($C$34*S$18*10^-3 + $C$33)/(1-$C$46)</f>
+        <f t="shared" ref="S25:AE25" si="10">($C$34*S$18*10^-3 + $C$33)/(1-$C$46)</f>
         <v>84.936820512820518</v>
       </c>
       <c r="T25" s="5">
@@ -10573,9 +10611,12 @@
         <f t="shared" si="10"/>
         <v>84.936820512820518</v>
       </c>
-      <c r="AE25" s="5"/>
-    </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AE25" s="5">
+        <f t="shared" si="10"/>
+        <v>84.936820512820518</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>53</v>
       </c>
@@ -10586,12 +10627,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="R27" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>43</v>
       </c>
@@ -10649,9 +10690,12 @@
         <f t="shared" ref="AD28" si="12">INDEX($T$4:$U$5, MATCH(AD10,$T$4:$T$5),2)</f>
         <v>1140</v>
       </c>
-      <c r="AE28" s="5"/>
-    </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AE28" s="5">
+        <f>INDEX($T$4:$U$5, MATCH(AE10,$T$4:$T$5),2)</f>
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>16</v>
       </c>
@@ -10662,7 +10706,7 @@
         <v>183</v>
       </c>
       <c r="S29" s="4">
-        <f t="shared" ref="S29:AC29" si="13">$W$4</f>
+        <f t="shared" ref="S29:AE29" si="13">$W$4</f>
         <v>2.6153846153846154</v>
       </c>
       <c r="T29" s="4">
@@ -10709,9 +10753,12 @@
         <f>$W$5</f>
         <v>3.9</v>
       </c>
-      <c r="AE29" s="4"/>
-    </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AE29" s="4">
+        <f>$W$5</f>
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>1</v>
       </c>
@@ -10737,7 +10784,7 @@
         <v>20</v>
       </c>
       <c r="S30" s="5">
-        <f t="shared" ref="S30:AD30" si="14">S$28*S$15+$D$32</f>
+        <f t="shared" ref="S30:AE30" si="14">S$28*S$15+$D$32</f>
         <v>125.88777825200532</v>
       </c>
       <c r="T30" s="5">
@@ -10784,9 +10831,12 @@
         <f t="shared" si="14"/>
         <v>139.92398963155881</v>
       </c>
-      <c r="AE30" s="5"/>
-    </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AE30" s="5">
+        <f t="shared" si="14"/>
+        <v>139.92398963155881</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -10821,7 +10871,7 @@
         <v>32</v>
       </c>
       <c r="S31" s="5">
-        <f t="shared" ref="S31:AD31" si="16">($D$34*S$29*$E$3*10^-3 + $D$33)/(1-$D$46)</f>
+        <f t="shared" ref="S31:AE31" si="16">($D$34*S$29*$E$3*10^-3 + $D$33)/(1-$D$46)</f>
         <v>32.466607822649564</v>
       </c>
       <c r="T31" s="5">
@@ -10868,9 +10918,12 @@
         <f t="shared" si="16"/>
         <v>45.902984148611111</v>
       </c>
-      <c r="AE31" s="5"/>
-    </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AE31" s="5">
+        <f t="shared" si="16"/>
+        <v>45.902984148611111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -10902,7 +10955,7 @@
         <v>2736.5</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -10938,7 +10991,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -11011,12 +11064,15 @@
         <v>3.3984353954038309E-2</v>
       </c>
       <c r="AD34" s="2">
-        <f t="shared" ref="AD34" si="18">(AD24-AD19)*1000/(AD20-AD25)/8760</f>
+        <f t="shared" ref="AD34:AE34" si="18">(AD24-AD19)*1000/(AD20-AD25)/8760</f>
         <v>3.3984353954038309E-2</v>
       </c>
-      <c r="AE34" s="2"/>
-    </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AE34" s="2">
+        <f t="shared" si="18"/>
+        <v>3.3984353954038309E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>74</v>
       </c>
@@ -11086,12 +11142,15 @@
         <v>0.10523612453151106</v>
       </c>
       <c r="AD35" s="2">
-        <f t="shared" ref="AD35" si="20">(AD30-AD24)*1000/(AD25-AD31)/8760</f>
+        <f t="shared" ref="AD35:AE35" si="20">(AD30-AD24)*1000/(AD25-AD31)/8760</f>
         <v>0.18251009215426989</v>
       </c>
-      <c r="AE35" s="2"/>
-    </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AE35" s="2">
+        <f t="shared" si="20"/>
+        <v>0.18251009215426989</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>166</v>
       </c>
@@ -11146,8 +11205,11 @@
       <c r="AD36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AE36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -11215,8 +11277,12 @@
         <f t="shared" si="21"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AE37">
+        <f t="shared" ref="AE37" si="22">AE18</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -11237,56 +11303,59 @@
         <v>cap_cost_ct</v>
       </c>
       <c r="S38" s="5">
-        <f t="shared" ref="S38:AD38" si="22">S17</f>
+        <f t="shared" ref="S38:AD38" si="23">S17</f>
         <v>678.26769230769241</v>
       </c>
       <c r="T38" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>678.26769230769241</v>
       </c>
       <c r="U38" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>678.26769230769241</v>
       </c>
       <c r="V38" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>678.26769230769241</v>
       </c>
       <c r="W38" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>678.26769230769241</v>
       </c>
       <c r="X38" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>678.26769230769241</v>
       </c>
       <c r="Y38" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>678.26769230769241</v>
       </c>
       <c r="Z38" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>678.26769230769241</v>
       </c>
       <c r="AA38" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>678.26769230769241</v>
       </c>
       <c r="AB38" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>678.26769230769241</v>
       </c>
       <c r="AC38" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>678.26769230769241</v>
       </c>
       <c r="AD38" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>678.26769230769241</v>
       </c>
-      <c r="AE38" s="5"/>
-    </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AE38" s="5">
+        <f t="shared" ref="AE38" si="24">AE17</f>
+        <v>678.26769230769241</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>11</v>
       </c>
@@ -11307,56 +11376,59 @@
         <v>cap_cost_ccgt</v>
       </c>
       <c r="S39" s="5">
-        <f t="shared" ref="S39:AD39" si="23">S23</f>
+        <f t="shared" ref="S39:AD39" si="25">S23</f>
         <v>775.16307692307703</v>
       </c>
       <c r="T39" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>775.16307692307703</v>
       </c>
       <c r="U39" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>775.16307692307703</v>
       </c>
       <c r="V39" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>775.16307692307703</v>
       </c>
       <c r="W39" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>775.16307692307703</v>
       </c>
       <c r="X39" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>775.16307692307703</v>
       </c>
       <c r="Y39" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>775.16307692307703</v>
       </c>
       <c r="Z39" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>775.16307692307703</v>
       </c>
       <c r="AA39" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>775.16307692307703</v>
       </c>
       <c r="AB39" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>775.16307692307703</v>
       </c>
       <c r="AC39" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>775.16307692307703</v>
       </c>
       <c r="AD39" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>775.16307692307703</v>
       </c>
-      <c r="AE39" s="5"/>
-    </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AE39" s="5">
+        <f t="shared" ref="AE39" si="26">AE23</f>
+        <v>775.16307692307703</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>12</v>
       </c>
@@ -11381,56 +11453,59 @@
         <v>cap_cost_coal</v>
       </c>
       <c r="S40" s="5">
-        <f t="shared" ref="S40:AD40" si="24">S28</f>
+        <f t="shared" ref="S40:AD40" si="27">S28</f>
         <v>976.42784318082204</v>
       </c>
       <c r="T40" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>1140</v>
       </c>
       <c r="U40" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>976.42784318082204</v>
       </c>
       <c r="V40" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>976.42784318082204</v>
       </c>
       <c r="W40" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>976.42784318082204</v>
       </c>
       <c r="X40" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>976.42784318082204</v>
       </c>
       <c r="Y40" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>976.42784318082204</v>
       </c>
       <c r="Z40" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>976.42784318082204</v>
       </c>
       <c r="AA40" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>976.42784318082204</v>
       </c>
       <c r="AB40" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>976.42784318082204</v>
       </c>
       <c r="AC40" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>976.42784318082204</v>
       </c>
       <c r="AD40" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>1140</v>
       </c>
-      <c r="AE40" s="5"/>
-    </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AE40" s="5">
+        <f t="shared" ref="AE40" si="28">AE28</f>
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>13</v>
       </c>
@@ -11451,7 +11526,7 @@
         <v>551.69230769230774</v>
       </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>21</v>
       </c>
@@ -11474,20 +11549,20 @@
         <v>192</v>
       </c>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>22</v>
       </c>
       <c r="B43" s="6">
-        <f t="shared" ref="B43:D45" si="25">B39*B$34*10^-3/$E$2</f>
+        <f t="shared" ref="B43:D45" si="29">B39*B$34*10^-3/$E$2</f>
         <v>1.0454948181818182E-3</v>
       </c>
       <c r="C43" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>7.2103090909090911E-4</v>
       </c>
       <c r="D43" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0.22306893749999998</v>
       </c>
       <c r="Q43" t="s">
@@ -11497,20 +11572,20 @@
         <v>193</v>
       </c>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>23</v>
       </c>
       <c r="B44" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0.17250664499999999</v>
       </c>
       <c r="C44" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>2.6317628181818178E-2</v>
       </c>
       <c r="D44" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0.20278994318181817</v>
       </c>
       <c r="Q44">
@@ -11520,69 +11595,72 @@
         <v>195</v>
       </c>
       <c r="S44" s="5">
-        <f t="shared" ref="S44:AD44" si="26">S19</f>
+        <f t="shared" ref="S44:AD44" si="30">S19</f>
         <v>65.002501490990369</v>
       </c>
       <c r="T44" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>65.002501490990369</v>
       </c>
       <c r="U44" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>65.002501490990369</v>
       </c>
       <c r="V44" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>65.002501490990369</v>
       </c>
       <c r="W44" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>65.002501490990369</v>
       </c>
       <c r="X44" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>65.002501490990369</v>
       </c>
       <c r="Y44" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>65.002501490990369</v>
       </c>
       <c r="Z44" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>65.002501490990369</v>
       </c>
       <c r="AA44" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>65.002501490990369</v>
       </c>
       <c r="AB44" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>65.002501490990369</v>
       </c>
       <c r="AC44" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>65.002501490990369</v>
       </c>
       <c r="AD44" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>65.002501490990369</v>
       </c>
-      <c r="AE44" s="5"/>
-    </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AE44" s="5">
+        <f t="shared" ref="AE44" si="31">AE19</f>
+        <v>65.002501490990369</v>
+      </c>
+    </row>
+    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>24</v>
       </c>
       <c r="B45" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>3.1364844545454539E-2</v>
       </c>
       <c r="C45" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>2.0909896363636361E-2</v>
       </c>
       <c r="D45" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>4.4613787499999995E-2</v>
       </c>
       <c r="Q45">
@@ -11592,56 +11670,59 @@
         <v>195</v>
       </c>
       <c r="S45" s="5">
-        <f t="shared" ref="S45:AD45" si="27">S44+S20*$Q$45/1000</f>
+        <f t="shared" ref="S45:AD45" si="32">S44+S20*$Q$45/1000</f>
         <v>1177.2962457334145</v>
       </c>
       <c r="T45" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>1177.2962457334145</v>
       </c>
       <c r="U45" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>1177.2962457334145</v>
       </c>
       <c r="V45" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>1177.2962457334145</v>
       </c>
       <c r="W45" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>1177.2962457334145</v>
       </c>
       <c r="X45" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>1177.2962457334145</v>
       </c>
       <c r="Y45" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>1177.2962457334145</v>
       </c>
       <c r="Z45" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>1177.2962457334145</v>
       </c>
       <c r="AA45" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>1177.2962457334145</v>
       </c>
       <c r="AB45" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>1177.2962457334145</v>
       </c>
       <c r="AC45" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>1177.2962457334145</v>
       </c>
       <c r="AD45" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>1177.2962457334145</v>
       </c>
-      <c r="AE45" s="5"/>
-    </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AE45" s="5">
+        <f t="shared" ref="AE45" si="33">AE44+AE20*$Q$45/1000</f>
+        <v>1177.2962457334145</v>
+      </c>
+    </row>
+    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -11664,56 +11745,59 @@
         <v>196</v>
       </c>
       <c r="S46" s="5">
-        <f t="shared" ref="S46:AD46" si="28">S24</f>
+        <f t="shared" ref="S46:AD46" si="34">S24</f>
         <v>77.517144561131843</v>
       </c>
       <c r="T46" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>77.517144561131843</v>
       </c>
       <c r="U46" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>77.517144561131843</v>
       </c>
       <c r="V46" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>77.517144561131843</v>
       </c>
       <c r="W46" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>77.517144561131843</v>
       </c>
       <c r="X46" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>77.517144561131843</v>
       </c>
       <c r="Y46" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>77.517144561131843</v>
       </c>
       <c r="Z46" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>77.517144561131843</v>
       </c>
       <c r="AA46" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>77.517144561131843</v>
       </c>
       <c r="AB46" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>77.517144561131843</v>
       </c>
       <c r="AC46" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>77.517144561131843</v>
       </c>
       <c r="AD46" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>77.517144561131843</v>
       </c>
-      <c r="AE46" s="5"/>
-    </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AE46" s="5">
+        <f t="shared" ref="AE46" si="35">AE24</f>
+        <v>77.517144561131843</v>
+      </c>
+    </row>
+    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
       <c r="Q47">
         <v>8760</v>
       </c>
@@ -11721,56 +11805,59 @@
         <v>196</v>
       </c>
       <c r="S47" s="5">
-        <f t="shared" ref="S47:AD47" si="29">S46+S25*$Q$47/1000</f>
+        <f t="shared" ref="S47:AD47" si="36">S46+S25*$Q$47/1000</f>
         <v>821.56369225343963</v>
       </c>
       <c r="T47" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>821.56369225343963</v>
       </c>
       <c r="U47" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>821.56369225343963</v>
       </c>
       <c r="V47" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>821.56369225343963</v>
       </c>
       <c r="W47" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>821.56369225343963</v>
       </c>
       <c r="X47" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>821.56369225343963</v>
       </c>
       <c r="Y47" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>821.56369225343963</v>
       </c>
       <c r="Z47" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>821.56369225343963</v>
       </c>
       <c r="AA47" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>821.56369225343963</v>
       </c>
       <c r="AB47" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>821.56369225343963</v>
       </c>
       <c r="AC47" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>821.56369225343963</v>
       </c>
       <c r="AD47" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>821.56369225343963</v>
       </c>
-      <c r="AE47" s="5"/>
-    </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AE47" s="5">
+        <f t="shared" ref="AE47" si="37">AE46+AE25*$Q$47/1000</f>
+        <v>821.56369225343963</v>
+      </c>
+    </row>
+    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>17</v>
       </c>
@@ -11795,56 +11882,59 @@
         <v>3</v>
       </c>
       <c r="S48" s="5">
-        <f t="shared" ref="S48:AD48" si="30">S30</f>
+        <f t="shared" ref="S48:AD48" si="38">S30</f>
         <v>125.88777825200532</v>
       </c>
       <c r="T48" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>139.92398963155881</v>
       </c>
       <c r="U48" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>125.88777825200532</v>
       </c>
       <c r="V48" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>125.88777825200532</v>
       </c>
       <c r="W48" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>125.88777825200532</v>
       </c>
       <c r="X48" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>125.88777825200532</v>
       </c>
       <c r="Y48" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>125.88777825200532</v>
       </c>
       <c r="Z48" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>125.88777825200532</v>
       </c>
       <c r="AA48" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>125.88777825200532</v>
       </c>
       <c r="AB48" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>125.88777825200532</v>
       </c>
       <c r="AC48" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>125.88777825200532</v>
       </c>
       <c r="AD48" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>139.92398963155881</v>
       </c>
-      <c r="AE48" s="5"/>
-    </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AE48" s="5">
+        <f t="shared" ref="AE48" si="39">AE30</f>
+        <v>139.92398963155881</v>
+      </c>
+    </row>
+    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>18</v>
       </c>
@@ -11867,56 +11957,59 @@
         <v>3</v>
       </c>
       <c r="S49" s="5">
-        <f t="shared" ref="S49:AD49" si="31">S48+S31*$Q$49/1000</f>
+        <f t="shared" ref="S49:AD49" si="40">S48+S31*$Q$49/1000</f>
         <v>410.29526277841552</v>
       </c>
       <c r="T49" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>542.03413077339212</v>
       </c>
       <c r="U49" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>410.29526277841552</v>
       </c>
       <c r="V49" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>410.29526277841552</v>
       </c>
       <c r="W49" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>410.29526277841552</v>
       </c>
       <c r="X49" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>410.29526277841552</v>
       </c>
       <c r="Y49" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>410.29526277841552</v>
       </c>
       <c r="Z49" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>410.29526277841552</v>
       </c>
       <c r="AA49" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>410.29526277841552</v>
       </c>
       <c r="AB49" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>410.29526277841552</v>
       </c>
       <c r="AC49" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>410.29526277841552</v>
       </c>
       <c r="AD49" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>542.03413077339212</v>
       </c>
-      <c r="AE49" s="5"/>
-    </row>
-    <row r="50" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AE49" s="5">
+        <f t="shared" ref="AE49" si="41">AE48+AE31*$Q$49/1000</f>
+        <v>542.03413077339212</v>
+      </c>
+    </row>
+    <row r="50" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>19</v>
       </c>
@@ -11933,7 +12026,7 @@
         <v>8.5810517220665614E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>20</v>
       </c>
@@ -11956,7 +12049,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>39</v>
       </c>
@@ -11994,55 +12087,59 @@
         <v>193</v>
       </c>
       <c r="S52" t="str">
-        <f t="shared" ref="S52:AD52" si="32">S9</f>
+        <f t="shared" ref="S52:AD52" si="42">S9</f>
         <v>coallc</v>
       </c>
       <c r="T52" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>coalhc</v>
       </c>
       <c r="U52" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>coallcW10lc</v>
       </c>
       <c r="V52" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>coallcW20lc</v>
       </c>
       <c r="W52" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>coallcW30lc</v>
       </c>
       <c r="X52" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>coallcS10lc</v>
       </c>
       <c r="Y52" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>coallcS20lc</v>
       </c>
       <c r="Z52" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>coallcS30lc</v>
       </c>
       <c r="AA52" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>coallcW30lcS30lc</v>
       </c>
       <c r="AB52" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>coallcB25lc</v>
       </c>
       <c r="AC52" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>coallcB50lc</v>
       </c>
       <c r="AD52" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>coalhcW30lcS30lc</v>
       </c>
-    </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AE52" t="str">
+        <f t="shared" ref="AE52" si="43">AE9</f>
+        <v>coalhcB50lc</v>
+      </c>
+    </row>
+    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>32</v>
       </c>
@@ -12074,56 +12171,59 @@
         <v>199</v>
       </c>
       <c r="S53" s="5">
-        <f t="shared" ref="S53:AD53" si="33">S17</f>
+        <f t="shared" ref="S53:AD53" si="44">S17</f>
         <v>678.26769230769241</v>
       </c>
       <c r="T53" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v>678.26769230769241</v>
       </c>
       <c r="U53" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v>678.26769230769241</v>
       </c>
       <c r="V53" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v>678.26769230769241</v>
       </c>
       <c r="W53" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v>678.26769230769241</v>
       </c>
       <c r="X53" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v>678.26769230769241</v>
       </c>
       <c r="Y53" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v>678.26769230769241</v>
       </c>
       <c r="Z53" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v>678.26769230769241</v>
       </c>
       <c r="AA53" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v>678.26769230769241</v>
       </c>
       <c r="AB53" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v>678.26769230769241</v>
       </c>
       <c r="AC53" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v>678.26769230769241</v>
       </c>
       <c r="AD53" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v>678.26769230769241</v>
       </c>
-      <c r="AE53" s="5"/>
-    </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AE53" s="5">
+        <f t="shared" ref="AE53" si="45">AE17</f>
+        <v>678.26769230769241</v>
+      </c>
+    </row>
+    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>37</v>
       </c>
@@ -12161,56 +12261,59 @@
         <v>199</v>
       </c>
       <c r="S54" s="4">
-        <f t="shared" ref="S54:AD54" si="34">$B$32</f>
+        <f t="shared" ref="S54:AE54" si="46">$B$32</f>
         <v>6.8</v>
       </c>
       <c r="T54" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="46"/>
         <v>6.8</v>
       </c>
       <c r="U54" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="46"/>
         <v>6.8</v>
       </c>
       <c r="V54" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="46"/>
         <v>6.8</v>
       </c>
       <c r="W54" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="46"/>
         <v>6.8</v>
       </c>
       <c r="X54" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="46"/>
         <v>6.8</v>
       </c>
       <c r="Y54" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="46"/>
         <v>6.8</v>
       </c>
       <c r="Z54" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="46"/>
         <v>6.8</v>
       </c>
       <c r="AA54" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="46"/>
         <v>6.8</v>
       </c>
       <c r="AB54" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="46"/>
         <v>6.8</v>
       </c>
       <c r="AC54" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="46"/>
         <v>6.8</v>
       </c>
       <c r="AD54" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="46"/>
         <v>6.8</v>
       </c>
-      <c r="AE54" s="4"/>
-    </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AE54" s="4">
+        <f t="shared" si="46"/>
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>190</v>
       </c>
@@ -12244,56 +12347,59 @@
         <v>200</v>
       </c>
       <c r="S55" s="5">
-        <f t="shared" ref="S55:AD55" si="35">S23</f>
+        <f t="shared" ref="S55:AD55" si="47">S23</f>
         <v>775.16307692307703</v>
       </c>
       <c r="T55" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="47"/>
         <v>775.16307692307703</v>
       </c>
       <c r="U55" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="47"/>
         <v>775.16307692307703</v>
       </c>
       <c r="V55" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="47"/>
         <v>775.16307692307703</v>
       </c>
       <c r="W55" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="47"/>
         <v>775.16307692307703</v>
       </c>
       <c r="X55" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="47"/>
         <v>775.16307692307703</v>
       </c>
       <c r="Y55" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="47"/>
         <v>775.16307692307703</v>
       </c>
       <c r="Z55" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="47"/>
         <v>775.16307692307703</v>
       </c>
       <c r="AA55" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="47"/>
         <v>775.16307692307703</v>
       </c>
       <c r="AB55" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="47"/>
         <v>775.16307692307703</v>
       </c>
       <c r="AC55" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="47"/>
         <v>775.16307692307703</v>
       </c>
       <c r="AD55" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="47"/>
         <v>775.16307692307703</v>
       </c>
-      <c r="AE55" s="5"/>
-    </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AE55" s="5">
+        <f t="shared" ref="AE55" si="48">AE23</f>
+        <v>775.16307692307703</v>
+      </c>
+    </row>
+    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>191</v>
       </c>
@@ -12308,56 +12414,59 @@
         <v>200</v>
       </c>
       <c r="S56" s="4">
-        <f t="shared" ref="S56:AD56" si="36">$C$32</f>
+        <f t="shared" ref="S56:AE56" si="49">$C$32</f>
         <v>11</v>
       </c>
       <c r="T56" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="49"/>
         <v>11</v>
       </c>
       <c r="U56" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="49"/>
         <v>11</v>
       </c>
       <c r="V56" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="49"/>
         <v>11</v>
       </c>
       <c r="W56" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="49"/>
         <v>11</v>
       </c>
       <c r="X56" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="49"/>
         <v>11</v>
       </c>
       <c r="Y56" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="49"/>
         <v>11</v>
       </c>
       <c r="Z56" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="49"/>
         <v>11</v>
       </c>
       <c r="AA56" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="49"/>
         <v>11</v>
       </c>
       <c r="AB56" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="49"/>
         <v>11</v>
       </c>
       <c r="AC56" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="49"/>
         <v>11</v>
       </c>
       <c r="AD56" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="49"/>
         <v>11</v>
       </c>
-      <c r="AE56" s="4"/>
-    </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AE56" s="4">
+        <f t="shared" si="49"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B57" s="12"/>
       <c r="Q57" t="s">
         <v>203</v>
@@ -12366,56 +12475,59 @@
         <v>57</v>
       </c>
       <c r="S57" s="5">
-        <f t="shared" ref="S57:AD57" si="37">S28</f>
+        <f t="shared" ref="S57:AD57" si="50">S28</f>
         <v>976.42784318082204</v>
       </c>
       <c r="T57" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="50"/>
         <v>1140</v>
       </c>
       <c r="U57" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="50"/>
         <v>976.42784318082204</v>
       </c>
       <c r="V57" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="50"/>
         <v>976.42784318082204</v>
       </c>
       <c r="W57" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="50"/>
         <v>976.42784318082204</v>
       </c>
       <c r="X57" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="50"/>
         <v>976.42784318082204</v>
       </c>
       <c r="Y57" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="50"/>
         <v>976.42784318082204</v>
       </c>
       <c r="Z57" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="50"/>
         <v>976.42784318082204</v>
       </c>
       <c r="AA57" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="50"/>
         <v>976.42784318082204</v>
       </c>
       <c r="AB57" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="50"/>
         <v>976.42784318082204</v>
       </c>
       <c r="AC57" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="50"/>
         <v>976.42784318082204</v>
       </c>
       <c r="AD57" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="50"/>
         <v>1140</v>
       </c>
-      <c r="AE57" s="5"/>
-    </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AE57" s="5">
+        <f t="shared" ref="AE57" si="51">AE28</f>
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B58" s="12"/>
       <c r="Q58" t="s">
         <v>204</v>
@@ -12424,56 +12536,59 @@
         <v>57</v>
       </c>
       <c r="S58" s="4">
-        <f t="shared" ref="S58:AD58" si="38">$D$32</f>
+        <f t="shared" ref="S58:AE58" si="52">$D$32</f>
         <v>42.1</v>
       </c>
       <c r="T58" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="52"/>
         <v>42.1</v>
       </c>
       <c r="U58" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="52"/>
         <v>42.1</v>
       </c>
       <c r="V58" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="52"/>
         <v>42.1</v>
       </c>
       <c r="W58" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="52"/>
         <v>42.1</v>
       </c>
       <c r="X58" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="52"/>
         <v>42.1</v>
       </c>
       <c r="Y58" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="52"/>
         <v>42.1</v>
       </c>
       <c r="Z58" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="52"/>
         <v>42.1</v>
       </c>
       <c r="AA58" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="52"/>
         <v>42.1</v>
       </c>
       <c r="AB58" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="52"/>
         <v>42.1</v>
       </c>
       <c r="AC58" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="52"/>
         <v>42.1</v>
       </c>
       <c r="AD58" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="52"/>
         <v>42.1</v>
       </c>
-      <c r="AE58" s="4"/>
-    </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AE58" s="4">
+        <f t="shared" si="52"/>
+        <v>42.1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>149</v>
       </c>
@@ -12484,55 +12599,59 @@
         <v>201</v>
       </c>
       <c r="S59">
-        <f t="shared" ref="S59:AD59" si="39">INDEX($AD$4:$AF$7, MATCH(S11,$AD$4:$AD$7,0), 2)</f>
+        <f t="shared" ref="S59:AD59" si="53">INDEX($AD$4:$AF$7, MATCH(S11,$AD$4:$AD$7,0), 2)</f>
         <v>1100</v>
       </c>
       <c r="T59">
-        <f t="shared" si="39"/>
+        <f t="shared" si="53"/>
         <v>1100</v>
       </c>
       <c r="U59">
-        <f t="shared" si="39"/>
+        <f t="shared" si="53"/>
         <v>990</v>
       </c>
       <c r="V59">
-        <f t="shared" si="39"/>
+        <f t="shared" si="53"/>
         <v>880</v>
       </c>
       <c r="W59">
-        <f t="shared" si="39"/>
+        <f t="shared" si="53"/>
         <v>770</v>
       </c>
       <c r="X59">
-        <f t="shared" si="39"/>
+        <f t="shared" si="53"/>
         <v>1100</v>
       </c>
       <c r="Y59">
-        <f t="shared" si="39"/>
+        <f t="shared" si="53"/>
         <v>1100</v>
       </c>
       <c r="Z59">
-        <f t="shared" si="39"/>
+        <f t="shared" si="53"/>
         <v>1100</v>
       </c>
       <c r="AA59">
-        <f t="shared" si="39"/>
+        <f t="shared" si="53"/>
         <v>770</v>
       </c>
       <c r="AB59">
-        <f t="shared" si="39"/>
+        <f t="shared" si="53"/>
         <v>1100</v>
       </c>
       <c r="AC59">
-        <f t="shared" si="39"/>
+        <f t="shared" si="53"/>
         <v>1100</v>
       </c>
       <c r="AD59">
-        <f t="shared" si="39"/>
+        <f t="shared" si="53"/>
         <v>770</v>
       </c>
-    </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AE59">
+        <f t="shared" ref="AE59" si="54">INDEX($AD$4:$AF$7, MATCH(AE11,$AD$4:$AD$7,0), 2)</f>
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>147</v>
       </c>
@@ -12543,55 +12662,59 @@
         <v>201</v>
       </c>
       <c r="S60">
-        <f t="shared" ref="S60:AD60" si="40">INDEX($AD$4:$AF$7, MATCH(S11,$AD$4:$AD$7,0), 3)</f>
+        <f t="shared" ref="S60:AD60" si="55">INDEX($AD$4:$AF$7, MATCH(S11,$AD$4:$AD$7,0), 3)</f>
         <v>15</v>
       </c>
       <c r="T60">
-        <f t="shared" si="40"/>
+        <f t="shared" si="55"/>
         <v>15</v>
       </c>
       <c r="U60">
-        <f t="shared" si="40"/>
+        <f t="shared" si="55"/>
         <v>15</v>
       </c>
       <c r="V60">
-        <f t="shared" si="40"/>
+        <f t="shared" si="55"/>
         <v>15</v>
       </c>
       <c r="W60">
-        <f t="shared" si="40"/>
+        <f t="shared" si="55"/>
         <v>15</v>
       </c>
       <c r="X60">
-        <f t="shared" si="40"/>
+        <f t="shared" si="55"/>
         <v>15</v>
       </c>
       <c r="Y60">
-        <f t="shared" si="40"/>
+        <f t="shared" si="55"/>
         <v>15</v>
       </c>
       <c r="Z60">
-        <f t="shared" si="40"/>
+        <f t="shared" si="55"/>
         <v>15</v>
       </c>
       <c r="AA60">
-        <f t="shared" si="40"/>
+        <f t="shared" si="55"/>
         <v>15</v>
       </c>
       <c r="AB60">
-        <f t="shared" si="40"/>
+        <f t="shared" si="55"/>
         <v>15</v>
       </c>
       <c r="AC60">
-        <f t="shared" si="40"/>
+        <f t="shared" si="55"/>
         <v>15</v>
       </c>
       <c r="AD60">
-        <f t="shared" si="40"/>
+        <f t="shared" si="55"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AE60">
+        <f t="shared" ref="AE60" si="56">INDEX($AD$4:$AF$7, MATCH(AE11,$AD$4:$AD$7,0), 3)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>0</v>
       </c>
@@ -12614,55 +12737,59 @@
         <v>202</v>
       </c>
       <c r="S61">
-        <f t="shared" ref="S61:AD61" si="41">INDEX($AG$4:$AI$7, MATCH(S12,$AG$4:$AG$7,0), 2)</f>
+        <f t="shared" ref="S61:AD61" si="57">INDEX($AG$4:$AI$7, MATCH(S12,$AG$4:$AG$7,0), 2)</f>
         <v>800</v>
       </c>
       <c r="T61">
-        <f t="shared" si="41"/>
+        <f t="shared" si="57"/>
         <v>800</v>
       </c>
       <c r="U61">
-        <f t="shared" si="41"/>
+        <f t="shared" si="57"/>
         <v>800</v>
       </c>
       <c r="V61">
-        <f t="shared" si="41"/>
+        <f t="shared" si="57"/>
         <v>800</v>
       </c>
       <c r="W61">
-        <f t="shared" si="41"/>
+        <f t="shared" si="57"/>
         <v>800</v>
       </c>
       <c r="X61">
-        <f t="shared" si="41"/>
+        <f t="shared" si="57"/>
         <v>720</v>
       </c>
       <c r="Y61">
-        <f t="shared" si="41"/>
+        <f t="shared" si="57"/>
         <v>640</v>
       </c>
       <c r="Z61">
-        <f t="shared" si="41"/>
+        <f t="shared" si="57"/>
         <v>560</v>
       </c>
       <c r="AA61">
-        <f t="shared" si="41"/>
+        <f t="shared" si="57"/>
         <v>560</v>
       </c>
       <c r="AB61">
-        <f t="shared" si="41"/>
+        <f t="shared" si="57"/>
         <v>800</v>
       </c>
       <c r="AC61">
-        <f t="shared" si="41"/>
+        <f t="shared" si="57"/>
         <v>800</v>
       </c>
       <c r="AD61">
-        <f t="shared" si="41"/>
+        <f t="shared" si="57"/>
         <v>560</v>
       </c>
-    </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AE61">
+        <f t="shared" ref="AE61" si="58">INDEX($AG$4:$AI$7, MATCH(AE12,$AG$4:$AG$7,0), 2)</f>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>8760</v>
       </c>
@@ -12685,55 +12812,59 @@
         <v>202</v>
       </c>
       <c r="S62">
-        <f t="shared" ref="S62:AD62" si="42">INDEX($AG$4:$AI$7, MATCH(S12,$AG$4:$AG$7,0), 3)</f>
+        <f t="shared" ref="S62:AD62" si="59">INDEX($AG$4:$AI$7, MATCH(S12,$AG$4:$AG$7,0), 3)</f>
         <v>10</v>
       </c>
       <c r="T62">
-        <f t="shared" si="42"/>
+        <f t="shared" si="59"/>
         <v>10</v>
       </c>
       <c r="U62">
-        <f t="shared" si="42"/>
+        <f t="shared" si="59"/>
         <v>10</v>
       </c>
       <c r="V62">
-        <f t="shared" si="42"/>
+        <f t="shared" si="59"/>
         <v>10</v>
       </c>
       <c r="W62">
-        <f t="shared" si="42"/>
+        <f t="shared" si="59"/>
         <v>10</v>
       </c>
       <c r="X62">
-        <f t="shared" si="42"/>
+        <f t="shared" si="59"/>
         <v>10</v>
       </c>
       <c r="Y62">
-        <f t="shared" si="42"/>
+        <f t="shared" si="59"/>
         <v>10</v>
       </c>
       <c r="Z62">
-        <f t="shared" si="42"/>
+        <f t="shared" si="59"/>
         <v>10</v>
       </c>
       <c r="AA62">
-        <f t="shared" si="42"/>
+        <f t="shared" si="59"/>
         <v>10</v>
       </c>
       <c r="AB62">
-        <f t="shared" si="42"/>
+        <f t="shared" si="59"/>
         <v>10</v>
       </c>
       <c r="AC62">
-        <f t="shared" si="42"/>
+        <f t="shared" si="59"/>
         <v>10</v>
       </c>
       <c r="AD62">
-        <f t="shared" si="42"/>
+        <f t="shared" si="59"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AE62">
+        <f t="shared" ref="AE62" si="60">INDEX($AG$4:$AI$7, MATCH(AE12,$AG$4:$AG$7,0), 3)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>148</v>
       </c>
@@ -12756,55 +12887,59 @@
         <v>222</v>
       </c>
       <c r="S63">
-        <f t="shared" ref="S63:AD63" si="43">INDEX($AJ$4:$AL$7, MATCH(S13,$AJ$4:$AJ$7,0), 2)</f>
+        <f t="shared" ref="S63:AD63" si="61">INDEX($AJ$4:$AL$7, MATCH(S13,$AJ$4:$AJ$7,0), 2)</f>
         <v>1200</v>
       </c>
       <c r="T63">
-        <f t="shared" si="43"/>
+        <f t="shared" si="61"/>
         <v>1200</v>
       </c>
       <c r="U63">
-        <f t="shared" si="43"/>
+        <f t="shared" si="61"/>
         <v>1200</v>
       </c>
       <c r="V63">
-        <f t="shared" si="43"/>
+        <f t="shared" si="61"/>
         <v>1200</v>
       </c>
       <c r="W63">
-        <f t="shared" si="43"/>
+        <f t="shared" si="61"/>
         <v>1200</v>
       </c>
       <c r="X63">
-        <f t="shared" si="43"/>
+        <f t="shared" si="61"/>
         <v>1200</v>
       </c>
       <c r="Y63">
-        <f t="shared" si="43"/>
+        <f t="shared" si="61"/>
         <v>1200</v>
       </c>
       <c r="Z63">
-        <f t="shared" si="43"/>
+        <f t="shared" si="61"/>
         <v>1200</v>
       </c>
       <c r="AA63">
-        <f t="shared" si="43"/>
+        <f t="shared" si="61"/>
         <v>1200</v>
       </c>
       <c r="AB63">
-        <f t="shared" si="43"/>
+        <f t="shared" si="61"/>
         <v>900</v>
       </c>
       <c r="AC63">
-        <f t="shared" si="43"/>
+        <f t="shared" si="61"/>
         <v>600</v>
       </c>
       <c r="AD63">
-        <f t="shared" si="43"/>
+        <f t="shared" si="61"/>
         <v>1200</v>
       </c>
-    </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AE63">
+        <f t="shared" ref="AE63" si="62">INDEX($AJ$4:$AL$7, MATCH(AE13,$AJ$4:$AJ$7,0), 2)</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
       <c r="Q64" t="s">
         <v>204</v>
       </c>
@@ -12812,60 +12947,64 @@
         <v>222</v>
       </c>
       <c r="S64">
-        <f t="shared" ref="S64:AD64" si="44">INDEX($AJ$4:$AL$7, MATCH(S13,$AJ$4:$AJ$7,0), 3)</f>
+        <f t="shared" ref="S64:AD64" si="63">INDEX($AJ$4:$AL$7, MATCH(S13,$AJ$4:$AJ$7,0), 3)</f>
         <v>76</v>
       </c>
       <c r="T64">
-        <f t="shared" si="44"/>
+        <f t="shared" si="63"/>
         <v>76</v>
       </c>
       <c r="U64">
-        <f t="shared" si="44"/>
+        <f t="shared" si="63"/>
         <v>76</v>
       </c>
       <c r="V64">
-        <f t="shared" si="44"/>
+        <f t="shared" si="63"/>
         <v>76</v>
       </c>
       <c r="W64">
-        <f t="shared" si="44"/>
+        <f t="shared" si="63"/>
         <v>76</v>
       </c>
       <c r="X64">
-        <f t="shared" si="44"/>
+        <f t="shared" si="63"/>
         <v>76</v>
       </c>
       <c r="Y64">
-        <f t="shared" si="44"/>
+        <f t="shared" si="63"/>
         <v>76</v>
       </c>
       <c r="Z64">
-        <f t="shared" si="44"/>
+        <f t="shared" si="63"/>
         <v>76</v>
       </c>
       <c r="AA64">
-        <f t="shared" si="44"/>
+        <f t="shared" si="63"/>
         <v>76</v>
       </c>
       <c r="AB64">
-        <f t="shared" si="44"/>
+        <f t="shared" si="63"/>
         <v>57</v>
       </c>
       <c r="AC64">
-        <f t="shared" si="44"/>
+        <f t="shared" si="63"/>
         <v>38</v>
       </c>
       <c r="AD64">
-        <f t="shared" si="44"/>
+        <f t="shared" si="63"/>
         <v>76</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="AE64">
+        <f t="shared" ref="AE64" si="64">INDEX($AJ$4:$AL$7, MATCH(AE13,$AJ$4:$AJ$7,0), 3)</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>159</v>
       </c>
@@ -12873,7 +13012,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>427</v>
       </c>
@@ -12884,7 +13023,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>428</v>
       </c>
@@ -12895,7 +13034,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>430</v>
       </c>
@@ -12906,7 +13045,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>153</v>
       </c>
@@ -12919,7 +13058,7 @@
         <v>44.890647132724027</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>155</v>
       </c>
@@ -12932,7 +13071,7 @@
         <v>2.917892063627062</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>429</v>
       </c>
@@ -12955,22 +13094,22 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>'Screening curves'!Q34</f>
         <v>parameter</v>
@@ -13023,8 +13162,12 @@
         <f>'Screening curves'!AD9</f>
         <v>coalhcW30lcS30lc</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="N1" t="str">
+        <f>'Screening curves'!AE9</f>
+        <v>coalhcB50lc</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>'Screening curves'!R34</f>
         <v>gas_ct</v>
@@ -13077,12 +13220,15 @@
         <f>'Screening curves'!AD34</f>
         <v>3.3984353954038309E-2</v>
       </c>
-      <c r="N2" s="2"/>
+      <c r="N2" s="2">
+        <f>'Screening curves'!AE34</f>
+        <v>3.3984353954038309E-2</v>
+      </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>'Screening curves'!R35</f>
         <v>gas_ccgt</v>
@@ -13135,12 +13281,15 @@
         <f>'Screening curves'!AD35</f>
         <v>0.18251009215426989</v>
       </c>
-      <c r="N3" s="2"/>
+      <c r="N3" s="2">
+        <f>'Screening curves'!AE35</f>
+        <v>0.18251009215426989</v>
+      </c>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>'Screening curves'!R36</f>
         <v>coal</v>
@@ -13193,12 +13342,15 @@
         <f>'Screening curves'!AD36</f>
         <v>1</v>
       </c>
-      <c r="N4" s="5"/>
+      <c r="N4" s="5">
+        <f>'Screening curves'!AE36</f>
+        <v>1</v>
+      </c>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>'Screening curves'!R37</f>
         <v>gas_price</v>
@@ -13251,12 +13403,15 @@
         <f>'Screening curves'!AD37</f>
         <v>10</v>
       </c>
-      <c r="N5" s="5"/>
+      <c r="N5" s="5">
+        <f>'Screening curves'!AE37</f>
+        <v>10</v>
+      </c>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>'Screening curves'!R38</f>
         <v>cap_cost_ct</v>
@@ -13309,12 +13464,15 @@
         <f>'Screening curves'!AD38</f>
         <v>678.26769230769241</v>
       </c>
-      <c r="N6" s="5"/>
+      <c r="N6" s="5">
+        <f>'Screening curves'!AE38</f>
+        <v>678.26769230769241</v>
+      </c>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>'Screening curves'!R39</f>
         <v>cap_cost_ccgt</v>
@@ -13367,12 +13525,15 @@
         <f>'Screening curves'!AD39</f>
         <v>775.16307692307703</v>
       </c>
-      <c r="N7" s="5"/>
+      <c r="N7" s="5">
+        <f>'Screening curves'!AE39</f>
+        <v>775.16307692307703</v>
+      </c>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>'Screening curves'!R40</f>
         <v>cap_cost_coal</v>
@@ -13425,7 +13586,10 @@
         <f>'Screening curves'!AD40</f>
         <v>1140</v>
       </c>
-      <c r="N8" s="5"/>
+      <c r="N8" s="5">
+        <f>'Screening curves'!AE40</f>
+        <v>1140</v>
+      </c>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
@@ -13444,13 +13608,13 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>'Screening curves'!Q43</f>
         <v>hour</v>
@@ -13468,7 +13632,7 @@
         <v>coalhc</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>'Screening curves'!Q44</f>
         <v>0</v>
@@ -13486,7 +13650,7 @@
         <v>65.002501490990369</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>'Screening curves'!Q45</f>
         <v>8760</v>
@@ -13504,7 +13668,7 @@
         <v>1177.2962457334145</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>'Screening curves'!Q46</f>
         <v>0</v>
@@ -13522,7 +13686,7 @@
         <v>77.517144561131843</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>'Screening curves'!Q47</f>
         <v>8760</v>
@@ -13540,7 +13704,7 @@
         <v>821.56369225343963</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>'Screening curves'!Q48</f>
         <v>0</v>
@@ -13558,7 +13722,7 @@
         <v>139.92398963155881</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>'Screening curves'!Q49</f>
         <v>8760</v>
@@ -13583,26 +13747,28 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
     <col min="5" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.1640625" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" customWidth="1"/>
+    <col min="14" max="14" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>'Screening curves'!Q52</f>
         <v>cost_type</v>
@@ -13659,8 +13825,12 @@
         <f>'Screening curves'!AD9</f>
         <v>coalhcW30lcS30lc</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O1" t="str">
+        <f>'Screening curves'!AE9</f>
+        <v>coalhcB50lc</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>'Screening curves'!Q53</f>
         <v>capital</v>
@@ -13717,8 +13887,12 @@
         <f>'Screening curves'!AD53</f>
         <v>678.26769230769241</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O2" s="5">
+        <f>'Screening curves'!AE53</f>
+        <v>678.26769230769241</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>'Screening curves'!Q54</f>
         <v>om</v>
@@ -13775,8 +13949,12 @@
         <f>'Screening curves'!AD54</f>
         <v>6.8</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O3" s="5">
+        <f>'Screening curves'!AE54</f>
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>'Screening curves'!Q55</f>
         <v>capital</v>
@@ -13833,8 +14011,12 @@
         <f>'Screening curves'!AD55</f>
         <v>775.16307692307703</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O4" s="5">
+        <f>'Screening curves'!AE55</f>
+        <v>775.16307692307703</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>'Screening curves'!Q56</f>
         <v>om</v>
@@ -13891,8 +14073,12 @@
         <f>'Screening curves'!AD56</f>
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O5" s="5">
+        <f>'Screening curves'!AE56</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>'Screening curves'!Q57</f>
         <v>capital</v>
@@ -13949,8 +14135,12 @@
         <f>'Screening curves'!AD57</f>
         <v>1140</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O6" s="5">
+        <f>'Screening curves'!AE57</f>
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>'Screening curves'!Q58</f>
         <v>om</v>
@@ -14007,8 +14197,12 @@
         <f>'Screening curves'!AD58</f>
         <v>42.1</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="5">
+        <f>'Screening curves'!AE58</f>
+        <v>42.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>'Screening curves'!Q59</f>
         <v>capital</v>
@@ -14065,8 +14259,12 @@
         <f>'Screening curves'!AD59</f>
         <v>770</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="5">
+        <f>'Screening curves'!AE59</f>
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>'Screening curves'!Q60</f>
         <v>om</v>
@@ -14123,8 +14321,12 @@
         <f>'Screening curves'!AD60</f>
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="5">
+        <f>'Screening curves'!AE60</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>'Screening curves'!Q61</f>
         <v>capital</v>
@@ -14181,8 +14383,12 @@
         <f>'Screening curves'!AD61</f>
         <v>560</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="5">
+        <f>'Screening curves'!AE61</f>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>'Screening curves'!Q62</f>
         <v>om</v>
@@ -14239,8 +14445,12 @@
         <f>'Screening curves'!AD62</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="5">
+        <f>'Screening curves'!AE62</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>'Screening curves'!Q63</f>
         <v>capital</v>
@@ -14297,8 +14507,12 @@
         <f>'Screening curves'!AD63</f>
         <v>1200</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="5">
+        <f>'Screening curves'!AE63</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>'Screening curves'!Q64</f>
         <v>om</v>
@@ -14354,6 +14568,10 @@
       <c r="N13" s="5">
         <f>'Screening curves'!AD64</f>
         <v>76</v>
+      </c>
+      <c r="O13" s="5">
+        <f>'Screening curves'!AE64</f>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -14370,17 +14588,17 @@
       <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.5" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
@@ -14403,12 +14621,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>115</v>
       </c>
@@ -14428,7 +14646,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>125</v>
       </c>
@@ -14453,7 +14671,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>85</v>
       </c>
@@ -14476,7 +14694,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -14505,7 +14723,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>97</v>
       </c>
@@ -14525,7 +14743,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>108</v>
       </c>
@@ -14549,7 +14767,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>111</v>
       </c>
@@ -14573,7 +14791,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>102</v>
       </c>
@@ -14593,7 +14811,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>108</v>
       </c>
@@ -14617,7 +14835,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>114</v>
       </c>
@@ -14641,7 +14859,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>97</v>
       </c>
@@ -14657,7 +14875,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>108</v>
       </c>
@@ -14675,7 +14893,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>114</v>
       </c>
@@ -14693,7 +14911,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>432</v>
       </c>
@@ -14707,7 +14925,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>432</v>
       </c>
@@ -14722,12 +14940,12 @@
         <v>433</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>129</v>
       </c>
@@ -14747,7 +14965,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>116</v>
       </c>
@@ -14773,7 +14991,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>130</v>
       </c>
@@ -14795,7 +15013,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>131</v>
       </c>
@@ -14817,7 +15035,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>82</v>
       </c>
@@ -14837,7 +15055,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>88</v>
       </c>
@@ -14854,7 +15072,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>118</v>
       </c>
@@ -14877,7 +15095,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>119</v>
       </c>
@@ -14900,7 +15118,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>122</v>
       </c>
@@ -14929,7 +15147,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>123</v>
       </c>
@@ -14958,12 +15176,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>71</v>
       </c>
@@ -14974,7 +15192,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>71</v>
       </c>
@@ -14988,7 +15206,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>71</v>
       </c>
@@ -15008,7 +15226,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>83</v>
       </c>
@@ -15025,7 +15243,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>95</v>
       </c>
@@ -15046,7 +15264,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>83</v>
       </c>
@@ -15066,7 +15284,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>95</v>
       </c>
@@ -15087,17 +15305,17 @@
         <v>84</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>136</v>
       </c>
@@ -15108,7 +15326,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B47" s="8">
         <v>0.108</v>
       </c>
@@ -15116,12 +15334,12 @@
         <v>138</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>141</v>
       </c>
@@ -15132,7 +15350,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>8.5</v>
       </c>
@@ -15140,7 +15358,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B52" s="7">
         <v>10</v>
       </c>
@@ -15148,7 +15366,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>5.5</v>
       </c>
@@ -15156,17 +15374,17 @@
         <v>145</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>150</v>
       </c>
@@ -15177,7 +15395,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>151</v>
       </c>
@@ -15190,7 +15408,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>152</v>
       </c>
@@ -15202,7 +15420,7 @@
       </c>
       <c r="D61" s="17"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>162</v>
       </c>
@@ -15216,7 +15434,7 @@
       </c>
       <c r="D62" s="17"/>
     </row>
-    <row r="63" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>17</v>
       </c>
@@ -15228,7 +15446,7 @@
       </c>
       <c r="D63" s="18"/>
     </row>
-    <row r="64" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>156</v>
       </c>
@@ -15240,7 +15458,7 @@
       </c>
       <c r="D64" s="19"/>
     </row>
-    <row r="65" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>19</v>
       </c>
@@ -15254,7 +15472,7 @@
       </c>
       <c r="D65" s="9"/>
     </row>
-    <row r="66" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>157</v>
       </c>
@@ -15266,7 +15484,7 @@
       </c>
       <c r="D66" s="16"/>
     </row>
-    <row r="67" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>158</v>
       </c>
@@ -15278,7 +15496,7 @@
       </c>
       <c r="D67" s="16"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>154</v>
       </c>
@@ -15292,7 +15510,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>153</v>
       </c>
@@ -15306,7 +15524,7 @@
       </c>
       <c r="D69" s="4"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>155</v>
       </c>
@@ -15335,40 +15553,40 @@
       <selection activeCell="B14" sqref="B14:B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.83203125" customWidth="1"/>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
         <v>107</v>
       </c>
@@ -15403,7 +15621,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2008</v>
       </c>
@@ -15415,7 +15633,7 @@
       </c>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2009</v>
       </c>
@@ -15430,7 +15648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2010</v>
       </c>
@@ -15449,7 +15667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2011</v>
       </c>
@@ -15472,7 +15690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2012</v>
       </c>
@@ -15499,7 +15717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2013</v>
       </c>
@@ -15530,7 +15748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2014</v>
       </c>
@@ -15565,7 +15783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2015</v>
       </c>
@@ -15604,7 +15822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2016</v>
       </c>
@@ -15647,7 +15865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2017</v>
       </c>
@@ -15694,17 +15912,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B22" s="13" t="s">
         <v>107</v>
       </c>
@@ -15739,7 +15957,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2008</v>
       </c>
@@ -15751,7 +15969,7 @@
       </c>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2009</v>
       </c>
@@ -15766,7 +15984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2010</v>
       </c>
@@ -15785,7 +16003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2011</v>
       </c>
@@ -15808,7 +16026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2012</v>
       </c>
@@ -15835,7 +16053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2013</v>
       </c>
@@ -15866,7 +16084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2014</v>
       </c>
@@ -15901,7 +16119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2015</v>
       </c>
@@ -15940,7 +16158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2016</v>
       </c>
@@ -15983,7 +16201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2017</v>
       </c>
@@ -16043,22 +16261,22 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C3">
         <v>70</v>
       </c>
@@ -16066,7 +16284,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>486</v>
       </c>
@@ -16077,7 +16295,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>210</v>
       </c>
@@ -16089,7 +16307,7 @@
         <v>64285.714285714283</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>250</v>
       </c>
@@ -16101,7 +16319,7 @@
         <v>64285.714285714283</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>300</v>
       </c>
@@ -16113,7 +16331,7 @@
         <v>62142.857142857145</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>500</v>
       </c>
@@ -16125,7 +16343,7 @@
         <v>57857.142857142855</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>525</v>
       </c>
@@ -16137,7 +16355,7 @@
         <v>57857.142857142855</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>600</v>
       </c>
@@ -16149,7 +16367,7 @@
         <v>52857.142857142855</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>660</v>
       </c>
@@ -16161,7 +16379,7 @@
         <v>52857.142857142855</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>800</v>
       </c>
@@ -16173,7 +16391,7 @@
         <v>42857.142857142855</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>830</v>
       </c>
